--- a/doc/Test_Scenario_and_Test_Matrix_doc.xlsx
+++ b/doc/Test_Scenario_and_Test_Matrix_doc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="800" windowWidth="25600" windowHeight="16060" tabRatio="790" activeTab="2"/>
+    <workbookView xWindow="1960" yWindow="800" windowWidth="25600" windowHeight="16060" tabRatio="790" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="303">
   <si>
     <t>Project Name</t>
   </si>
@@ -478,6 +478,15 @@
     <t>TC_006</t>
   </si>
   <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test Case ID </t>
   </si>
   <si>
@@ -685,9 +694,6 @@
     <t>Project should be located on Google Drive</t>
   </si>
   <si>
-    <t>Post Cond</t>
-  </si>
-  <si>
     <t>File is created and saved on Google Drive</t>
   </si>
   <si>
@@ -746,6 +752,189 @@
   </si>
   <si>
     <t>Links are created with default properties</t>
+  </si>
+  <si>
+    <t>If there is a set defaults button see if it changes the object to its defaults.</t>
+  </si>
+  <si>
+    <t>Must have a valid object on the view/paper.</t>
+  </si>
+  <si>
+    <t>Select the object from the view.</t>
+  </si>
+  <si>
+    <t>Object is selected and properties present</t>
+  </si>
+  <si>
+    <t>Change the properties in the properties menu</t>
+  </si>
+  <si>
+    <t>Properties are changed from the default ones</t>
+  </si>
+  <si>
+    <t>Press the set to default button</t>
+  </si>
+  <si>
+    <t>Object should be set to default properties</t>
+  </si>
+  <si>
+    <t>Confirm that the default properties are right</t>
+  </si>
+  <si>
+    <t>Default properties are the right ones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object now has default properties </t>
+  </si>
+  <si>
+    <t>TS_012</t>
+  </si>
+  <si>
+    <t>REQ_01-02, REQ_04, REQ_08-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test if a link connects to an object </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the link tab </t>
+  </si>
+  <si>
+    <t>The link tab is clicked and shows all the links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click one of the links </t>
+  </si>
+  <si>
+    <t>One of the links is highlighted</t>
+  </si>
+  <si>
+    <t>Click the view</t>
+  </si>
+  <si>
+    <t>Click one of the sides of the arrow on the link and connect it to the node.</t>
+  </si>
+  <si>
+    <t>Node should be connected to the link</t>
+  </si>
+  <si>
+    <t>Link arrow should be moving with the node.</t>
+  </si>
+  <si>
+    <t>Drag the node to see if it's actually connected to the link</t>
+  </si>
+  <si>
+    <t>Now two nodes are connected to the link on each end</t>
+  </si>
+  <si>
+    <t>Steps 2-6 should pass</t>
+  </si>
+  <si>
+    <t>Repeat steps 2-6 with all other links</t>
+  </si>
+  <si>
+    <t>Must have two nodes on the view/paper that can connect to the link that is being tested.</t>
+  </si>
+  <si>
+    <t>Repeat steps 4-5 for the other node</t>
+  </si>
+  <si>
+    <t>Multiple links should be connected to node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test if a link that isn't supposed to connect to a node does not connect.  </t>
+  </si>
+  <si>
+    <t>Must have a node that doesn't connect to a link</t>
+  </si>
+  <si>
+    <t>Click one of the sides of the arrow on the link and try to connect it to the node</t>
+  </si>
+  <si>
+    <t>Node should NOT connect to the link.</t>
+  </si>
+  <si>
+    <t>Drag the node to see if it's actually NOT connected to the link</t>
+  </si>
+  <si>
+    <t>Link arrow should NOT be moving with the node.</t>
+  </si>
+  <si>
+    <t>Repeat steps 2-6 with all other links that AREN'T supposed to connect with the node.</t>
+  </si>
+  <si>
+    <t>Multiple links should NOT be connected to node</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>TS_12</t>
+  </si>
+  <si>
+    <t>Must have a valid graph/view to place images on</t>
+  </si>
+  <si>
+    <t>REQ_08-11, REQ_14, REQ_15</t>
+  </si>
+  <si>
+    <t>Placing links with polarities on images</t>
+  </si>
+  <si>
+    <t>Click an image on the node list view</t>
+  </si>
+  <si>
+    <t>Image is selected</t>
+  </si>
+  <si>
+    <t>Click view</t>
+  </si>
+  <si>
+    <t>Image should appear on view</t>
+  </si>
+  <si>
+    <t>Click links tab</t>
+  </si>
+  <si>
+    <t>Links show apepar in the list view</t>
+  </si>
+  <si>
+    <t>Click a regular link</t>
+  </si>
+  <si>
+    <t>Regular link is highlighted</t>
+  </si>
+  <si>
+    <t>Link should appear on view</t>
+  </si>
+  <si>
+    <t>Polarity of link should be "+"</t>
+  </si>
+  <si>
+    <t>Connect link so that it's clockwise to the image</t>
+  </si>
+  <si>
+    <t>Delete link and repeat steps 4-5 and connect link so that it's counter-clockwise to the image</t>
+  </si>
+  <si>
+    <t>Polarity of link should be "-"</t>
+  </si>
+  <si>
+    <t>Repeat steps 1-7 with a different image.</t>
+  </si>
+  <si>
+    <t>Post-cond</t>
+  </si>
+  <si>
+    <t>Images have a link with a polarity of "-"</t>
+  </si>
+  <si>
+    <t>REQ_18, REQ_03</t>
+  </si>
+  <si>
+    <t>REQ_13, REQ_07, REQ_12</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1271,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1140,8 +1329,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1191,6 +1388,9 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1200,6 +1400,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1327,6 +1530,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1373,8 +1579,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1403,6 +1612,10 @@
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1431,9 +1644,55 @@
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1853,15 +2112,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:I28"/>
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="4.6640625" customWidth="1"/>
     <col min="9" max="9" width="20.6640625" customWidth="1"/>
     <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
@@ -1877,16 +2136,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
       <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1919,16 +2178,16 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
     </row>
@@ -1936,54 +2195,54 @@
       <c r="A5" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="50" t="s">
+      <c r="B5" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="35" t="s">
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="51" t="s">
+      <c r="J5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="51"/>
+      <c r="K5" s="53"/>
       <c r="L5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="N5" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="53"/>
+      <c r="O5" s="55"/>
     </row>
     <row r="6" spans="1:15" s="13" customFormat="1" ht="29.25" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75" t="s">
+      <c r="C6" s="76"/>
+      <c r="D6" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
       <c r="I6" s="9">
         <v>10</v>
       </c>
-      <c r="J6" s="52">
+      <c r="J6" s="54">
         <v>1</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="54"/>
       <c r="L6" s="9">
         <v>1</v>
       </c>
@@ -1998,88 +2257,88 @@
       <c r="A7" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="75" t="s">
+      <c r="C7" s="70"/>
+      <c r="D7" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="77"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="79"/>
       <c r="I7" s="9">
         <v>10</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="43">
         <v>1</v>
       </c>
-      <c r="K7" s="43"/>
+      <c r="K7" s="45"/>
       <c r="L7" s="9">
         <v>1</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="13" customFormat="1" ht="22" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="79" t="s">
+      <c r="C8" s="70"/>
+      <c r="D8" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="81"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="83"/>
       <c r="I8" s="9">
         <v>10</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="43">
         <v>1</v>
       </c>
-      <c r="K8" s="43"/>
+      <c r="K8" s="45"/>
       <c r="L8" s="9">
         <v>1</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="14" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="82" t="s">
+      <c r="C9" s="70"/>
+      <c r="D9" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="86"/>
       <c r="I9" s="9">
         <v>10</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="43">
         <v>1</v>
       </c>
-      <c r="K9" s="43"/>
+      <c r="K9" s="45"/>
       <c r="L9" s="9">
         <v>1</v>
       </c>
@@ -2094,24 +2353,24 @@
       <c r="A10" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="75" t="s">
+      <c r="C10" s="70"/>
+      <c r="D10" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="77"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="79"/>
       <c r="I10" s="9">
         <v>10</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="43">
         <v>1</v>
       </c>
-      <c r="K10" s="43"/>
+      <c r="K10" s="45"/>
       <c r="L10" s="9">
         <v>1</v>
       </c>
@@ -2122,24 +2381,24 @@
       <c r="A11" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="78" t="s">
+      <c r="C11" s="70"/>
+      <c r="D11" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
       <c r="I11" s="9">
         <v>10</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="43">
         <v>1</v>
       </c>
-      <c r="K11" s="43"/>
+      <c r="K11" s="45"/>
       <c r="L11" s="9">
         <v>1</v>
       </c>
@@ -2148,331 +2407,343 @@
       <c r="A12" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="79" t="s">
+      <c r="C12" s="70"/>
+      <c r="D12" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="71">
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="73">
         <v>7</v>
       </c>
-      <c r="J12" s="69">
+      <c r="J12" s="71">
         <v>1</v>
       </c>
-      <c r="K12" s="70"/>
-      <c r="L12" s="71">
+      <c r="K12" s="72"/>
+      <c r="L12" s="73">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14" customHeight="1">
+    <row r="13" spans="1:15" ht="32" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="79" t="s">
+      <c r="B13" s="69" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" s="70"/>
+      <c r="D13" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
       <c r="I13" s="9">
         <v>8</v>
       </c>
-      <c r="J13" s="72">
+      <c r="J13" s="74">
         <v>2</v>
       </c>
-      <c r="K13" s="72"/>
+      <c r="K13" s="74"/>
       <c r="L13" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="14" customHeight="1">
+    <row r="14" spans="1:15" ht="40" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="79" t="s">
+      <c r="B14" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="70"/>
+      <c r="D14" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="81"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="83"/>
       <c r="I14" s="9">
         <v>6</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="43">
         <v>1</v>
       </c>
-      <c r="K14" s="43"/>
+      <c r="K14" s="45"/>
       <c r="L14" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="27" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="67" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
+        <v>196</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="70"/>
+      <c r="D15" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
       <c r="I15" s="9">
         <v>7</v>
       </c>
-      <c r="J15" s="41">
-        <v>1</v>
-      </c>
-      <c r="K15" s="43"/>
+      <c r="J15" s="43">
+        <v>2</v>
+      </c>
+      <c r="K15" s="45"/>
       <c r="L15" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="14" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B16" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
+        <v>210</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>301</v>
+      </c>
+      <c r="C16" s="70"/>
+      <c r="D16" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
       <c r="I16" s="9">
         <v>6</v>
       </c>
-      <c r="J16" s="107">
-        <v>1</v>
-      </c>
-      <c r="K16" s="108"/>
+      <c r="J16" s="110">
+        <v>3</v>
+      </c>
+      <c r="K16" s="111"/>
       <c r="L16" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="14" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="9"/>
+    <row r="17" spans="1:12" ht="37" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="70"/>
+      <c r="D17" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="9">
+        <v>5</v>
+      </c>
+      <c r="J17" s="110">
+        <v>1</v>
+      </c>
+      <c r="K17" s="111"/>
+      <c r="L17" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="14" customHeight="1">
       <c r="A18" s="9"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="108"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="111"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" ht="28.5" customHeight="1">
       <c r="A19" s="9"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="108"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="111"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" ht="14" customHeight="1">
       <c r="A20" s="9"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="108"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="111"/>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1">
       <c r="A21" s="9"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="45"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="108"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="111"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="9"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="43"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="45"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="108"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="111"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="9"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="43"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="45"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="108"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="111"/>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="9"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="45"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="108"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="111"/>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="9"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="43"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="45"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="108"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="111"/>
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="9"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="45"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="108"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="111"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="83">
@@ -2561,17 +2832,17 @@
     <mergeCell ref="J14:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="D15:D23 I14:J23 I12:I13 L12:L23 N5 D12 I7:M8 D7:D8 B15:B26 A12:A23 A7:A9 B7:B12 D5:M6 D9:M9 A5:B6 A10:B11 D11:M11 D10 I10:M10 T5:XFD11 M12:M20 P12:XFD20 P5:P11 N6:O22">
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
       <formula>IFCOUNT($A$6,"TS_UC_*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A26 D24:D26 I24:J26 L24:L26">
-    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>IFCOUNT($A$6,"TS_UC_*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14 B13:B14">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
       <formula>IFCOUNT($A$6,"TS_UC_*")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2587,77 +2858,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="17" style="37" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="112" customWidth="1"/>
+    <col min="4" max="4" width="17" style="38" customWidth="1"/>
     <col min="5" max="5" width="43.6640625" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" style="89" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" style="92" customWidth="1"/>
     <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="88" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>154</v>
+      <c r="E1" s="90" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="35" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="94" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" s="92" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" s="53" t="s">
+      <c r="E2" s="95" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="53"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="10"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="91">
+      <c r="B3" s="87"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="94">
         <v>1</v>
       </c>
-      <c r="E3" s="92" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="93" t="s">
+      <c r="E3" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="96" t="s">
         <v>101</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -2669,56 +2940,56 @@
     </row>
     <row r="4" spans="1:9" ht="14" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="91">
+      <c r="B4" s="87"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="94">
         <v>2</v>
       </c>
-      <c r="E4" s="92" t="s">
-        <v>161</v>
-      </c>
-      <c r="F4" s="93" t="s">
-        <v>162</v>
+      <c r="E4" s="95" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="96" t="s">
+        <v>165</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14" customHeight="1">
       <c r="A5" s="10"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="91">
+      <c r="B5" s="87"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="94">
         <v>3</v>
       </c>
-      <c r="E5" s="92" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="93" t="s">
+      <c r="E5" s="95" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="96" t="s">
         <v>102</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="91">
+      <c r="B6" s="93"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="94">
         <v>4</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="93" t="s">
-        <v>164</v>
+      <c r="F6" s="96" t="s">
+        <v>167</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>83</v>
@@ -2729,773 +3000,2224 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="10"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="94" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" s="93"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="97" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="96"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="93"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="96"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="93" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="90" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="94" t="s">
-        <v>176</v>
-      </c>
-      <c r="F9" s="93" t="s">
-        <v>157</v>
+      <c r="C9" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="97" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="96" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="10"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="91">
+      <c r="B10" s="88"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="94">
         <v>1</v>
       </c>
-      <c r="E10" s="92" t="s">
-        <v>178</v>
-      </c>
-      <c r="F10" s="93" t="s">
-        <v>179</v>
+      <c r="E10" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="96" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="10"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="91">
+      <c r="B11" s="88"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="94">
         <v>2</v>
       </c>
-      <c r="E11" s="92" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>180</v>
+      <c r="E11" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="10"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="91">
+      <c r="B12" s="89"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="94">
         <v>3</v>
       </c>
-      <c r="E12" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>182</v>
+      <c r="E12" s="95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="10"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="91">
+      <c r="B13" s="88"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="94">
         <v>4</v>
       </c>
-      <c r="E13" s="92" t="s">
+      <c r="E13" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="38" t="s">
-        <v>172</v>
+      <c r="F13" s="40" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="10"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="F14" s="38"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="95" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="10"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="38"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="86" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="92" t="s">
-        <v>176</v>
-      </c>
-      <c r="F16" s="38"/>
+      <c r="C16" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="91">
+      <c r="B17" s="88"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="94">
         <v>1</v>
       </c>
-      <c r="E17" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>183</v>
+      <c r="E17" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="91">
+      <c r="B18" s="88"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="94">
         <v>2</v>
       </c>
-      <c r="E18" s="92" t="s">
-        <v>184</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>185</v>
+      <c r="E18" s="95" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="10"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="91">
+      <c r="B19" s="88"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="94">
         <v>3</v>
       </c>
-      <c r="E19" s="92" t="s">
-        <v>186</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>187</v>
+      <c r="E19" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="10"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="91">
+      <c r="B20" s="88"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="94">
         <v>4</v>
       </c>
-      <c r="E20" s="92" t="s">
-        <v>188</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>189</v>
+      <c r="E20" s="95" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="10"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="91">
+      <c r="B21" s="88"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="94">
         <v>5</v>
       </c>
-      <c r="E21" s="92" t="s">
-        <v>190</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>191</v>
+      <c r="E21" s="95" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="10"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" s="92" t="s">
-        <v>192</v>
-      </c>
-      <c r="F22" s="38"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="95" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="10"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="38"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C24" s="86" t="s">
+      <c r="B24" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="D24" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="E24" s="92" t="s">
-        <v>197</v>
-      </c>
-      <c r="F24" s="38"/>
+      <c r="C24" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="95" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="10"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="91">
+      <c r="B25" s="88"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="94">
         <v>1</v>
       </c>
-      <c r="E25" s="92" t="s">
-        <v>198</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>199</v>
+      <c r="E25" s="95" t="s">
+        <v>201</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="10"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="91">
+      <c r="B26" s="88"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="94">
         <v>2</v>
       </c>
-      <c r="E26" s="92" t="s">
-        <v>200</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>201</v>
+      <c r="E26" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="10"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="91">
+      <c r="B27" s="88"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="94">
         <v>3</v>
       </c>
-      <c r="E27" s="92" t="s">
-        <v>202</v>
-      </c>
-      <c r="F27" s="38" t="s">
-        <v>203</v>
+      <c r="E27" s="95" t="s">
+        <v>205</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="10"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="91">
+      <c r="B28" s="88"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="94">
         <v>4</v>
       </c>
-      <c r="E28" s="92" t="s">
-        <v>204</v>
-      </c>
-      <c r="F28" s="38" t="s">
-        <v>205</v>
+      <c r="E28" s="95" t="s">
+        <v>207</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="10"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" s="92" t="s">
-        <v>206</v>
-      </c>
-      <c r="F29" s="38"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="95" t="s">
+        <v>209</v>
+      </c>
+      <c r="F29" s="40"/>
     </row>
     <row r="30" spans="1:6" ht="14" customHeight="1">
       <c r="A30" s="10"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="38"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="40"/>
     </row>
     <row r="31" spans="1:6" ht="35" customHeight="1">
       <c r="A31" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="86" t="s">
+      <c r="B31" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="D31" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="E31" s="92" t="s">
-        <v>209</v>
-      </c>
-      <c r="F31" s="38"/>
+      <c r="C31" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" s="95" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="40"/>
     </row>
     <row r="32" spans="1:6" ht="14" customHeight="1">
       <c r="A32" s="10"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="91">
+      <c r="B32" s="88"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="94">
         <v>1</v>
       </c>
-      <c r="E32" s="92" t="s">
-        <v>210</v>
-      </c>
-      <c r="F32" s="38" t="s">
-        <v>211</v>
+      <c r="E32" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="10"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="91">
+      <c r="B33" s="88"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="94">
         <v>2</v>
       </c>
-      <c r="E33" s="92" t="s">
-        <v>212</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>213</v>
+      <c r="E33" s="95" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="10"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="91">
+      <c r="B34" s="88"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="94">
         <v>3</v>
       </c>
-      <c r="E34" s="92" t="s">
-        <v>214</v>
-      </c>
-      <c r="F34" s="38" t="s">
-        <v>215</v>
+      <c r="E34" s="95" t="s">
+        <v>217</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="10"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="91">
+      <c r="B35" s="88"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="94">
         <v>4</v>
       </c>
-      <c r="E35" s="92" t="s">
-        <v>217</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>218</v>
+      <c r="E35" s="95" t="s">
+        <v>220</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="10"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="91" t="s">
-        <v>219</v>
-      </c>
-      <c r="E36" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="F36" s="38"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="95" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" s="40"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="10"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="38"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="40"/>
     </row>
     <row r="38" spans="1:6" ht="35" customHeight="1">
       <c r="A38" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="86" t="s">
-        <v>207</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="D38" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="E38" s="92" t="s">
-        <v>222</v>
-      </c>
-      <c r="F38" s="38"/>
+      <c r="B38" s="88" t="s">
+        <v>210</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="D38" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="F38" s="40"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="10"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="91">
+      <c r="B39" s="88"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="94">
         <v>1</v>
       </c>
-      <c r="E39" s="92" t="s">
+      <c r="E39" s="95" t="s">
+        <v>227</v>
+      </c>
+      <c r="F39" s="40" t="s">
         <v>225</v>
-      </c>
-      <c r="F39" s="38" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="10"/>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="91">
+      <c r="B40" s="88"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="94">
         <v>2</v>
       </c>
-      <c r="E40" s="92" t="s">
-        <v>186</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>224</v>
+      <c r="E40" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="10"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="91">
+      <c r="B41" s="88"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="94">
         <v>3</v>
       </c>
-      <c r="E41" s="92" t="s">
-        <v>226</v>
-      </c>
-      <c r="F41" s="38" t="s">
-        <v>227</v>
+      <c r="E41" s="95" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="40" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="10"/>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="91">
+      <c r="B42" s="88"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="94">
         <v>4</v>
       </c>
-      <c r="E42" s="92" t="s">
-        <v>228</v>
-      </c>
-      <c r="F42" s="38" t="s">
-        <v>229</v>
+      <c r="E42" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="10"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="91">
+      <c r="B43" s="88"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="94">
         <v>5</v>
       </c>
-      <c r="E43" s="92" t="s">
-        <v>230</v>
-      </c>
-      <c r="F43" s="38" t="s">
-        <v>231</v>
+      <c r="E43" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="10"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="91" t="s">
-        <v>219</v>
-      </c>
-      <c r="E44" s="92" t="s">
-        <v>232</v>
-      </c>
-      <c r="F44" s="38"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="F44" s="40"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="10"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="38"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="40"/>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1">
       <c r="A46" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B46" s="86" t="s">
-        <v>207</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="D46" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="E46" s="92" t="s">
-        <v>222</v>
-      </c>
-      <c r="F46" s="38"/>
+        <v>150</v>
+      </c>
+      <c r="B46" s="88" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D46" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="F46" s="40"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="10"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="91">
+      <c r="B47" s="88"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="94">
         <v>1</v>
       </c>
-      <c r="E47" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="F47" s="38" t="s">
-        <v>183</v>
+      <c r="E47" s="95" t="s">
+        <v>180</v>
+      </c>
+      <c r="F47" s="40" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="10"/>
-      <c r="B48" s="86"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="91">
+      <c r="B48" s="88"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="94">
         <v>2</v>
       </c>
-      <c r="E48" s="92" t="s">
-        <v>184</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>185</v>
+      <c r="E48" s="95" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" s="40" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="10"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="91">
+      <c r="B49" s="88"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="94">
         <v>3</v>
       </c>
-      <c r="E49" s="92" t="s">
-        <v>186</v>
-      </c>
-      <c r="F49" s="38" t="s">
-        <v>235</v>
+      <c r="E49" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="10"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="91">
+      <c r="B50" s="88"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="94">
         <v>4</v>
       </c>
-      <c r="E50" s="92" t="s">
-        <v>234</v>
-      </c>
-      <c r="F50" s="38" t="s">
+      <c r="E50" s="95" t="s">
         <v>236</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="10"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="91">
+      <c r="B51" s="88"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="94">
         <v>5</v>
       </c>
-      <c r="E51" s="92" t="s">
-        <v>228</v>
-      </c>
-      <c r="F51" s="38" t="s">
-        <v>229</v>
+      <c r="E51" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="10"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="91">
+      <c r="B52" s="88"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="94">
         <v>6</v>
       </c>
-      <c r="E52" s="92" t="s">
-        <v>237</v>
-      </c>
-      <c r="F52" s="38" t="s">
-        <v>238</v>
+      <c r="E52" s="95" t="s">
+        <v>239</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="10"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="91">
-        <v>7</v>
-      </c>
-      <c r="E53" s="92" t="s">
-        <v>239</v>
-      </c>
-      <c r="F53" s="38"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="95" t="s">
+        <v>241</v>
+      </c>
+      <c r="F53" s="40"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="10"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="38"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="10"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="91"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="38"/>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="B54" s="88"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="40"/>
+    </row>
+    <row r="55" spans="1:6" s="38" customFormat="1" ht="43" customHeight="1">
+      <c r="A55" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="88" t="s">
+        <v>210</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D55" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" s="95" t="s">
+        <v>243</v>
+      </c>
+      <c r="F55" s="40"/>
+    </row>
+    <row r="56" spans="1:6" s="38" customFormat="1">
       <c r="A56" s="10"/>
-      <c r="B56" s="86"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="91"/>
-      <c r="E56" s="92"/>
-      <c r="F56" s="38"/>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="B56" s="88"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="94">
+        <v>1</v>
+      </c>
+      <c r="E56" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="F56" s="40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="38" customFormat="1">
       <c r="A57" s="10"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="91"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="38"/>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="B57" s="88"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="94">
+        <v>2</v>
+      </c>
+      <c r="E57" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="F57" s="40" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="38" customFormat="1">
       <c r="A58" s="10"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="91"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="38"/>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="B58" s="88"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="94">
+        <v>3</v>
+      </c>
+      <c r="E58" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="F58" s="40" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="38" customFormat="1">
       <c r="A59" s="10"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="91"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="38"/>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="B59" s="88"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="94">
+        <v>4</v>
+      </c>
+      <c r="E59" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="F59" s="40" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="38" customFormat="1">
       <c r="A60" s="10"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="91"/>
-      <c r="E60" s="92"/>
-      <c r="F60" s="38"/>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="B60" s="88"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60" s="95" t="s">
+        <v>252</v>
+      </c>
+      <c r="F60" s="40"/>
+    </row>
+    <row r="61" spans="1:6" s="38" customFormat="1">
       <c r="A61" s="10"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="91"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="38"/>
-    </row>
-    <row r="67" spans="3:6">
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="F67"/>
-    </row>
-    <row r="68" spans="3:6">
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="F68"/>
-    </row>
-    <row r="69" spans="3:6">
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="F69"/>
-    </row>
-    <row r="70" spans="3:6">
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="F70"/>
-    </row>
-    <row r="71" spans="3:6">
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="F71"/>
-    </row>
-    <row r="72" spans="3:6">
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="F72"/>
-    </row>
-    <row r="73" spans="3:6">
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="F73"/>
-    </row>
-    <row r="74" spans="3:6">
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="F74"/>
-    </row>
-    <row r="75" spans="3:6">
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="F75"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="95"/>
+      <c r="F61" s="40"/>
+    </row>
+    <row r="62" spans="1:6" s="38" customFormat="1" ht="36" customHeight="1">
+      <c r="A62" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="D62" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="E62" s="95" t="s">
+        <v>268</v>
+      </c>
+      <c r="F62" s="40"/>
+    </row>
+    <row r="63" spans="1:6" s="38" customFormat="1">
+      <c r="A63" s="10"/>
+      <c r="B63" s="88"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="94">
+        <v>1</v>
+      </c>
+      <c r="E63" s="95" t="s">
+        <v>256</v>
+      </c>
+      <c r="F63" s="40" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="38" customFormat="1">
+      <c r="A64" s="10"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="94">
+        <v>2</v>
+      </c>
+      <c r="E64" s="95" t="s">
+        <v>258</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="38" customFormat="1">
+      <c r="A65" s="10"/>
+      <c r="B65" s="88"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="94">
+        <v>3</v>
+      </c>
+      <c r="E65" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="F65" s="40" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="112" customFormat="1" ht="28" customHeight="1">
+      <c r="A66" s="39"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="94">
+        <v>4</v>
+      </c>
+      <c r="E66" s="95" t="s">
+        <v>261</v>
+      </c>
+      <c r="F66" s="40" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="38" customFormat="1">
+      <c r="A67" s="10"/>
+      <c r="B67" s="88"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="94">
+        <v>5</v>
+      </c>
+      <c r="E67" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="F67" s="40" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="38" customFormat="1" ht="28">
+      <c r="A68" s="10"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="94">
+        <v>6</v>
+      </c>
+      <c r="E68" s="95" t="s">
+        <v>269</v>
+      </c>
+      <c r="F68" s="40" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="38" customFormat="1">
+      <c r="A69" s="10"/>
+      <c r="B69" s="88"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="94">
+        <v>7</v>
+      </c>
+      <c r="E69" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="F69" s="40" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="38" customFormat="1">
+      <c r="A70" s="10"/>
+      <c r="B70" s="88"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="F70" s="40"/>
+    </row>
+    <row r="71" spans="1:6" s="38" customFormat="1">
+      <c r="A71" s="10"/>
+      <c r="B71" s="88"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="95"/>
+      <c r="F71" s="40"/>
+    </row>
+    <row r="72" spans="1:6" s="38" customFormat="1" ht="53" customHeight="1">
+      <c r="A72" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B72" s="88" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="E72" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="F72" s="40"/>
+    </row>
+    <row r="73" spans="1:6" s="38" customFormat="1">
+      <c r="A73" s="10"/>
+      <c r="B73" s="88"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="94">
+        <v>1</v>
+      </c>
+      <c r="E73" s="95" t="s">
+        <v>256</v>
+      </c>
+      <c r="F73" s="40" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="38" customFormat="1">
+      <c r="A74" s="10"/>
+      <c r="B74" s="88"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="94">
+        <v>2</v>
+      </c>
+      <c r="E74" s="95" t="s">
+        <v>258</v>
+      </c>
+      <c r="F74" s="40" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="38" customFormat="1">
+      <c r="A75" s="10"/>
+      <c r="B75" s="88"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="94">
+        <v>3</v>
+      </c>
+      <c r="E75" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="F75" s="40" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="38" customFormat="1" ht="28">
+      <c r="A76" s="10"/>
+      <c r="B76" s="88"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="94">
+        <v>4</v>
+      </c>
+      <c r="E76" s="95" t="s">
+        <v>273</v>
+      </c>
+      <c r="F76" s="40" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="38" customFormat="1" ht="28">
+      <c r="A77" s="10"/>
+      <c r="B77" s="88"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="94">
+        <v>5</v>
+      </c>
+      <c r="E77" s="95" t="s">
+        <v>275</v>
+      </c>
+      <c r="F77" s="40" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="38" customFormat="1" ht="28">
+      <c r="A78" s="10"/>
+      <c r="B78" s="88"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="94">
+        <v>6</v>
+      </c>
+      <c r="E78" s="95" t="s">
+        <v>269</v>
+      </c>
+      <c r="F78" s="40" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="38" customFormat="1" ht="28">
+      <c r="A79" s="10"/>
+      <c r="B79" s="88"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="94">
+        <v>7</v>
+      </c>
+      <c r="E79" s="95" t="s">
+        <v>277</v>
+      </c>
+      <c r="F79" s="40" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="38" customFormat="1">
+      <c r="A80" s="10"/>
+      <c r="B80" s="88"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" s="95" t="s">
+        <v>278</v>
+      </c>
+      <c r="F80" s="40"/>
+    </row>
+    <row r="81" spans="1:6" s="38" customFormat="1">
+      <c r="A81" s="10"/>
+      <c r="B81" s="88"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="94"/>
+      <c r="E81" s="95"/>
+      <c r="F81" s="40"/>
+    </row>
+    <row r="82" spans="1:6" s="38" customFormat="1">
+      <c r="A82" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B82" s="88" t="s">
+        <v>281</v>
+      </c>
+      <c r="C82" s="35"/>
+      <c r="D82" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="E82" s="95" t="s">
+        <v>282</v>
+      </c>
+      <c r="F82" s="40"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="10"/>
+      <c r="B83" s="88"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="94">
+        <v>1</v>
+      </c>
+      <c r="E83" s="95" t="s">
+        <v>285</v>
+      </c>
+      <c r="F83" s="40" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="10"/>
+      <c r="B84" s="88"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="94">
+        <v>2</v>
+      </c>
+      <c r="E84" s="95" t="s">
+        <v>287</v>
+      </c>
+      <c r="F84" s="40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="10"/>
+      <c r="B85" s="88"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="94">
+        <v>3</v>
+      </c>
+      <c r="E85" s="95" t="s">
+        <v>289</v>
+      </c>
+      <c r="F85" s="40" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="10"/>
+      <c r="B86" s="88"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="94">
+        <v>4</v>
+      </c>
+      <c r="E86" s="95" t="s">
+        <v>291</v>
+      </c>
+      <c r="F86" s="40" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="10"/>
+      <c r="B87" s="88"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="94">
+        <v>5</v>
+      </c>
+      <c r="E87" s="95" t="s">
+        <v>287</v>
+      </c>
+      <c r="F87" s="40" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="38" customFormat="1">
+      <c r="A88" s="10"/>
+      <c r="B88" s="88"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="94">
+        <v>6</v>
+      </c>
+      <c r="E88" s="95" t="s">
+        <v>295</v>
+      </c>
+      <c r="F88" s="40" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="38" customFormat="1" ht="28">
+      <c r="A89" s="10"/>
+      <c r="B89" s="88"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="94">
+        <v>7</v>
+      </c>
+      <c r="E89" s="95" t="s">
+        <v>296</v>
+      </c>
+      <c r="F89" s="40" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="38" customFormat="1">
+      <c r="A90" s="10"/>
+      <c r="B90" s="88"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="94">
+        <v>8</v>
+      </c>
+      <c r="E90" s="95" t="s">
+        <v>298</v>
+      </c>
+      <c r="F90" s="40"/>
+    </row>
+    <row r="91" spans="1:6" s="38" customFormat="1">
+      <c r="A91" s="10"/>
+      <c r="B91" s="88"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="94" t="s">
+        <v>299</v>
+      </c>
+      <c r="E91" s="95" t="s">
+        <v>300</v>
+      </c>
+      <c r="F91" s="40"/>
+    </row>
+    <row r="92" spans="1:6" s="38" customFormat="1">
+      <c r="A92" s="10"/>
+      <c r="B92" s="88"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="94"/>
+      <c r="E92" s="95"/>
+      <c r="F92" s="40"/>
+    </row>
+    <row r="93" spans="1:6" s="38" customFormat="1">
+      <c r="A93" s="10"/>
+      <c r="B93" s="88"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="94"/>
+      <c r="E93" s="95"/>
+      <c r="F93" s="40"/>
+    </row>
+    <row r="94" spans="1:6" s="38" customFormat="1">
+      <c r="A94" s="10"/>
+      <c r="B94" s="88"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="94"/>
+      <c r="E94" s="95"/>
+      <c r="F94" s="40"/>
+    </row>
+    <row r="95" spans="1:6" s="38" customFormat="1">
+      <c r="A95" s="10"/>
+      <c r="B95" s="88"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="94"/>
+      <c r="E95" s="95"/>
+      <c r="F95" s="40"/>
+    </row>
+    <row r="96" spans="1:6" s="38" customFormat="1">
+      <c r="A96" s="10"/>
+      <c r="B96" s="88"/>
+      <c r="C96" s="35"/>
+      <c r="D96" s="94"/>
+      <c r="E96" s="95"/>
+      <c r="F96" s="40"/>
+    </row>
+    <row r="97" spans="1:6" s="38" customFormat="1">
+      <c r="A97" s="10"/>
+      <c r="B97" s="88"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="94"/>
+      <c r="E97" s="95"/>
+      <c r="F97" s="40"/>
+    </row>
+    <row r="98" spans="1:6" s="38" customFormat="1">
+      <c r="A98" s="10"/>
+      <c r="B98" s="88"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="94"/>
+      <c r="E98" s="95"/>
+      <c r="F98" s="40"/>
+    </row>
+    <row r="99" spans="1:6" s="38" customFormat="1">
+      <c r="A99" s="10"/>
+      <c r="B99" s="88"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="94"/>
+      <c r="E99" s="95"/>
+      <c r="F99" s="40"/>
+    </row>
+    <row r="100" spans="1:6" s="38" customFormat="1">
+      <c r="A100" s="10"/>
+      <c r="B100" s="88"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="94"/>
+      <c r="E100" s="95"/>
+      <c r="F100" s="40"/>
+    </row>
+    <row r="101" spans="1:6" s="38" customFormat="1">
+      <c r="A101" s="10"/>
+      <c r="B101" s="88"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="94"/>
+      <c r="E101" s="95"/>
+      <c r="F101" s="40"/>
+    </row>
+    <row r="102" spans="1:6" s="38" customFormat="1">
+      <c r="A102" s="10"/>
+      <c r="B102" s="88"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="94"/>
+      <c r="E102" s="95"/>
+      <c r="F102" s="40"/>
+    </row>
+    <row r="103" spans="1:6" s="38" customFormat="1">
+      <c r="A103" s="10"/>
+      <c r="B103" s="88"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="94"/>
+      <c r="E103" s="95"/>
+      <c r="F103" s="40"/>
+    </row>
+    <row r="104" spans="1:6" s="38" customFormat="1">
+      <c r="A104" s="10"/>
+      <c r="B104" s="88"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="94"/>
+      <c r="E104" s="95"/>
+      <c r="F104" s="40"/>
+    </row>
+    <row r="105" spans="1:6" s="38" customFormat="1">
+      <c r="A105" s="10"/>
+      <c r="B105" s="88"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="94"/>
+      <c r="E105" s="95"/>
+      <c r="F105" s="40"/>
+    </row>
+    <row r="106" spans="1:6" s="38" customFormat="1">
+      <c r="A106" s="10"/>
+      <c r="B106" s="88"/>
+      <c r="C106" s="35"/>
+      <c r="D106" s="94"/>
+      <c r="E106" s="95"/>
+      <c r="F106" s="40"/>
+    </row>
+    <row r="107" spans="1:6" s="38" customFormat="1">
+      <c r="A107" s="10"/>
+      <c r="B107" s="88"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="94"/>
+      <c r="E107" s="95"/>
+      <c r="F107" s="40"/>
+    </row>
+    <row r="108" spans="1:6" s="38" customFormat="1">
+      <c r="A108" s="10"/>
+      <c r="B108" s="88"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="94"/>
+      <c r="E108" s="95"/>
+      <c r="F108" s="40"/>
+    </row>
+    <row r="109" spans="1:6" s="38" customFormat="1">
+      <c r="A109" s="10"/>
+      <c r="B109" s="88"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="94"/>
+      <c r="E109" s="95"/>
+      <c r="F109" s="40"/>
+    </row>
+    <row r="110" spans="1:6" s="38" customFormat="1">
+      <c r="A110" s="10"/>
+      <c r="B110" s="88"/>
+      <c r="C110" s="35"/>
+      <c r="D110" s="94"/>
+      <c r="E110" s="95"/>
+      <c r="F110" s="40"/>
+    </row>
+    <row r="111" spans="1:6" s="38" customFormat="1">
+      <c r="A111" s="10"/>
+      <c r="B111" s="88"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="94"/>
+      <c r="E111" s="95"/>
+      <c r="F111" s="40"/>
+    </row>
+    <row r="112" spans="1:6" s="38" customFormat="1">
+      <c r="A112" s="10"/>
+      <c r="B112" s="88"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="94"/>
+      <c r="E112" s="95"/>
+      <c r="F112" s="40"/>
+    </row>
+    <row r="113" spans="1:6" s="38" customFormat="1">
+      <c r="A113" s="10"/>
+      <c r="B113" s="88"/>
+      <c r="C113" s="35"/>
+      <c r="D113" s="94"/>
+      <c r="E113" s="95"/>
+      <c r="F113" s="40"/>
+    </row>
+    <row r="114" spans="1:6" s="38" customFormat="1">
+      <c r="A114" s="10"/>
+      <c r="B114" s="88"/>
+      <c r="C114" s="35"/>
+      <c r="D114" s="94"/>
+      <c r="E114" s="95"/>
+      <c r="F114" s="40"/>
+    </row>
+    <row r="115" spans="1:6" s="38" customFormat="1">
+      <c r="A115" s="10"/>
+      <c r="B115" s="88"/>
+      <c r="C115" s="35"/>
+      <c r="D115" s="94"/>
+      <c r="E115" s="95"/>
+      <c r="F115" s="40"/>
+    </row>
+    <row r="116" spans="1:6" s="38" customFormat="1">
+      <c r="A116" s="10"/>
+      <c r="B116" s="88"/>
+      <c r="C116" s="35"/>
+      <c r="D116" s="94"/>
+      <c r="E116" s="95"/>
+      <c r="F116" s="40"/>
+    </row>
+    <row r="117" spans="1:6" s="38" customFormat="1">
+      <c r="A117" s="10"/>
+      <c r="B117" s="88"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="94"/>
+      <c r="E117" s="95"/>
+      <c r="F117" s="40"/>
+    </row>
+    <row r="118" spans="1:6" s="38" customFormat="1">
+      <c r="A118" s="10"/>
+      <c r="B118" s="88"/>
+      <c r="C118" s="35"/>
+      <c r="D118" s="94"/>
+      <c r="E118" s="95"/>
+      <c r="F118" s="40"/>
+    </row>
+    <row r="119" spans="1:6" s="38" customFormat="1">
+      <c r="A119" s="10"/>
+      <c r="B119" s="88"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="94"/>
+      <c r="E119" s="95"/>
+      <c r="F119" s="40"/>
+    </row>
+    <row r="120" spans="1:6" s="38" customFormat="1">
+      <c r="A120" s="10"/>
+      <c r="B120" s="88"/>
+      <c r="C120" s="35"/>
+      <c r="D120" s="94"/>
+      <c r="E120" s="95"/>
+      <c r="F120" s="40"/>
+    </row>
+    <row r="121" spans="1:6" s="38" customFormat="1">
+      <c r="A121" s="10"/>
+      <c r="B121" s="88"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="94"/>
+      <c r="E121" s="95"/>
+      <c r="F121" s="40"/>
+    </row>
+    <row r="122" spans="1:6" s="38" customFormat="1">
+      <c r="A122" s="10"/>
+      <c r="B122" s="88"/>
+      <c r="C122" s="35"/>
+      <c r="D122" s="94"/>
+      <c r="E122" s="95"/>
+      <c r="F122" s="40"/>
+    </row>
+    <row r="123" spans="1:6" s="38" customFormat="1">
+      <c r="A123" s="10"/>
+      <c r="B123" s="88"/>
+      <c r="C123" s="35"/>
+      <c r="D123" s="94"/>
+      <c r="E123" s="95"/>
+      <c r="F123" s="40"/>
+    </row>
+    <row r="124" spans="1:6" s="38" customFormat="1">
+      <c r="A124" s="10"/>
+      <c r="B124" s="88"/>
+      <c r="C124" s="35"/>
+      <c r="D124" s="94"/>
+      <c r="E124" s="95"/>
+      <c r="F124" s="40"/>
+    </row>
+    <row r="125" spans="1:6" s="38" customFormat="1">
+      <c r="A125" s="10"/>
+      <c r="B125" s="88"/>
+      <c r="C125" s="35"/>
+      <c r="D125" s="94"/>
+      <c r="E125" s="95"/>
+      <c r="F125" s="40"/>
+    </row>
+    <row r="126" spans="1:6" s="38" customFormat="1">
+      <c r="A126" s="10"/>
+      <c r="B126" s="88"/>
+      <c r="C126" s="35"/>
+      <c r="D126" s="94"/>
+      <c r="E126" s="95"/>
+      <c r="F126" s="40"/>
+    </row>
+    <row r="127" spans="1:6" s="38" customFormat="1">
+      <c r="A127" s="10"/>
+      <c r="B127" s="88"/>
+      <c r="C127" s="35"/>
+      <c r="D127" s="94"/>
+      <c r="E127" s="95"/>
+      <c r="F127" s="40"/>
+    </row>
+    <row r="128" spans="1:6" s="38" customFormat="1">
+      <c r="A128" s="10"/>
+      <c r="B128" s="88"/>
+      <c r="C128" s="35"/>
+      <c r="D128" s="94"/>
+      <c r="E128" s="95"/>
+      <c r="F128" s="40"/>
+    </row>
+    <row r="129" spans="1:6" s="38" customFormat="1">
+      <c r="A129" s="10"/>
+      <c r="B129" s="88"/>
+      <c r="C129" s="35"/>
+      <c r="D129" s="94"/>
+      <c r="E129" s="95"/>
+      <c r="F129" s="40"/>
+    </row>
+    <row r="130" spans="1:6" s="38" customFormat="1">
+      <c r="A130" s="10"/>
+      <c r="B130" s="88"/>
+      <c r="C130" s="35"/>
+      <c r="D130" s="94"/>
+      <c r="E130" s="95"/>
+      <c r="F130" s="40"/>
+    </row>
+    <row r="131" spans="1:6" s="38" customFormat="1">
+      <c r="A131" s="10"/>
+      <c r="B131" s="88"/>
+      <c r="C131" s="35"/>
+      <c r="D131" s="94"/>
+      <c r="E131" s="95"/>
+      <c r="F131" s="40"/>
+    </row>
+    <row r="132" spans="1:6" s="38" customFormat="1">
+      <c r="A132" s="10"/>
+      <c r="B132" s="88"/>
+      <c r="C132" s="35"/>
+      <c r="D132" s="94"/>
+      <c r="E132" s="95"/>
+      <c r="F132" s="40"/>
+    </row>
+    <row r="133" spans="1:6" s="38" customFormat="1">
+      <c r="A133" s="10"/>
+      <c r="B133" s="88"/>
+      <c r="C133" s="35"/>
+      <c r="D133" s="94"/>
+      <c r="E133" s="95"/>
+      <c r="F133" s="40"/>
+    </row>
+    <row r="134" spans="1:6" s="38" customFormat="1">
+      <c r="A134" s="10"/>
+      <c r="B134" s="88"/>
+      <c r="C134" s="35"/>
+      <c r="D134" s="94"/>
+      <c r="E134" s="95"/>
+      <c r="F134" s="40"/>
+    </row>
+    <row r="135" spans="1:6" s="38" customFormat="1">
+      <c r="A135" s="10"/>
+      <c r="B135" s="88"/>
+      <c r="C135" s="35"/>
+      <c r="D135" s="94"/>
+      <c r="E135" s="95"/>
+      <c r="F135" s="40"/>
+    </row>
+    <row r="136" spans="1:6" s="38" customFormat="1">
+      <c r="A136" s="10"/>
+      <c r="B136" s="88"/>
+      <c r="C136" s="35"/>
+      <c r="D136" s="94"/>
+      <c r="E136" s="95"/>
+      <c r="F136" s="40"/>
+    </row>
+    <row r="137" spans="1:6" s="38" customFormat="1">
+      <c r="A137" s="10"/>
+      <c r="B137" s="88"/>
+      <c r="C137" s="35"/>
+      <c r="D137" s="94"/>
+      <c r="E137" s="95"/>
+      <c r="F137" s="40"/>
+    </row>
+    <row r="138" spans="1:6" s="38" customFormat="1">
+      <c r="A138" s="10"/>
+      <c r="B138" s="88"/>
+      <c r="C138" s="35"/>
+      <c r="D138" s="94"/>
+      <c r="E138" s="95"/>
+      <c r="F138" s="40"/>
+    </row>
+    <row r="139" spans="1:6" s="38" customFormat="1">
+      <c r="A139" s="10"/>
+      <c r="B139" s="88"/>
+      <c r="C139" s="35"/>
+      <c r="D139" s="94"/>
+      <c r="E139" s="95"/>
+      <c r="F139" s="40"/>
+    </row>
+    <row r="140" spans="1:6" s="38" customFormat="1">
+      <c r="A140" s="10"/>
+      <c r="B140" s="88"/>
+      <c r="C140" s="35"/>
+      <c r="D140" s="94"/>
+      <c r="E140" s="95"/>
+      <c r="F140" s="40"/>
+    </row>
+    <row r="141" spans="1:6" s="38" customFormat="1">
+      <c r="A141" s="10"/>
+      <c r="B141" s="88"/>
+      <c r="C141" s="35"/>
+      <c r="D141" s="94"/>
+      <c r="E141" s="95"/>
+      <c r="F141" s="40"/>
+    </row>
+    <row r="142" spans="1:6" s="38" customFormat="1">
+      <c r="A142" s="10"/>
+      <c r="B142" s="88"/>
+      <c r="C142" s="35"/>
+      <c r="D142" s="94"/>
+      <c r="E142" s="95"/>
+      <c r="F142" s="40"/>
+    </row>
+    <row r="143" spans="1:6" s="38" customFormat="1">
+      <c r="A143" s="10"/>
+      <c r="B143" s="88"/>
+      <c r="C143" s="35"/>
+      <c r="D143" s="94"/>
+      <c r="E143" s="95"/>
+      <c r="F143" s="40"/>
+    </row>
+    <row r="144" spans="1:6" s="38" customFormat="1">
+      <c r="A144" s="10"/>
+      <c r="B144" s="88"/>
+      <c r="C144" s="35"/>
+      <c r="D144" s="94"/>
+      <c r="E144" s="95"/>
+      <c r="F144" s="40"/>
+    </row>
+    <row r="145" spans="1:6" s="38" customFormat="1">
+      <c r="A145" s="10"/>
+      <c r="B145" s="88"/>
+      <c r="C145" s="35"/>
+      <c r="D145" s="94"/>
+      <c r="E145" s="95"/>
+      <c r="F145" s="40"/>
+    </row>
+    <row r="146" spans="1:6" s="38" customFormat="1">
+      <c r="A146" s="10"/>
+      <c r="B146" s="88"/>
+      <c r="C146" s="35"/>
+      <c r="D146" s="94"/>
+      <c r="E146" s="95"/>
+      <c r="F146" s="40"/>
+    </row>
+    <row r="147" spans="1:6" s="38" customFormat="1">
+      <c r="A147" s="10"/>
+      <c r="B147" s="88"/>
+      <c r="C147" s="35"/>
+      <c r="D147" s="94"/>
+      <c r="E147" s="95"/>
+      <c r="F147" s="40"/>
+    </row>
+    <row r="148" spans="1:6" s="38" customFormat="1">
+      <c r="A148" s="10"/>
+      <c r="B148" s="88"/>
+      <c r="C148" s="35"/>
+      <c r="D148" s="94"/>
+      <c r="E148" s="95"/>
+      <c r="F148" s="40"/>
+    </row>
+    <row r="149" spans="1:6" s="38" customFormat="1">
+      <c r="A149" s="10"/>
+      <c r="B149" s="88"/>
+      <c r="C149" s="35"/>
+      <c r="D149" s="94"/>
+      <c r="E149" s="95"/>
+      <c r="F149" s="40"/>
+    </row>
+    <row r="150" spans="1:6" s="38" customFormat="1">
+      <c r="A150" s="10"/>
+      <c r="B150" s="88"/>
+      <c r="C150" s="35"/>
+      <c r="D150" s="94"/>
+      <c r="E150" s="95"/>
+      <c r="F150" s="40"/>
+    </row>
+    <row r="151" spans="1:6" s="38" customFormat="1">
+      <c r="A151" s="10"/>
+      <c r="B151" s="88"/>
+      <c r="C151" s="35"/>
+      <c r="D151" s="94"/>
+      <c r="E151" s="95"/>
+      <c r="F151" s="40"/>
+    </row>
+    <row r="152" spans="1:6" s="38" customFormat="1">
+      <c r="A152" s="10"/>
+      <c r="B152" s="88"/>
+      <c r="C152" s="35"/>
+      <c r="D152" s="94"/>
+      <c r="E152" s="95"/>
+      <c r="F152" s="40"/>
+    </row>
+    <row r="153" spans="1:6" s="38" customFormat="1">
+      <c r="A153" s="10"/>
+      <c r="B153" s="88"/>
+      <c r="C153" s="35"/>
+      <c r="D153" s="94"/>
+      <c r="E153" s="95"/>
+      <c r="F153" s="40"/>
+    </row>
+    <row r="154" spans="1:6" s="38" customFormat="1">
+      <c r="A154" s="10"/>
+      <c r="B154" s="88"/>
+      <c r="C154" s="35"/>
+      <c r="D154" s="94"/>
+      <c r="E154" s="95"/>
+      <c r="F154" s="40"/>
+    </row>
+    <row r="155" spans="1:6" s="38" customFormat="1">
+      <c r="A155" s="10"/>
+      <c r="B155" s="88"/>
+      <c r="C155" s="35"/>
+      <c r="D155" s="94"/>
+      <c r="E155" s="95"/>
+      <c r="F155" s="40"/>
+    </row>
+    <row r="156" spans="1:6" s="38" customFormat="1">
+      <c r="A156" s="10"/>
+      <c r="B156" s="88"/>
+      <c r="C156" s="35"/>
+      <c r="D156" s="94"/>
+      <c r="E156" s="95"/>
+      <c r="F156" s="40"/>
+    </row>
+    <row r="157" spans="1:6" s="38" customFormat="1">
+      <c r="A157" s="10"/>
+      <c r="B157" s="88"/>
+      <c r="C157" s="35"/>
+      <c r="D157" s="94"/>
+      <c r="E157" s="95"/>
+      <c r="F157" s="40"/>
+    </row>
+    <row r="158" spans="1:6" s="38" customFormat="1">
+      <c r="A158" s="10"/>
+      <c r="B158" s="88"/>
+      <c r="C158" s="35"/>
+      <c r="D158" s="94"/>
+      <c r="E158" s="95"/>
+      <c r="F158" s="40"/>
+    </row>
+    <row r="159" spans="1:6" s="38" customFormat="1">
+      <c r="A159" s="10"/>
+      <c r="B159" s="88"/>
+      <c r="C159" s="35"/>
+      <c r="D159" s="94"/>
+      <c r="E159" s="95"/>
+      <c r="F159" s="40"/>
+    </row>
+    <row r="160" spans="1:6" s="38" customFormat="1">
+      <c r="A160" s="10"/>
+      <c r="B160" s="88"/>
+      <c r="C160" s="35"/>
+      <c r="D160" s="94"/>
+      <c r="E160" s="95"/>
+      <c r="F160" s="40"/>
+    </row>
+    <row r="161" spans="1:6" s="38" customFormat="1">
+      <c r="A161" s="10"/>
+      <c r="B161" s="88"/>
+      <c r="C161" s="35"/>
+      <c r="D161" s="94"/>
+      <c r="E161" s="95"/>
+      <c r="F161" s="40"/>
+    </row>
+    <row r="162" spans="1:6" s="38" customFormat="1">
+      <c r="A162" s="10"/>
+      <c r="B162" s="88"/>
+      <c r="C162" s="35"/>
+      <c r="D162" s="94"/>
+      <c r="E162" s="95"/>
+      <c r="F162" s="40"/>
+    </row>
+    <row r="163" spans="1:6" s="38" customFormat="1">
+      <c r="A163" s="10"/>
+      <c r="B163" s="88"/>
+      <c r="C163" s="35"/>
+      <c r="D163" s="94"/>
+      <c r="E163" s="95"/>
+      <c r="F163" s="40"/>
+    </row>
+    <row r="164" spans="1:6" s="38" customFormat="1">
+      <c r="A164" s="10"/>
+      <c r="B164" s="88"/>
+      <c r="C164" s="35"/>
+      <c r="D164" s="94"/>
+      <c r="E164" s="95"/>
+      <c r="F164" s="40"/>
+    </row>
+    <row r="165" spans="1:6" s="38" customFormat="1">
+      <c r="A165" s="10"/>
+      <c r="B165" s="88"/>
+      <c r="C165" s="35"/>
+      <c r="D165" s="94"/>
+      <c r="E165" s="95"/>
+      <c r="F165" s="40"/>
+    </row>
+    <row r="166" spans="1:6" s="38" customFormat="1">
+      <c r="A166" s="10"/>
+      <c r="B166" s="88"/>
+      <c r="C166" s="35"/>
+      <c r="D166" s="94"/>
+      <c r="E166" s="95"/>
+      <c r="F166" s="40"/>
+    </row>
+    <row r="167" spans="1:6" s="38" customFormat="1">
+      <c r="A167" s="10"/>
+      <c r="B167" s="88"/>
+      <c r="C167" s="35"/>
+      <c r="D167" s="94"/>
+      <c r="E167" s="95"/>
+      <c r="F167" s="40"/>
+    </row>
+    <row r="168" spans="1:6" s="38" customFormat="1">
+      <c r="A168" s="10"/>
+      <c r="B168" s="88"/>
+      <c r="C168" s="35"/>
+      <c r="D168" s="94"/>
+      <c r="E168" s="95"/>
+      <c r="F168" s="40"/>
+    </row>
+    <row r="169" spans="1:6" s="38" customFormat="1">
+      <c r="A169" s="10"/>
+      <c r="B169" s="88"/>
+      <c r="C169" s="35"/>
+      <c r="D169" s="94"/>
+      <c r="E169" s="95"/>
+      <c r="F169" s="40"/>
+    </row>
+    <row r="170" spans="1:6" s="38" customFormat="1">
+      <c r="A170" s="10"/>
+      <c r="B170" s="88"/>
+      <c r="C170" s="35"/>
+      <c r="D170" s="94"/>
+      <c r="E170" s="95"/>
+      <c r="F170" s="40"/>
+    </row>
+    <row r="171" spans="1:6" s="38" customFormat="1">
+      <c r="A171" s="10"/>
+      <c r="B171" s="88"/>
+      <c r="C171" s="35"/>
+      <c r="D171" s="94"/>
+      <c r="E171" s="95"/>
+      <c r="F171" s="40"/>
+    </row>
+    <row r="172" spans="1:6" s="38" customFormat="1">
+      <c r="A172" s="10"/>
+      <c r="B172" s="88"/>
+      <c r="C172" s="35"/>
+      <c r="D172" s="94"/>
+      <c r="E172" s="95"/>
+      <c r="F172" s="40"/>
+    </row>
+    <row r="173" spans="1:6" s="38" customFormat="1">
+      <c r="A173" s="10"/>
+      <c r="B173" s="88"/>
+      <c r="C173" s="35"/>
+      <c r="D173" s="94"/>
+      <c r="E173" s="95"/>
+      <c r="F173" s="40"/>
+    </row>
+    <row r="174" spans="1:6" s="38" customFormat="1">
+      <c r="A174" s="10"/>
+      <c r="B174" s="88"/>
+      <c r="C174" s="35"/>
+      <c r="D174" s="94"/>
+      <c r="E174" s="95"/>
+      <c r="F174" s="40"/>
+    </row>
+    <row r="175" spans="1:6" s="38" customFormat="1">
+      <c r="A175" s="10"/>
+      <c r="B175" s="88"/>
+      <c r="C175" s="35"/>
+      <c r="D175" s="94"/>
+      <c r="E175" s="95"/>
+      <c r="F175" s="40"/>
+    </row>
+    <row r="176" spans="1:6" s="38" customFormat="1">
+      <c r="A176" s="10"/>
+      <c r="B176" s="88"/>
+      <c r="C176" s="35"/>
+      <c r="D176" s="94"/>
+      <c r="E176" s="95"/>
+      <c r="F176" s="40"/>
+    </row>
+    <row r="177" spans="1:6" s="38" customFormat="1">
+      <c r="A177" s="10"/>
+      <c r="B177" s="88"/>
+      <c r="C177" s="35"/>
+      <c r="D177" s="94"/>
+      <c r="E177" s="95"/>
+      <c r="F177" s="40"/>
+    </row>
+    <row r="178" spans="1:6" s="38" customFormat="1">
+      <c r="A178" s="10"/>
+      <c r="B178" s="88"/>
+      <c r="C178" s="35"/>
+      <c r="D178" s="94"/>
+      <c r="E178" s="95"/>
+      <c r="F178" s="40"/>
+    </row>
+    <row r="179" spans="1:6" s="38" customFormat="1">
+      <c r="A179" s="10"/>
+      <c r="B179" s="88"/>
+      <c r="C179" s="35"/>
+      <c r="D179" s="94"/>
+      <c r="E179" s="95"/>
+      <c r="F179" s="40"/>
+    </row>
+    <row r="180" spans="1:6" s="38" customFormat="1">
+      <c r="A180" s="10"/>
+      <c r="B180" s="88"/>
+      <c r="C180" s="35"/>
+      <c r="D180" s="94"/>
+      <c r="E180" s="95"/>
+      <c r="F180" s="40"/>
+    </row>
+    <row r="181" spans="1:6" s="38" customFormat="1">
+      <c r="A181" s="10"/>
+      <c r="B181" s="88"/>
+      <c r="C181" s="35"/>
+      <c r="D181" s="94"/>
+      <c r="E181" s="95"/>
+      <c r="F181" s="40"/>
+    </row>
+    <row r="182" spans="1:6" s="38" customFormat="1">
+      <c r="A182" s="10"/>
+      <c r="B182" s="88"/>
+      <c r="C182" s="35"/>
+      <c r="D182" s="94"/>
+      <c r="E182" s="95"/>
+      <c r="F182" s="40"/>
+    </row>
+    <row r="183" spans="1:6" s="38" customFormat="1">
+      <c r="A183" s="10"/>
+      <c r="B183" s="88"/>
+      <c r="C183" s="35"/>
+      <c r="D183" s="94"/>
+      <c r="E183" s="95"/>
+      <c r="F183" s="40"/>
+    </row>
+    <row r="184" spans="1:6" s="38" customFormat="1">
+      <c r="A184" s="10"/>
+      <c r="B184" s="88"/>
+      <c r="C184" s="35"/>
+      <c r="D184" s="94"/>
+      <c r="E184" s="95"/>
+      <c r="F184" s="40"/>
+    </row>
+    <row r="185" spans="1:6" s="38" customFormat="1">
+      <c r="A185" s="10"/>
+      <c r="B185" s="88"/>
+      <c r="C185" s="35"/>
+      <c r="D185" s="94"/>
+      <c r="E185" s="95"/>
+      <c r="F185" s="40"/>
+    </row>
+    <row r="186" spans="1:6" s="38" customFormat="1">
+      <c r="A186" s="10"/>
+      <c r="B186" s="88"/>
+      <c r="C186" s="35"/>
+      <c r="D186" s="94"/>
+      <c r="E186" s="95"/>
+      <c r="F186" s="40"/>
+    </row>
+    <row r="187" spans="1:6" s="38" customFormat="1">
+      <c r="A187" s="10"/>
+      <c r="B187" s="88"/>
+      <c r="C187" s="35"/>
+      <c r="D187" s="94"/>
+      <c r="E187" s="95"/>
+      <c r="F187" s="40"/>
+    </row>
+    <row r="188" spans="1:6" s="38" customFormat="1">
+      <c r="A188" s="10"/>
+      <c r="B188" s="88"/>
+      <c r="C188" s="35"/>
+      <c r="D188" s="94"/>
+      <c r="E188" s="95"/>
+      <c r="F188" s="40"/>
+    </row>
+    <row r="189" spans="1:6" s="38" customFormat="1">
+      <c r="A189" s="10"/>
+      <c r="B189" s="88"/>
+      <c r="C189" s="35"/>
+      <c r="D189" s="94"/>
+      <c r="E189" s="95"/>
+      <c r="F189" s="40"/>
+    </row>
+    <row r="190" spans="1:6" s="38" customFormat="1">
+      <c r="A190" s="10"/>
+      <c r="B190" s="88"/>
+      <c r="C190" s="35"/>
+      <c r="D190" s="94"/>
+      <c r="E190" s="95"/>
+      <c r="F190" s="40"/>
+    </row>
+    <row r="191" spans="1:6" s="38" customFormat="1">
+      <c r="A191" s="10"/>
+      <c r="B191" s="88"/>
+      <c r="C191" s="35"/>
+      <c r="D191" s="94"/>
+      <c r="E191" s="95"/>
+      <c r="F191" s="40"/>
+    </row>
+    <row r="192" spans="1:6" s="38" customFormat="1">
+      <c r="A192" s="10"/>
+      <c r="B192" s="88"/>
+      <c r="C192" s="35"/>
+      <c r="D192" s="94"/>
+      <c r="E192" s="95"/>
+      <c r="F192" s="40"/>
+    </row>
+    <row r="193" spans="1:6" s="38" customFormat="1">
+      <c r="A193" s="10"/>
+      <c r="B193" s="88"/>
+      <c r="C193" s="35"/>
+      <c r="D193" s="94"/>
+      <c r="E193" s="95"/>
+      <c r="F193" s="40"/>
+    </row>
+    <row r="194" spans="1:6" s="38" customFormat="1">
+      <c r="A194" s="10"/>
+      <c r="B194" s="88"/>
+      <c r="C194" s="35"/>
+      <c r="D194" s="94"/>
+      <c r="E194" s="95"/>
+      <c r="F194" s="40"/>
+    </row>
+    <row r="195" spans="1:6" s="38" customFormat="1">
+      <c r="A195" s="10"/>
+      <c r="B195" s="88"/>
+      <c r="C195" s="35"/>
+      <c r="D195" s="94"/>
+      <c r="E195" s="95"/>
+      <c r="F195" s="40"/>
+    </row>
+    <row r="196" spans="1:6" s="38" customFormat="1">
+      <c r="A196" s="10"/>
+      <c r="B196" s="88"/>
+      <c r="C196" s="35"/>
+      <c r="D196" s="94"/>
+      <c r="E196" s="95"/>
+      <c r="F196" s="40"/>
+    </row>
+    <row r="197" spans="1:6" s="38" customFormat="1">
+      <c r="A197" s="10"/>
+      <c r="B197" s="88"/>
+      <c r="C197" s="35"/>
+      <c r="D197" s="94"/>
+      <c r="E197" s="95"/>
+      <c r="F197" s="40"/>
+    </row>
+    <row r="198" spans="1:6" s="38" customFormat="1">
+      <c r="A198" s="10"/>
+      <c r="B198" s="88"/>
+      <c r="C198" s="35"/>
+      <c r="D198" s="94"/>
+      <c r="E198" s="95"/>
+      <c r="F198" s="40"/>
+    </row>
+    <row r="199" spans="1:6" s="38" customFormat="1">
+      <c r="A199" s="10"/>
+      <c r="B199" s="88"/>
+      <c r="C199" s="35"/>
+      <c r="D199" s="94"/>
+      <c r="E199" s="95"/>
+      <c r="F199" s="40"/>
+    </row>
+    <row r="200" spans="1:6" s="38" customFormat="1">
+      <c r="A200" s="10"/>
+      <c r="B200" s="88"/>
+      <c r="C200" s="35"/>
+      <c r="D200" s="94"/>
+      <c r="E200" s="95"/>
+      <c r="F200" s="40"/>
+    </row>
+    <row r="201" spans="1:6" s="38" customFormat="1">
+      <c r="A201" s="10"/>
+      <c r="B201" s="88"/>
+      <c r="C201" s="35"/>
+      <c r="D201" s="94"/>
+      <c r="E201" s="95"/>
+      <c r="F201" s="40"/>
+    </row>
+    <row r="202" spans="1:6" s="38" customFormat="1">
+      <c r="A202" s="10"/>
+      <c r="B202" s="88"/>
+      <c r="C202" s="35"/>
+      <c r="D202" s="94"/>
+      <c r="E202" s="95"/>
+      <c r="F202" s="40"/>
+    </row>
+    <row r="203" spans="1:6" s="38" customFormat="1">
+      <c r="A203" s="10"/>
+      <c r="B203" s="88"/>
+      <c r="C203" s="35"/>
+      <c r="D203" s="94"/>
+      <c r="E203" s="95"/>
+      <c r="F203" s="40"/>
+    </row>
+    <row r="204" spans="1:6" s="38" customFormat="1">
+      <c r="A204" s="10"/>
+      <c r="B204" s="88"/>
+      <c r="C204" s="35"/>
+      <c r="D204" s="94"/>
+      <c r="E204" s="95"/>
+      <c r="F204" s="40"/>
+    </row>
+    <row r="205" spans="1:6" s="38" customFormat="1">
+      <c r="A205" s="10"/>
+      <c r="B205" s="88"/>
+      <c r="C205" s="35"/>
+      <c r="D205" s="94"/>
+      <c r="E205" s="95"/>
+      <c r="F205" s="40"/>
+    </row>
+    <row r="206" spans="1:6" s="38" customFormat="1">
+      <c r="A206" s="10"/>
+      <c r="B206" s="88"/>
+      <c r="C206" s="35"/>
+      <c r="D206" s="94"/>
+      <c r="E206" s="95"/>
+      <c r="F206" s="40"/>
+    </row>
+    <row r="207" spans="1:6" s="38" customFormat="1">
+      <c r="A207" s="10"/>
+      <c r="B207" s="88"/>
+      <c r="C207" s="35"/>
+      <c r="D207" s="94"/>
+      <c r="E207" s="95"/>
+      <c r="F207" s="40"/>
+    </row>
+    <row r="208" spans="1:6" s="38" customFormat="1">
+      <c r="A208" s="10"/>
+      <c r="B208" s="88"/>
+      <c r="C208" s="35"/>
+      <c r="D208" s="94"/>
+      <c r="E208" s="95"/>
+      <c r="F208" s="40"/>
+    </row>
+    <row r="209" spans="1:6" s="38" customFormat="1">
+      <c r="A209" s="10"/>
+      <c r="B209" s="88"/>
+      <c r="C209" s="35"/>
+      <c r="D209" s="94"/>
+      <c r="E209" s="95"/>
+      <c r="F209" s="40"/>
+    </row>
+    <row r="210" spans="1:6" s="38" customFormat="1">
+      <c r="A210" s="10"/>
+      <c r="B210" s="88"/>
+      <c r="C210" s="35"/>
+      <c r="D210" s="94"/>
+      <c r="E210" s="95"/>
+      <c r="F210" s="40"/>
+    </row>
+    <row r="211" spans="1:6" s="38" customFormat="1">
+      <c r="A211" s="10"/>
+      <c r="B211" s="88"/>
+      <c r="C211" s="35"/>
+      <c r="D211" s="94"/>
+      <c r="E211" s="95"/>
+      <c r="F211" s="40"/>
+    </row>
+    <row r="212" spans="1:6" s="38" customFormat="1">
+      <c r="A212" s="10"/>
+      <c r="B212" s="88"/>
+      <c r="C212" s="35"/>
+      <c r="D212" s="94"/>
+      <c r="E212" s="95"/>
+      <c r="F212" s="40"/>
+    </row>
+    <row r="213" spans="1:6" s="38" customFormat="1">
+      <c r="A213" s="10"/>
+      <c r="B213" s="88"/>
+      <c r="C213" s="35"/>
+      <c r="D213" s="94"/>
+      <c r="E213" s="95"/>
+      <c r="F213" s="40"/>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="10"/>
+      <c r="B214" s="88"/>
+      <c r="C214" s="35"/>
+      <c r="D214" s="94"/>
+      <c r="E214" s="95"/>
+      <c r="F214" s="40"/>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="10"/>
+      <c r="B215" s="88"/>
+      <c r="C215" s="35"/>
+      <c r="D215" s="94"/>
+      <c r="E215" s="95"/>
+      <c r="F215" s="40"/>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="D221"/>
+      <c r="F221"/>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="D222"/>
+      <c r="F222"/>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="D223"/>
+      <c r="F223"/>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="D224"/>
+      <c r="F224"/>
+    </row>
+    <row r="225" spans="4:6">
+      <c r="D225"/>
+      <c r="F225"/>
+    </row>
+    <row r="226" spans="4:6">
+      <c r="D226"/>
+      <c r="F226"/>
+    </row>
+    <row r="227" spans="4:6">
+      <c r="D227"/>
+      <c r="F227"/>
+    </row>
+    <row r="228" spans="4:6">
+      <c r="D228"/>
+      <c r="F228"/>
+    </row>
+    <row r="229" spans="4:6">
+      <c r="D229"/>
+      <c r="F229"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H2:I2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A8:A10 A1:B7 B8 F1:F8 C1:C61 A11:B61 F11:F45 F53:F61">
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="A8:A10 A1:B7 B8 F1:F8 C1:C215 A11:B215 F11:F45 F53:F72 F81:F215">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
       <formula>IFCOUNT($A$6,"TS_UC_*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10 B9:B10">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>IFCOUNT($A$6,"TS_UC_*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2 H3:I6">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>IFCOUNT($A$6,"TS_UC_*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 F49:F52">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>IFCOUNT($A$6,"TS_UC_*")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:F48">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>IFCOUNT($A$6,"TS_UC_*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F73:F75">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>IFCOUNT($A$6,"TS_UC_*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F76">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>IFCOUNT($A$6,"TS_UC_*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F77">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>IFCOUNT($A$6,"TS_UC_*")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78:F80">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IFCOUNT($A$6,"TS_UC_*")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3513,8 +5235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -3673,23 +5395,23 @@
       </c>
       <c r="B3" s="27">
         <f>SUM(B4:B30)</f>
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C3" s="27">
         <f>COUNTIF(C5:C30,"x")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="27">
         <f>COUNTIF(D5:D30,"x")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="27">
         <f>COUNTIF(E5:E30,"x")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="27">
         <f>COUNTIF(F5:F30,"x")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="27">
         <f>COUNTIF(G5:G30,"x")</f>
@@ -3701,27 +5423,27 @@
       </c>
       <c r="I3" s="27">
         <f>COUNTIF(I5:I30,"x")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="27">
         <f>COUNTIF(J5:J30,"x")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K3" s="27">
         <f>COUNTIF(K5:K30,"x")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L3" s="27">
         <f>COUNTIF(L5:L30,"x")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3" s="27">
         <f>COUNTIF(M5:M30,"x")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N3" s="27">
         <f>COUNTIF(N5:N30,"x")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" s="27">
         <f>COUNTIF(O5:O30,"x")</f>
@@ -3729,11 +5451,11 @@
       </c>
       <c r="P3" s="27">
         <f>COUNTIF(P5:P30,"x")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="27">
         <f>COUNTIF(Q5:Q30,"x")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="27">
         <f>COUNTIF(R5:R30,"x")</f>
@@ -3741,7 +5463,7 @@
       </c>
       <c r="S3" s="27">
         <f>COUNTIF(S5:S30,"x")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T3" s="27">
         <f>COUNTIF(T5:T30,"x")</f>
@@ -3848,1078 +5570,1142 @@
       <c r="AI4" s="29"/>
     </row>
     <row r="5" spans="1:35" ht="14">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="96">
+      <c r="B5" s="99">
         <f>COUNTIF(C5:AI5,"x")</f>
         <v>2</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="97"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="97"/>
-      <c r="AB5" s="97" t="s">
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
+      <c r="X5" s="100"/>
+      <c r="Y5" s="100"/>
+      <c r="Z5" s="100"/>
+      <c r="AA5" s="100"/>
+      <c r="AB5" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="AC5" s="97" t="s">
+      <c r="AC5" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="AD5" s="97"/>
-      <c r="AE5" s="97"/>
-      <c r="AF5" s="97"/>
-      <c r="AG5" s="97"/>
-      <c r="AH5" s="97"/>
-      <c r="AI5" s="97"/>
+      <c r="AD5" s="100"/>
+      <c r="AE5" s="100"/>
+      <c r="AF5" s="100"/>
+      <c r="AG5" s="100"/>
+      <c r="AH5" s="100"/>
+      <c r="AI5" s="100"/>
     </row>
     <row r="6" spans="1:35" ht="14">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="96">
+      <c r="B6" s="99">
         <f t="shared" ref="B6:B30" si="0">COUNTIF(C6:AI6,"x")</f>
-        <v>1</v>
-      </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="97"/>
-      <c r="W6" s="97"/>
-      <c r="X6" s="97"/>
-      <c r="Y6" s="97"/>
-      <c r="Z6" s="97"/>
-      <c r="AA6" s="97"/>
-      <c r="AB6" s="97"/>
-      <c r="AC6" s="97"/>
-      <c r="AD6" s="97"/>
-      <c r="AE6" s="97"/>
-      <c r="AF6" s="97"/>
-      <c r="AG6" s="97"/>
-      <c r="AH6" s="97"/>
-      <c r="AI6" s="97"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="O6" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="100"/>
+      <c r="S6" s="100"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="100"/>
+      <c r="V6" s="100"/>
+      <c r="W6" s="100"/>
+      <c r="X6" s="100"/>
+      <c r="Y6" s="100"/>
+      <c r="Z6" s="100"/>
+      <c r="AA6" s="100"/>
+      <c r="AB6" s="100"/>
+      <c r="AC6" s="100"/>
+      <c r="AD6" s="100"/>
+      <c r="AE6" s="100"/>
+      <c r="AF6" s="100"/>
+      <c r="AG6" s="100"/>
+      <c r="AH6" s="100"/>
+      <c r="AI6" s="100"/>
     </row>
     <row r="7" spans="1:35" ht="14">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="96">
+      <c r="B7" s="99">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="97"/>
-      <c r="W7" s="97"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="97"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="97"/>
-      <c r="AC7" s="97"/>
-      <c r="AD7" s="97"/>
-      <c r="AE7" s="97"/>
-      <c r="AF7" s="97"/>
-      <c r="AG7" s="97"/>
-      <c r="AH7" s="97"/>
-      <c r="AI7" s="97"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="O7" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="100"/>
+      <c r="AB7" s="100"/>
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="100"/>
+      <c r="AE7" s="100"/>
+      <c r="AF7" s="100"/>
+      <c r="AG7" s="100"/>
+      <c r="AH7" s="100"/>
+      <c r="AI7" s="100"/>
     </row>
     <row r="8" spans="1:35" ht="14">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="96">
+      <c r="B8" s="99">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99" t="s">
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="99" t="s">
+      <c r="H8" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99"/>
-      <c r="S8" s="99"/>
-      <c r="T8" s="99"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="99"/>
-      <c r="W8" s="99"/>
-      <c r="X8" s="99"/>
-      <c r="Y8" s="99"/>
-      <c r="Z8" s="99"/>
-      <c r="AA8" s="99"/>
-      <c r="AB8" s="99"/>
-      <c r="AC8" s="99"/>
-      <c r="AD8" s="99"/>
-      <c r="AE8" s="99"/>
-      <c r="AF8" s="99"/>
-      <c r="AG8" s="99"/>
-      <c r="AH8" s="99"/>
-      <c r="AI8" s="99"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="102"/>
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="102"/>
+      <c r="AA8" s="102"/>
+      <c r="AB8" s="102"/>
+      <c r="AC8" s="102"/>
+      <c r="AD8" s="102"/>
+      <c r="AE8" s="102"/>
+      <c r="AF8" s="102"/>
+      <c r="AG8" s="102"/>
+      <c r="AH8" s="102"/>
+      <c r="AI8" s="102"/>
     </row>
     <row r="9" spans="1:35" ht="14">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="96">
+      <c r="B9" s="99">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99" t="s">
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="99"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="99"/>
-      <c r="W9" s="99"/>
-      <c r="X9" s="99"/>
-      <c r="Y9" s="99"/>
-      <c r="Z9" s="99"/>
-      <c r="AA9" s="99"/>
-      <c r="AB9" s="99"/>
-      <c r="AC9" s="99"/>
-      <c r="AD9" s="99" t="s">
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="102"/>
+      <c r="AD9" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="99"/>
-      <c r="AG9" s="99"/>
-      <c r="AH9" s="99"/>
-      <c r="AI9" s="99"/>
+      <c r="AE9" s="102"/>
+      <c r="AF9" s="102"/>
+      <c r="AG9" s="102"/>
+      <c r="AH9" s="102"/>
+      <c r="AI9" s="102"/>
     </row>
     <row r="10" spans="1:35" ht="14">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="96">
+      <c r="B10" s="99">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="T10" s="99"/>
-      <c r="U10" s="99"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="99"/>
-      <c r="X10" s="99"/>
-      <c r="Y10" s="99"/>
-      <c r="Z10" s="99"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="99"/>
-      <c r="AC10" s="99"/>
-      <c r="AD10" s="99"/>
-      <c r="AE10" s="99"/>
-      <c r="AF10" s="99"/>
-      <c r="AG10" s="99"/>
-      <c r="AH10" s="99"/>
-      <c r="AI10" s="99"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="102"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="102"/>
+      <c r="AF10" s="102"/>
+      <c r="AG10" s="102"/>
+      <c r="AH10" s="102"/>
+      <c r="AI10" s="102"/>
     </row>
     <row r="11" spans="1:35" ht="14">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="96">
+      <c r="B11" s="99">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="99"/>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="99"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="99"/>
-      <c r="AG11" s="99"/>
-      <c r="AH11" s="99"/>
-      <c r="AI11" s="99"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="102"/>
+      <c r="AF11" s="102"/>
+      <c r="AG11" s="102"/>
+      <c r="AH11" s="102"/>
+      <c r="AI11" s="102"/>
     </row>
     <row r="12" spans="1:35" ht="14">
-      <c r="A12" s="98"/>
-      <c r="B12" s="96">
+      <c r="A12" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="99">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="T12" s="102"/>
+      <c r="U12" s="102"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="102"/>
+      <c r="AA12" s="102"/>
+      <c r="AB12" s="102"/>
+      <c r="AC12" s="102"/>
+      <c r="AD12" s="102"/>
+      <c r="AE12" s="102"/>
+      <c r="AF12" s="102"/>
+      <c r="AG12" s="102"/>
+      <c r="AH12" s="102"/>
+      <c r="AI12" s="102"/>
+    </row>
+    <row r="13" spans="1:35" ht="14">
+      <c r="A13" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="99">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C13" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="104"/>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="104"/>
+      <c r="AB13" s="104"/>
+      <c r="AC13" s="104"/>
+      <c r="AD13" s="104"/>
+      <c r="AE13" s="104"/>
+      <c r="AF13" s="104"/>
+      <c r="AG13" s="104"/>
+      <c r="AH13" s="104"/>
+      <c r="AI13" s="104"/>
+    </row>
+    <row r="14" spans="1:35" ht="14">
+      <c r="A14" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="99">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C14" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="L14" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="104"/>
+      <c r="X14" s="104"/>
+      <c r="Y14" s="104"/>
+      <c r="Z14" s="104"/>
+      <c r="AA14" s="104"/>
+      <c r="AB14" s="104"/>
+      <c r="AC14" s="104"/>
+      <c r="AD14" s="104"/>
+      <c r="AE14" s="104"/>
+      <c r="AF14" s="104"/>
+      <c r="AG14" s="104"/>
+      <c r="AH14" s="104"/>
+      <c r="AI14" s="104"/>
+    </row>
+    <row r="15" spans="1:35" ht="14">
+      <c r="A15" s="103" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="99">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="M15" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q15" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="R15" s="104"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="104"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="104"/>
+      <c r="Y15" s="104"/>
+      <c r="Z15" s="104"/>
+      <c r="AA15" s="104"/>
+      <c r="AB15" s="104"/>
+      <c r="AC15" s="104"/>
+      <c r="AD15" s="104"/>
+      <c r="AE15" s="104"/>
+      <c r="AF15" s="104"/>
+      <c r="AG15" s="104"/>
+      <c r="AH15" s="104"/>
+      <c r="AI15" s="104"/>
+    </row>
+    <row r="16" spans="1:35" ht="14">
+      <c r="A16" s="103"/>
+      <c r="B16" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="99"/>
-      <c r="Z12" s="99"/>
-      <c r="AA12" s="99"/>
-      <c r="AB12" s="99"/>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="99"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="99"/>
-      <c r="AG12" s="99"/>
-      <c r="AH12" s="99"/>
-      <c r="AI12" s="99"/>
-    </row>
-    <row r="13" spans="1:35" ht="14">
-      <c r="A13" s="100"/>
-      <c r="B13" s="96">
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="104"/>
+      <c r="X16" s="104"/>
+      <c r="Y16" s="104"/>
+      <c r="Z16" s="104"/>
+      <c r="AA16" s="104"/>
+      <c r="AB16" s="104"/>
+      <c r="AC16" s="104"/>
+      <c r="AD16" s="104"/>
+      <c r="AE16" s="104"/>
+      <c r="AF16" s="104"/>
+      <c r="AG16" s="104"/>
+      <c r="AH16" s="104"/>
+      <c r="AI16" s="104"/>
+    </row>
+    <row r="17" spans="1:35" ht="14">
+      <c r="A17" s="103"/>
+      <c r="B17" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="101"/>
-      <c r="U13" s="101"/>
-      <c r="V13" s="101"/>
-      <c r="W13" s="101"/>
-      <c r="X13" s="101"/>
-      <c r="Y13" s="101"/>
-      <c r="Z13" s="101"/>
-      <c r="AA13" s="101"/>
-      <c r="AB13" s="101"/>
-      <c r="AC13" s="101"/>
-      <c r="AD13" s="101"/>
-      <c r="AE13" s="101"/>
-      <c r="AF13" s="101"/>
-      <c r="AG13" s="101"/>
-      <c r="AH13" s="101"/>
-      <c r="AI13" s="101"/>
-    </row>
-    <row r="14" spans="1:35" ht="14">
-      <c r="A14" s="100"/>
-      <c r="B14" s="96">
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="104"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="104"/>
+      <c r="AB17" s="104"/>
+      <c r="AC17" s="104"/>
+      <c r="AD17" s="104"/>
+      <c r="AE17" s="104"/>
+      <c r="AF17" s="104"/>
+      <c r="AG17" s="104"/>
+      <c r="AH17" s="104"/>
+      <c r="AI17" s="104"/>
+    </row>
+    <row r="18" spans="1:35" ht="14">
+      <c r="A18" s="103"/>
+      <c r="B18" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="101"/>
-      <c r="U14" s="101"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="101"/>
-      <c r="X14" s="101"/>
-      <c r="Y14" s="101"/>
-      <c r="Z14" s="101"/>
-      <c r="AA14" s="101"/>
-      <c r="AB14" s="101"/>
-      <c r="AC14" s="101"/>
-      <c r="AD14" s="101"/>
-      <c r="AE14" s="101"/>
-      <c r="AF14" s="101"/>
-      <c r="AG14" s="101"/>
-      <c r="AH14" s="101"/>
-      <c r="AI14" s="101"/>
-    </row>
-    <row r="15" spans="1:35" ht="14">
-      <c r="A15" s="100"/>
-      <c r="B15" s="96">
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="104"/>
+      <c r="X18" s="104"/>
+      <c r="Y18" s="104"/>
+      <c r="Z18" s="104"/>
+      <c r="AA18" s="104"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="104"/>
+      <c r="AD18" s="104"/>
+      <c r="AE18" s="104"/>
+      <c r="AF18" s="104"/>
+      <c r="AG18" s="104"/>
+      <c r="AH18" s="104"/>
+      <c r="AI18" s="104"/>
+    </row>
+    <row r="19" spans="1:35" ht="14">
+      <c r="A19" s="103"/>
+      <c r="B19" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="101"/>
-      <c r="U15" s="101"/>
-      <c r="V15" s="101"/>
-      <c r="W15" s="101"/>
-      <c r="X15" s="101"/>
-      <c r="Y15" s="101"/>
-      <c r="Z15" s="101"/>
-      <c r="AA15" s="101"/>
-      <c r="AB15" s="101"/>
-      <c r="AC15" s="101"/>
-      <c r="AD15" s="101"/>
-      <c r="AE15" s="101"/>
-      <c r="AF15" s="101"/>
-      <c r="AG15" s="101"/>
-      <c r="AH15" s="101"/>
-      <c r="AI15" s="101"/>
-    </row>
-    <row r="16" spans="1:35" ht="14">
-      <c r="A16" s="100"/>
-      <c r="B16" s="96">
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="104"/>
+      <c r="S19" s="104"/>
+      <c r="T19" s="104"/>
+      <c r="U19" s="104"/>
+      <c r="V19" s="104"/>
+      <c r="W19" s="104"/>
+      <c r="X19" s="104"/>
+      <c r="Y19" s="104"/>
+      <c r="Z19" s="104"/>
+      <c r="AA19" s="104"/>
+      <c r="AB19" s="104"/>
+      <c r="AC19" s="104"/>
+      <c r="AD19" s="104"/>
+      <c r="AE19" s="104"/>
+      <c r="AF19" s="104"/>
+      <c r="AG19" s="104"/>
+      <c r="AH19" s="104"/>
+      <c r="AI19" s="104"/>
+    </row>
+    <row r="20" spans="1:35" ht="14">
+      <c r="A20" s="103"/>
+      <c r="B20" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="101"/>
-      <c r="V16" s="101"/>
-      <c r="W16" s="101"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="101"/>
-      <c r="Z16" s="101"/>
-      <c r="AA16" s="101"/>
-      <c r="AB16" s="101"/>
-      <c r="AC16" s="101"/>
-      <c r="AD16" s="101"/>
-      <c r="AE16" s="101"/>
-      <c r="AF16" s="101"/>
-      <c r="AG16" s="101"/>
-      <c r="AH16" s="101"/>
-      <c r="AI16" s="101"/>
-    </row>
-    <row r="17" spans="1:35" ht="14">
-      <c r="A17" s="100"/>
-      <c r="B17" s="96">
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="104"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="104"/>
+      <c r="U20" s="104"/>
+      <c r="V20" s="104"/>
+      <c r="W20" s="104"/>
+      <c r="X20" s="104"/>
+      <c r="Y20" s="104"/>
+      <c r="Z20" s="104"/>
+      <c r="AA20" s="104"/>
+      <c r="AB20" s="104"/>
+      <c r="AC20" s="104"/>
+      <c r="AD20" s="104"/>
+      <c r="AE20" s="104"/>
+      <c r="AF20" s="104"/>
+      <c r="AG20" s="104"/>
+      <c r="AH20" s="104"/>
+      <c r="AI20" s="104"/>
+    </row>
+    <row r="21" spans="1:35" ht="14">
+      <c r="A21" s="103"/>
+      <c r="B21" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="101"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="101"/>
-      <c r="X17" s="101"/>
-      <c r="Y17" s="101"/>
-      <c r="Z17" s="101"/>
-      <c r="AA17" s="101"/>
-      <c r="AB17" s="101"/>
-      <c r="AC17" s="101"/>
-      <c r="AD17" s="101"/>
-      <c r="AE17" s="101"/>
-      <c r="AF17" s="101"/>
-      <c r="AG17" s="101"/>
-      <c r="AH17" s="101"/>
-      <c r="AI17" s="101"/>
-    </row>
-    <row r="18" spans="1:35" ht="14">
-      <c r="A18" s="100"/>
-      <c r="B18" s="96">
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="104"/>
+      <c r="Y21" s="104"/>
+      <c r="Z21" s="104"/>
+      <c r="AA21" s="104"/>
+      <c r="AB21" s="104"/>
+      <c r="AC21" s="104"/>
+      <c r="AD21" s="104"/>
+      <c r="AE21" s="104"/>
+      <c r="AF21" s="104"/>
+      <c r="AG21" s="104"/>
+      <c r="AH21" s="104"/>
+      <c r="AI21" s="104"/>
+    </row>
+    <row r="22" spans="1:35" ht="14">
+      <c r="A22" s="103"/>
+      <c r="B22" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="101"/>
-      <c r="S18" s="101"/>
-      <c r="T18" s="101"/>
-      <c r="U18" s="101"/>
-      <c r="V18" s="101"/>
-      <c r="W18" s="101"/>
-      <c r="X18" s="101"/>
-      <c r="Y18" s="101"/>
-      <c r="Z18" s="101"/>
-      <c r="AA18" s="101"/>
-      <c r="AB18" s="101"/>
-      <c r="AC18" s="101"/>
-      <c r="AD18" s="101"/>
-      <c r="AE18" s="101"/>
-      <c r="AF18" s="101"/>
-      <c r="AG18" s="101"/>
-      <c r="AH18" s="101"/>
-      <c r="AI18" s="101"/>
-    </row>
-    <row r="19" spans="1:35" ht="14">
-      <c r="A19" s="100"/>
-      <c r="B19" s="96">
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="104"/>
+      <c r="W22" s="104"/>
+      <c r="X22" s="104"/>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="104"/>
+      <c r="AA22" s="104"/>
+      <c r="AB22" s="104"/>
+      <c r="AC22" s="104"/>
+      <c r="AD22" s="104"/>
+      <c r="AE22" s="104"/>
+      <c r="AF22" s="104"/>
+      <c r="AG22" s="104"/>
+      <c r="AH22" s="104"/>
+      <c r="AI22" s="104"/>
+    </row>
+    <row r="23" spans="1:35" ht="14">
+      <c r="A23" s="103"/>
+      <c r="B23" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="101"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="101"/>
-      <c r="U19" s="101"/>
-      <c r="V19" s="101"/>
-      <c r="W19" s="101"/>
-      <c r="X19" s="101"/>
-      <c r="Y19" s="101"/>
-      <c r="Z19" s="101"/>
-      <c r="AA19" s="101"/>
-      <c r="AB19" s="101"/>
-      <c r="AC19" s="101"/>
-      <c r="AD19" s="101"/>
-      <c r="AE19" s="101"/>
-      <c r="AF19" s="101"/>
-      <c r="AG19" s="101"/>
-      <c r="AH19" s="101"/>
-      <c r="AI19" s="101"/>
-    </row>
-    <row r="20" spans="1:35" ht="14">
-      <c r="A20" s="100"/>
-      <c r="B20" s="96">
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="104"/>
+      <c r="S23" s="104"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="104"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="104"/>
+      <c r="Y23" s="104"/>
+      <c r="Z23" s="104"/>
+      <c r="AA23" s="104"/>
+      <c r="AB23" s="104"/>
+      <c r="AC23" s="104"/>
+      <c r="AD23" s="104"/>
+      <c r="AE23" s="104"/>
+      <c r="AF23" s="104"/>
+      <c r="AG23" s="104"/>
+      <c r="AH23" s="104"/>
+      <c r="AI23" s="104"/>
+    </row>
+    <row r="24" spans="1:35" ht="14">
+      <c r="A24" s="105"/>
+      <c r="B24" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="101"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="101"/>
-      <c r="U20" s="101"/>
-      <c r="V20" s="101"/>
-      <c r="W20" s="101"/>
-      <c r="X20" s="101"/>
-      <c r="Y20" s="101"/>
-      <c r="Z20" s="101"/>
-      <c r="AA20" s="101"/>
-      <c r="AB20" s="101"/>
-      <c r="AC20" s="101"/>
-      <c r="AD20" s="101"/>
-      <c r="AE20" s="101"/>
-      <c r="AF20" s="101"/>
-      <c r="AG20" s="101"/>
-      <c r="AH20" s="101"/>
-      <c r="AI20" s="101"/>
-    </row>
-    <row r="21" spans="1:35" ht="14">
-      <c r="A21" s="100"/>
-      <c r="B21" s="96">
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="106"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="106"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="106"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="106"/>
+      <c r="W24" s="106"/>
+      <c r="X24" s="106"/>
+      <c r="Y24" s="106"/>
+      <c r="Z24" s="106"/>
+      <c r="AA24" s="106"/>
+      <c r="AB24" s="107"/>
+      <c r="AC24" s="107"/>
+      <c r="AD24" s="107"/>
+      <c r="AE24" s="107"/>
+      <c r="AF24" s="107"/>
+      <c r="AG24" s="107"/>
+      <c r="AH24" s="107"/>
+      <c r="AI24" s="107"/>
+    </row>
+    <row r="25" spans="1:35" ht="14">
+      <c r="A25" s="105"/>
+      <c r="B25" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="101"/>
-      <c r="S21" s="101"/>
-      <c r="T21" s="101"/>
-      <c r="U21" s="101"/>
-      <c r="V21" s="101"/>
-      <c r="W21" s="101"/>
-      <c r="X21" s="101"/>
-      <c r="Y21" s="101"/>
-      <c r="Z21" s="101"/>
-      <c r="AA21" s="101"/>
-      <c r="AB21" s="101"/>
-      <c r="AC21" s="101"/>
-      <c r="AD21" s="101"/>
-      <c r="AE21" s="101"/>
-      <c r="AF21" s="101"/>
-      <c r="AG21" s="101"/>
-      <c r="AH21" s="101"/>
-      <c r="AI21" s="101"/>
-    </row>
-    <row r="22" spans="1:35" ht="14">
-      <c r="A22" s="100"/>
-      <c r="B22" s="96">
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="106"/>
+      <c r="T25" s="106"/>
+      <c r="U25" s="106"/>
+      <c r="V25" s="106"/>
+      <c r="W25" s="106"/>
+      <c r="X25" s="106"/>
+      <c r="Y25" s="106"/>
+      <c r="Z25" s="106"/>
+      <c r="AA25" s="106"/>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="106"/>
+      <c r="AD25" s="106"/>
+      <c r="AE25" s="106"/>
+      <c r="AF25" s="106"/>
+      <c r="AG25" s="106"/>
+      <c r="AH25" s="106"/>
+      <c r="AI25" s="106"/>
+    </row>
+    <row r="26" spans="1:35" ht="14">
+      <c r="A26" s="105"/>
+      <c r="B26" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="101"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="101"/>
-      <c r="S22" s="101"/>
-      <c r="T22" s="101"/>
-      <c r="U22" s="101"/>
-      <c r="V22" s="101"/>
-      <c r="W22" s="101"/>
-      <c r="X22" s="101"/>
-      <c r="Y22" s="101"/>
-      <c r="Z22" s="101"/>
-      <c r="AA22" s="101"/>
-      <c r="AB22" s="101"/>
-      <c r="AC22" s="101"/>
-      <c r="AD22" s="101"/>
-      <c r="AE22" s="101"/>
-      <c r="AF22" s="101"/>
-      <c r="AG22" s="101"/>
-      <c r="AH22" s="101"/>
-      <c r="AI22" s="101"/>
-    </row>
-    <row r="23" spans="1:35" ht="14">
-      <c r="A23" s="100"/>
-      <c r="B23" s="96">
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="106"/>
+      <c r="S26" s="106"/>
+      <c r="T26" s="106"/>
+      <c r="U26" s="106"/>
+      <c r="V26" s="106"/>
+      <c r="W26" s="106"/>
+      <c r="X26" s="106"/>
+      <c r="Y26" s="106"/>
+      <c r="Z26" s="106"/>
+      <c r="AA26" s="106"/>
+      <c r="AB26" s="106"/>
+      <c r="AC26" s="106"/>
+      <c r="AD26" s="106"/>
+      <c r="AE26" s="106"/>
+      <c r="AF26" s="106"/>
+      <c r="AG26" s="106"/>
+      <c r="AH26" s="106"/>
+      <c r="AI26" s="106"/>
+    </row>
+    <row r="27" spans="1:35" ht="14">
+      <c r="A27" s="108"/>
+      <c r="B27" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="101"/>
-      <c r="S23" s="101"/>
-      <c r="T23" s="101"/>
-      <c r="U23" s="101"/>
-      <c r="V23" s="101"/>
-      <c r="W23" s="101"/>
-      <c r="X23" s="101"/>
-      <c r="Y23" s="101"/>
-      <c r="Z23" s="101"/>
-      <c r="AA23" s="101"/>
-      <c r="AB23" s="101"/>
-      <c r="AC23" s="101"/>
-      <c r="AD23" s="101"/>
-      <c r="AE23" s="101"/>
-      <c r="AF23" s="101"/>
-      <c r="AG23" s="101"/>
-      <c r="AH23" s="101"/>
-      <c r="AI23" s="101"/>
-    </row>
-    <row r="24" spans="1:35" ht="14">
-      <c r="A24" s="102"/>
-      <c r="B24" s="96">
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="109"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="109"/>
+      <c r="R27" s="109"/>
+      <c r="S27" s="109"/>
+      <c r="T27" s="109"/>
+      <c r="U27" s="109"/>
+      <c r="V27" s="109"/>
+      <c r="W27" s="109"/>
+      <c r="X27" s="109"/>
+      <c r="Y27" s="109"/>
+      <c r="Z27" s="109"/>
+      <c r="AA27" s="109"/>
+      <c r="AB27" s="109"/>
+      <c r="AC27" s="109"/>
+      <c r="AD27" s="109"/>
+      <c r="AE27" s="109"/>
+      <c r="AF27" s="109"/>
+      <c r="AG27" s="109"/>
+      <c r="AH27" s="109"/>
+      <c r="AI27" s="109"/>
+    </row>
+    <row r="28" spans="1:35" ht="14">
+      <c r="A28" s="108"/>
+      <c r="B28" s="99">
+        <f>COUNTIF(C28:AI28,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="109"/>
+      <c r="L28" s="109"/>
+      <c r="M28" s="109"/>
+      <c r="N28" s="109"/>
+      <c r="O28" s="109"/>
+      <c r="P28" s="109"/>
+      <c r="Q28" s="109"/>
+      <c r="R28" s="109"/>
+      <c r="S28" s="109"/>
+      <c r="T28" s="109"/>
+      <c r="U28" s="109"/>
+      <c r="V28" s="109"/>
+      <c r="W28" s="109"/>
+      <c r="X28" s="109"/>
+      <c r="Y28" s="109"/>
+      <c r="Z28" s="109"/>
+      <c r="AA28" s="109"/>
+      <c r="AB28" s="109"/>
+      <c r="AC28" s="109"/>
+      <c r="AD28" s="109"/>
+      <c r="AE28" s="109"/>
+      <c r="AF28" s="109"/>
+      <c r="AG28" s="109"/>
+      <c r="AH28" s="109"/>
+      <c r="AI28" s="109"/>
+    </row>
+    <row r="29" spans="1:35" ht="14">
+      <c r="A29" s="108"/>
+      <c r="B29" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="103"/>
-      <c r="V24" s="103"/>
-      <c r="W24" s="103"/>
-      <c r="X24" s="103"/>
-      <c r="Y24" s="103"/>
-      <c r="Z24" s="103"/>
-      <c r="AA24" s="103"/>
-      <c r="AB24" s="104"/>
-      <c r="AC24" s="104"/>
-      <c r="AD24" s="104"/>
-      <c r="AE24" s="104"/>
-      <c r="AF24" s="104"/>
-      <c r="AG24" s="104"/>
-      <c r="AH24" s="104"/>
-      <c r="AI24" s="104"/>
-    </row>
-    <row r="25" spans="1:35" ht="14">
-      <c r="A25" s="102"/>
-      <c r="B25" s="96">
+      <c r="C29" s="109"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="109"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="109"/>
+      <c r="T29" s="109"/>
+      <c r="U29" s="109"/>
+      <c r="V29" s="109"/>
+      <c r="W29" s="109"/>
+      <c r="X29" s="109"/>
+      <c r="Y29" s="109"/>
+      <c r="Z29" s="109"/>
+      <c r="AA29" s="109"/>
+      <c r="AB29" s="109"/>
+      <c r="AC29" s="109"/>
+      <c r="AD29" s="109"/>
+      <c r="AE29" s="109"/>
+      <c r="AF29" s="109"/>
+      <c r="AG29" s="109"/>
+      <c r="AH29" s="109"/>
+      <c r="AI29" s="109"/>
+    </row>
+    <row r="30" spans="1:35" ht="14">
+      <c r="A30" s="108"/>
+      <c r="B30" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="103"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="103"/>
-      <c r="U25" s="103"/>
-      <c r="V25" s="103"/>
-      <c r="W25" s="103"/>
-      <c r="X25" s="103"/>
-      <c r="Y25" s="103"/>
-      <c r="Z25" s="103"/>
-      <c r="AA25" s="103"/>
-      <c r="AB25" s="103"/>
-      <c r="AC25" s="103"/>
-      <c r="AD25" s="103"/>
-      <c r="AE25" s="103"/>
-      <c r="AF25" s="103"/>
-      <c r="AG25" s="103"/>
-      <c r="AH25" s="103"/>
-      <c r="AI25" s="103"/>
-    </row>
-    <row r="26" spans="1:35" ht="14">
-      <c r="A26" s="102"/>
-      <c r="B26" s="96">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="103"/>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="103"/>
-      <c r="S26" s="103"/>
-      <c r="T26" s="103"/>
-      <c r="U26" s="103"/>
-      <c r="V26" s="103"/>
-      <c r="W26" s="103"/>
-      <c r="X26" s="103"/>
-      <c r="Y26" s="103"/>
-      <c r="Z26" s="103"/>
-      <c r="AA26" s="103"/>
-      <c r="AB26" s="103"/>
-      <c r="AC26" s="103"/>
-      <c r="AD26" s="103"/>
-      <c r="AE26" s="103"/>
-      <c r="AF26" s="103"/>
-      <c r="AG26" s="103"/>
-      <c r="AH26" s="103"/>
-      <c r="AI26" s="103"/>
-    </row>
-    <row r="27" spans="1:35" ht="14">
-      <c r="A27" s="105"/>
-      <c r="B27" s="96">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
-      <c r="N27" s="106"/>
-      <c r="O27" s="106"/>
-      <c r="P27" s="106"/>
-      <c r="Q27" s="106"/>
-      <c r="R27" s="106"/>
-      <c r="S27" s="106"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="106"/>
-      <c r="V27" s="106"/>
-      <c r="W27" s="106"/>
-      <c r="X27" s="106"/>
-      <c r="Y27" s="106"/>
-      <c r="Z27" s="106"/>
-      <c r="AA27" s="106"/>
-      <c r="AB27" s="106"/>
-      <c r="AC27" s="106"/>
-      <c r="AD27" s="106"/>
-      <c r="AE27" s="106"/>
-      <c r="AF27" s="106"/>
-      <c r="AG27" s="106"/>
-      <c r="AH27" s="106"/>
-      <c r="AI27" s="106"/>
-    </row>
-    <row r="28" spans="1:35" ht="14">
-      <c r="A28" s="105"/>
-      <c r="B28" s="96">
-        <f>COUNTIF(C28:AI28,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
-      <c r="N28" s="106"/>
-      <c r="O28" s="106"/>
-      <c r="P28" s="106"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="106"/>
-      <c r="S28" s="106"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="106"/>
-      <c r="W28" s="106"/>
-      <c r="X28" s="106"/>
-      <c r="Y28" s="106"/>
-      <c r="Z28" s="106"/>
-      <c r="AA28" s="106"/>
-      <c r="AB28" s="106"/>
-      <c r="AC28" s="106"/>
-      <c r="AD28" s="106"/>
-      <c r="AE28" s="106"/>
-      <c r="AF28" s="106"/>
-      <c r="AG28" s="106"/>
-      <c r="AH28" s="106"/>
-      <c r="AI28" s="106"/>
-    </row>
-    <row r="29" spans="1:35" ht="14">
-      <c r="A29" s="105"/>
-      <c r="B29" s="96">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="106"/>
-      <c r="Q29" s="106"/>
-      <c r="R29" s="106"/>
-      <c r="S29" s="106"/>
-      <c r="T29" s="106"/>
-      <c r="U29" s="106"/>
-      <c r="V29" s="106"/>
-      <c r="W29" s="106"/>
-      <c r="X29" s="106"/>
-      <c r="Y29" s="106"/>
-      <c r="Z29" s="106"/>
-      <c r="AA29" s="106"/>
-      <c r="AB29" s="106"/>
-      <c r="AC29" s="106"/>
-      <c r="AD29" s="106"/>
-      <c r="AE29" s="106"/>
-      <c r="AF29" s="106"/>
-      <c r="AG29" s="106"/>
-      <c r="AH29" s="106"/>
-      <c r="AI29" s="106"/>
-    </row>
-    <row r="30" spans="1:35" ht="14">
-      <c r="A30" s="105"/>
-      <c r="B30" s="96">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="106"/>
-      <c r="P30" s="106"/>
-      <c r="Q30" s="106"/>
-      <c r="R30" s="106"/>
-      <c r="S30" s="106"/>
-      <c r="T30" s="106"/>
-      <c r="U30" s="106"/>
-      <c r="V30" s="106"/>
-      <c r="W30" s="106"/>
-      <c r="X30" s="106"/>
-      <c r="Y30" s="106"/>
-      <c r="Z30" s="106"/>
-      <c r="AA30" s="106"/>
-      <c r="AB30" s="106"/>
-      <c r="AC30" s="106"/>
-      <c r="AD30" s="106"/>
-      <c r="AE30" s="106"/>
-      <c r="AF30" s="106"/>
-      <c r="AG30" s="106"/>
-      <c r="AH30" s="106"/>
-      <c r="AI30" s="106"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="109"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="109"/>
+      <c r="R30" s="109"/>
+      <c r="S30" s="109"/>
+      <c r="T30" s="109"/>
+      <c r="U30" s="109"/>
+      <c r="V30" s="109"/>
+      <c r="W30" s="109"/>
+      <c r="X30" s="109"/>
+      <c r="Y30" s="109"/>
+      <c r="Z30" s="109"/>
+      <c r="AA30" s="109"/>
+      <c r="AB30" s="109"/>
+      <c r="AC30" s="109"/>
+      <c r="AD30" s="109"/>
+      <c r="AE30" s="109"/>
+      <c r="AF30" s="109"/>
+      <c r="AG30" s="109"/>
+      <c r="AH30" s="109"/>
+      <c r="AI30" s="109"/>
     </row>
     <row r="31" spans="1:35" ht="14">
       <c r="A31" s="30"/>
@@ -5012,10 +6798,10 @@
       <c r="AB33" s="30"/>
     </row>
     <row r="34" spans="1:28" ht="14">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="55"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
@@ -34338,8 +36124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -34647,17 +36433,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
       <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
@@ -34666,144 +36452,144 @@
       <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="60"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56" t="s">
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
       <c r="I11" s="3" t="s">
         <v>26</v>
       </c>
@@ -34814,148 +36600,148 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="15"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
       <c r="I12" s="12"/>
       <c r="J12" s="14"/>
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="15"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
       <c r="I13" s="12"/>
       <c r="J13" s="14"/>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="15"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
       <c r="I14" s="12"/>
       <c r="J14" s="14"/>
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="15"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
       <c r="I15" s="12"/>
       <c r="J15" s="14"/>
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="15"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
       <c r="I16" s="12"/>
       <c r="J16" s="14"/>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="15"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
       <c r="I17" s="12"/>
       <c r="J17" s="14"/>
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="15"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
       <c r="I18" s="12"/>
       <c r="J18" s="14"/>
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="15"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
       <c r="I19" s="12"/>
       <c r="J19" s="14"/>
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="15"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
       <c r="I20" s="12"/>
       <c r="J20" s="14"/>
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
       <c r="K21" s="11"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
       <c r="K23" s="11"/>
     </row>
   </sheetData>

--- a/doc/Test_Scenario_and_Test_Matrix_doc.xlsx
+++ b/doc/Test_Scenario_and_Test_Matrix_doc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="800" windowWidth="25600" windowHeight="16060" tabRatio="790" activeTab="3"/>
+    <workbookView xWindow="1960" yWindow="800" windowWidth="25600" windowHeight="16060" tabRatio="790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="303">
   <si>
     <t>Project Name</t>
   </si>
@@ -790,9 +790,6 @@
     <t>TS_012</t>
   </si>
   <si>
-    <t>REQ_01-02, REQ_04, REQ_08-11</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test if a link connects to an object </t>
   </si>
   <si>
@@ -934,7 +931,10 @@
     <t>REQ_18, REQ_03</t>
   </si>
   <si>
-    <t>REQ_13, REQ_07, REQ_12</t>
+    <t>REQ_01-02,  REQ_07-13</t>
+  </si>
+  <si>
+    <t>REQ_01-02, REQ_04, REQ_08-11, REQ_16</t>
   </si>
 </sst>
 </file>
@@ -1406,111 +1406,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1573,15 +1469,119 @@
     <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1650,35 +1650,7 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -2102,7 +2074,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2112,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C13"/>
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2136,16 +2108,16 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="93"/>
       <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2178,16 +2150,16 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
     </row>
@@ -2195,31 +2167,31 @@
       <c r="A5" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="52" t="s">
+      <c r="C5" s="74"/>
+      <c r="D5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
       <c r="I5" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="53"/>
+      <c r="K5" s="88"/>
       <c r="L5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="55" t="s">
+      <c r="N5" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="55"/>
+      <c r="O5" s="82"/>
     </row>
     <row r="6" spans="1:15" s="13" customFormat="1" ht="29.25" customHeight="1">
       <c r="A6" s="9" t="s">
@@ -2239,10 +2211,10 @@
       <c r="I6" s="9">
         <v>10</v>
       </c>
-      <c r="J6" s="54">
+      <c r="J6" s="83">
         <v>1</v>
       </c>
-      <c r="K6" s="54"/>
+      <c r="K6" s="83"/>
       <c r="L6" s="9">
         <v>1</v>
       </c>
@@ -2271,10 +2243,10 @@
       <c r="I7" s="9">
         <v>10</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="80">
         <v>1</v>
       </c>
-      <c r="K7" s="45"/>
+      <c r="K7" s="81"/>
       <c r="L7" s="9">
         <v>1</v>
       </c>
@@ -2293,20 +2265,20 @@
         <v>112</v>
       </c>
       <c r="C8" s="70"/>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="83"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="87"/>
       <c r="I8" s="9">
         <v>10</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="80">
         <v>1</v>
       </c>
-      <c r="K8" s="45"/>
+      <c r="K8" s="81"/>
       <c r="L8" s="9">
         <v>1</v>
       </c>
@@ -2325,20 +2297,20 @@
         <v>121</v>
       </c>
       <c r="C9" s="70"/>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="86"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
       <c r="I9" s="9">
         <v>10</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="80">
         <v>1</v>
       </c>
-      <c r="K9" s="45"/>
+      <c r="K9" s="81"/>
       <c r="L9" s="9">
         <v>1</v>
       </c>
@@ -2367,10 +2339,10 @@
       <c r="I10" s="9">
         <v>10</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="80">
         <v>1</v>
       </c>
-      <c r="K10" s="45"/>
+      <c r="K10" s="81"/>
       <c r="L10" s="9">
         <v>1</v>
       </c>
@@ -2385,20 +2357,20 @@
         <v>132</v>
       </c>
       <c r="C11" s="70"/>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
       <c r="I11" s="9">
         <v>10</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="80">
         <v>1</v>
       </c>
-      <c r="K11" s="45"/>
+      <c r="K11" s="81"/>
       <c r="L11" s="9">
         <v>1</v>
       </c>
@@ -2411,21 +2383,21 @@
         <v>68</v>
       </c>
       <c r="C12" s="70"/>
-      <c r="D12" s="81" t="s">
+      <c r="D12" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="73">
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="41">
         <v>7</v>
       </c>
-      <c r="J12" s="71">
+      <c r="J12" s="99">
         <v>1</v>
       </c>
-      <c r="K12" s="72"/>
-      <c r="L12" s="73">
+      <c r="K12" s="100"/>
+      <c r="L12" s="41">
         <v>1</v>
       </c>
     </row>
@@ -2434,23 +2406,23 @@
         <v>142</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C13" s="70"/>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="9">
         <v>8</v>
       </c>
-      <c r="J13" s="74">
+      <c r="J13" s="101">
         <v>2</v>
       </c>
-      <c r="K13" s="74"/>
+      <c r="K13" s="101"/>
       <c r="L13" s="9">
         <v>2</v>
       </c>
@@ -2460,23 +2432,23 @@
         <v>143</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="C14" s="70"/>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
       <c r="I14" s="9">
         <v>6</v>
       </c>
-      <c r="J14" s="43">
+      <c r="J14" s="80">
         <v>1</v>
       </c>
-      <c r="K14" s="45"/>
+      <c r="K14" s="81"/>
       <c r="L14" s="9">
         <v>1</v>
       </c>
@@ -2489,20 +2461,20 @@
         <v>197</v>
       </c>
       <c r="C15" s="70"/>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="81"/>
       <c r="I15" s="9">
         <v>7</v>
       </c>
-      <c r="J15" s="43">
+      <c r="J15" s="80">
         <v>2</v>
       </c>
-      <c r="K15" s="45"/>
+      <c r="K15" s="81"/>
       <c r="L15" s="9">
         <v>1</v>
       </c>
@@ -2512,23 +2484,23 @@
         <v>210</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C16" s="70"/>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="81"/>
       <c r="I16" s="9">
         <v>6</v>
       </c>
-      <c r="J16" s="110">
+      <c r="J16" s="71">
         <v>3</v>
       </c>
-      <c r="K16" s="111"/>
+      <c r="K16" s="72"/>
       <c r="L16" s="9">
         <v>1</v>
       </c>
@@ -2538,23 +2510,23 @@
         <v>253</v>
       </c>
       <c r="B17" s="69" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" s="70"/>
+      <c r="D17" s="80" t="s">
         <v>283</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="81"/>
       <c r="I17" s="9">
         <v>5</v>
       </c>
-      <c r="J17" s="110">
+      <c r="J17" s="71">
         <v>1</v>
       </c>
-      <c r="K17" s="111"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="9">
         <v>1</v>
       </c>
@@ -2563,198 +2535,246 @@
       <c r="A18" s="9"/>
       <c r="B18" s="69"/>
       <c r="C18" s="70"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="45"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="81"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="111"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" ht="28.5" customHeight="1">
       <c r="A19" s="9"/>
       <c r="B19" s="69"/>
       <c r="C19" s="70"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="45"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="81"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="111"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" ht="14" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="69"/>
       <c r="C20" s="70"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="81"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="111"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="72"/>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="69"/>
       <c r="C21" s="70"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="81"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="111"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="72"/>
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="9"/>
       <c r="B22" s="69"/>
       <c r="C22" s="70"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="45"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="81"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="111"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="72"/>
       <c r="L22" s="9"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="9"/>
       <c r="B23" s="69"/>
       <c r="C23" s="70"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="81"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="111"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="72"/>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="9"/>
       <c r="B24" s="69"/>
       <c r="C24" s="70"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="81"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="111"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="72"/>
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="9"/>
       <c r="B25" s="69"/>
       <c r="C25" s="70"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="45"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="81"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="111"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="72"/>
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="9"/>
       <c r="B26" s="69"/>
       <c r="C26" s="70"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="45"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="81"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="111"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="72"/>
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="96"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J26:K26"/>
@@ -2771,65 +2791,17 @@
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="D15:D23 I14:J23 I12:I13 L12:L23 N5 D12 I7:M8 D7:D8 B15:B26 A12:A23 A7:A9 B7:B12 D5:M6 D9:M9 A5:B6 A10:B11 D11:M11 D10 I10:M10 T5:XFD11 M12:M20 P12:XFD20 P5:P11 N6:O22">
     <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
@@ -2860,17 +2832,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" style="112" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" style="68" customWidth="1"/>
     <col min="4" max="4" width="17" style="38" customWidth="1"/>
     <col min="5" max="5" width="43.6640625" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" style="92" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" style="50" customWidth="1"/>
     <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2887,7 +2859,7 @@
       <c r="D1" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="48" t="s">
         <v>156</v>
       </c>
       <c r="F1" s="37" t="s">
@@ -2898,37 +2870,37 @@
       <c r="A2" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="46" t="s">
         <v>135</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="55"/>
+      <c r="I2" s="82"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="10"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="94">
+      <c r="B3" s="45"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="52">
         <v>1</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="54" t="s">
         <v>101</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -2940,15 +2912,15 @@
     </row>
     <row r="4" spans="1:9" ht="14" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="94">
+      <c r="B4" s="45"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="52">
         <v>2</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="54" t="s">
         <v>165</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -2960,15 +2932,15 @@
     </row>
     <row r="5" spans="1:9" ht="14" customHeight="1">
       <c r="A5" s="10"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="94">
+      <c r="B5" s="45"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="52">
         <v>3</v>
       </c>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="54" t="s">
         <v>102</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -2980,15 +2952,15 @@
     </row>
     <row r="6" spans="1:9" ht="14" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="93"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="39"/>
-      <c r="D6" s="94">
+      <c r="D6" s="52">
         <v>4</v>
       </c>
-      <c r="E6" s="97" t="s">
+      <c r="E6" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="96" t="s">
+      <c r="F6" s="54" t="s">
         <v>167</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -3000,66 +2972,66 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="10"/>
-      <c r="B7" s="93"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="39"/>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="F7" s="96"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10"/>
-      <c r="B8" s="93"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="39"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="96"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="51" t="s">
         <v>142</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="96" t="s">
+      <c r="F9" s="54" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="10"/>
-      <c r="B10" s="88"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="35"/>
-      <c r="D10" s="94">
+      <c r="D10" s="52">
         <v>1</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="F10" s="96" t="s">
+      <c r="F10" s="54" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="10"/>
-      <c r="B11" s="88"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="35"/>
-      <c r="D11" s="94">
+      <c r="D11" s="52">
         <v>2</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="53" t="s">
         <v>174</v>
       </c>
       <c r="F11" s="40" t="s">
@@ -3068,12 +3040,12 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="10"/>
-      <c r="B12" s="89"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="34"/>
-      <c r="D12" s="94">
+      <c r="D12" s="52">
         <v>3</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="53" t="s">
         <v>184</v>
       </c>
       <c r="F12" s="40" t="s">
@@ -3082,12 +3054,12 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="10"/>
-      <c r="B13" s="88"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="35"/>
-      <c r="D13" s="94">
+      <c r="D13" s="52">
         <v>4</v>
       </c>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="53" t="s">
         <v>106</v>
       </c>
       <c r="F13" s="40" t="s">
@@ -3096,50 +3068,50 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="10"/>
-      <c r="B14" s="88"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="35"/>
-      <c r="D14" s="94" t="s">
+      <c r="D14" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="95" t="s">
+      <c r="E14" s="53" t="s">
         <v>176</v>
       </c>
       <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="10"/>
-      <c r="B15" s="88"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="35"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="46" t="s">
         <v>142</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="94" t="s">
+      <c r="D16" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="95" t="s">
+      <c r="E16" s="53" t="s">
         <v>179</v>
       </c>
       <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="10"/>
-      <c r="B17" s="88"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="35"/>
-      <c r="D17" s="94">
+      <c r="D17" s="52">
         <v>1</v>
       </c>
-      <c r="E17" s="95" t="s">
+      <c r="E17" s="53" t="s">
         <v>180</v>
       </c>
       <c r="F17" s="40" t="s">
@@ -3148,12 +3120,12 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10"/>
-      <c r="B18" s="88"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="35"/>
-      <c r="D18" s="94">
+      <c r="D18" s="52">
         <v>2</v>
       </c>
-      <c r="E18" s="95" t="s">
+      <c r="E18" s="53" t="s">
         <v>187</v>
       </c>
       <c r="F18" s="40" t="s">
@@ -3162,12 +3134,12 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="10"/>
-      <c r="B19" s="88"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="35"/>
-      <c r="D19" s="94">
+      <c r="D19" s="52">
         <v>3</v>
       </c>
-      <c r="E19" s="95" t="s">
+      <c r="E19" s="53" t="s">
         <v>189</v>
       </c>
       <c r="F19" s="40" t="s">
@@ -3176,12 +3148,12 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="10"/>
-      <c r="B20" s="88"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="35"/>
-      <c r="D20" s="94">
+      <c r="D20" s="52">
         <v>4</v>
       </c>
-      <c r="E20" s="95" t="s">
+      <c r="E20" s="53" t="s">
         <v>191</v>
       </c>
       <c r="F20" s="40" t="s">
@@ -3190,12 +3162,12 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="10"/>
-      <c r="B21" s="88"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="35"/>
-      <c r="D21" s="94">
+      <c r="D21" s="52">
         <v>5</v>
       </c>
-      <c r="E21" s="95" t="s">
+      <c r="E21" s="53" t="s">
         <v>193</v>
       </c>
       <c r="F21" s="40" t="s">
@@ -3204,50 +3176,50 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="10"/>
-      <c r="B22" s="88"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="35"/>
-      <c r="D22" s="94" t="s">
+      <c r="D22" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="E22" s="95" t="s">
+      <c r="E22" s="53" t="s">
         <v>195</v>
       </c>
       <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="10"/>
-      <c r="B23" s="88"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="35"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="95"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
       <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="46" t="s">
         <v>196</v>
       </c>
       <c r="C24" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="D24" s="94" t="s">
+      <c r="D24" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="E24" s="95" t="s">
+      <c r="E24" s="53" t="s">
         <v>200</v>
       </c>
       <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="10"/>
-      <c r="B25" s="88"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="35"/>
-      <c r="D25" s="94">
+      <c r="D25" s="52">
         <v>1</v>
       </c>
-      <c r="E25" s="95" t="s">
+      <c r="E25" s="53" t="s">
         <v>201</v>
       </c>
       <c r="F25" s="40" t="s">
@@ -3256,12 +3228,12 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="10"/>
-      <c r="B26" s="88"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="35"/>
-      <c r="D26" s="94">
+      <c r="D26" s="52">
         <v>2</v>
       </c>
-      <c r="E26" s="95" t="s">
+      <c r="E26" s="53" t="s">
         <v>203</v>
       </c>
       <c r="F26" s="40" t="s">
@@ -3270,12 +3242,12 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="10"/>
-      <c r="B27" s="88"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="35"/>
-      <c r="D27" s="94">
+      <c r="D27" s="52">
         <v>3</v>
       </c>
-      <c r="E27" s="95" t="s">
+      <c r="E27" s="53" t="s">
         <v>205</v>
       </c>
       <c r="F27" s="40" t="s">
@@ -3284,12 +3256,12 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="10"/>
-      <c r="B28" s="88"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="35"/>
-      <c r="D28" s="94">
+      <c r="D28" s="52">
         <v>4</v>
       </c>
-      <c r="E28" s="95" t="s">
+      <c r="E28" s="53" t="s">
         <v>207</v>
       </c>
       <c r="F28" s="40" t="s">
@@ -3298,50 +3270,50 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="10"/>
-      <c r="B29" s="88"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="35"/>
-      <c r="D29" s="94" t="s">
+      <c r="D29" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="E29" s="95" t="s">
+      <c r="E29" s="53" t="s">
         <v>209</v>
       </c>
       <c r="F29" s="40"/>
     </row>
     <row r="30" spans="1:6" ht="14" customHeight="1">
       <c r="A30" s="10"/>
-      <c r="B30" s="88"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="35"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="95"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="53"/>
       <c r="F30" s="40"/>
     </row>
     <row r="31" spans="1:6" ht="35" customHeight="1">
       <c r="A31" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="46" t="s">
         <v>140</v>
       </c>
       <c r="C31" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="D31" s="94" t="s">
+      <c r="D31" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="E31" s="95" t="s">
+      <c r="E31" s="53" t="s">
         <v>212</v>
       </c>
       <c r="F31" s="40"/>
     </row>
     <row r="32" spans="1:6" ht="14" customHeight="1">
       <c r="A32" s="10"/>
-      <c r="B32" s="88"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="35"/>
-      <c r="D32" s="94">
+      <c r="D32" s="52">
         <v>1</v>
       </c>
-      <c r="E32" s="95" t="s">
+      <c r="E32" s="53" t="s">
         <v>213</v>
       </c>
       <c r="F32" s="40" t="s">
@@ -3350,12 +3322,12 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="10"/>
-      <c r="B33" s="88"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="35"/>
-      <c r="D33" s="94">
+      <c r="D33" s="52">
         <v>2</v>
       </c>
-      <c r="E33" s="95" t="s">
+      <c r="E33" s="53" t="s">
         <v>215</v>
       </c>
       <c r="F33" s="40" t="s">
@@ -3364,12 +3336,12 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="10"/>
-      <c r="B34" s="88"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="35"/>
-      <c r="D34" s="94">
+      <c r="D34" s="52">
         <v>3</v>
       </c>
-      <c r="E34" s="95" t="s">
+      <c r="E34" s="53" t="s">
         <v>217</v>
       </c>
       <c r="F34" s="40" t="s">
@@ -3378,12 +3350,12 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="10"/>
-      <c r="B35" s="88"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="35"/>
-      <c r="D35" s="94">
+      <c r="D35" s="52">
         <v>4</v>
       </c>
-      <c r="E35" s="95" t="s">
+      <c r="E35" s="53" t="s">
         <v>220</v>
       </c>
       <c r="F35" s="40" t="s">
@@ -3392,50 +3364,50 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="10"/>
-      <c r="B36" s="88"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="35"/>
-      <c r="D36" s="94" t="s">
+      <c r="D36" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="E36" s="95" t="s">
+      <c r="E36" s="53" t="s">
         <v>222</v>
       </c>
       <c r="F36" s="40"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="10"/>
-      <c r="B37" s="88"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="35"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="95"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="53"/>
       <c r="F37" s="40"/>
     </row>
     <row r="38" spans="1:6" ht="35" customHeight="1">
       <c r="A38" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="46" t="s">
         <v>210</v>
       </c>
       <c r="C38" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="D38" s="94" t="s">
+      <c r="D38" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="E38" s="95" t="s">
+      <c r="E38" s="53" t="s">
         <v>224</v>
       </c>
       <c r="F38" s="40"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="10"/>
-      <c r="B39" s="88"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="35"/>
-      <c r="D39" s="94">
+      <c r="D39" s="52">
         <v>1</v>
       </c>
-      <c r="E39" s="95" t="s">
+      <c r="E39" s="53" t="s">
         <v>227</v>
       </c>
       <c r="F39" s="40" t="s">
@@ -3444,12 +3416,12 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="10"/>
-      <c r="B40" s="88"/>
+      <c r="B40" s="46"/>
       <c r="C40" s="35"/>
-      <c r="D40" s="94">
+      <c r="D40" s="52">
         <v>2</v>
       </c>
-      <c r="E40" s="95" t="s">
+      <c r="E40" s="53" t="s">
         <v>189</v>
       </c>
       <c r="F40" s="40" t="s">
@@ -3458,12 +3430,12 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="10"/>
-      <c r="B41" s="88"/>
+      <c r="B41" s="46"/>
       <c r="C41" s="35"/>
-      <c r="D41" s="94">
+      <c r="D41" s="52">
         <v>3</v>
       </c>
-      <c r="E41" s="95" t="s">
+      <c r="E41" s="53" t="s">
         <v>228</v>
       </c>
       <c r="F41" s="40" t="s">
@@ -3472,12 +3444,12 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="10"/>
-      <c r="B42" s="88"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="35"/>
-      <c r="D42" s="94">
+      <c r="D42" s="52">
         <v>4</v>
       </c>
-      <c r="E42" s="95" t="s">
+      <c r="E42" s="53" t="s">
         <v>230</v>
       </c>
       <c r="F42" s="40" t="s">
@@ -3486,12 +3458,12 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="10"/>
-      <c r="B43" s="88"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="35"/>
-      <c r="D43" s="94">
+      <c r="D43" s="52">
         <v>5</v>
       </c>
-      <c r="E43" s="95" t="s">
+      <c r="E43" s="53" t="s">
         <v>232</v>
       </c>
       <c r="F43" s="40" t="s">
@@ -3500,50 +3472,50 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="10"/>
-      <c r="B44" s="88"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="35"/>
-      <c r="D44" s="94" t="s">
+      <c r="D44" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="E44" s="95" t="s">
+      <c r="E44" s="53" t="s">
         <v>234</v>
       </c>
       <c r="F44" s="40"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="10"/>
-      <c r="B45" s="88"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="35"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="95"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="53"/>
       <c r="F45" s="40"/>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1">
       <c r="A46" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B46" s="88" t="s">
+      <c r="B46" s="46" t="s">
         <v>210</v>
       </c>
       <c r="C46" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="D46" s="94" t="s">
+      <c r="D46" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="E46" s="95" t="s">
+      <c r="E46" s="53" t="s">
         <v>224</v>
       </c>
       <c r="F46" s="40"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="10"/>
-      <c r="B47" s="88"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="35"/>
-      <c r="D47" s="94">
+      <c r="D47" s="52">
         <v>1</v>
       </c>
-      <c r="E47" s="95" t="s">
+      <c r="E47" s="53" t="s">
         <v>180</v>
       </c>
       <c r="F47" s="40" t="s">
@@ -3552,12 +3524,12 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="10"/>
-      <c r="B48" s="88"/>
+      <c r="B48" s="46"/>
       <c r="C48" s="35"/>
-      <c r="D48" s="94">
+      <c r="D48" s="52">
         <v>2</v>
       </c>
-      <c r="E48" s="95" t="s">
+      <c r="E48" s="53" t="s">
         <v>187</v>
       </c>
       <c r="F48" s="40" t="s">
@@ -3566,12 +3538,12 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="10"/>
-      <c r="B49" s="88"/>
+      <c r="B49" s="46"/>
       <c r="C49" s="35"/>
-      <c r="D49" s="94">
+      <c r="D49" s="52">
         <v>3</v>
       </c>
-      <c r="E49" s="95" t="s">
+      <c r="E49" s="53" t="s">
         <v>189</v>
       </c>
       <c r="F49" s="40" t="s">
@@ -3580,12 +3552,12 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="10"/>
-      <c r="B50" s="88"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="35"/>
-      <c r="D50" s="94">
+      <c r="D50" s="52">
         <v>4</v>
       </c>
-      <c r="E50" s="95" t="s">
+      <c r="E50" s="53" t="s">
         <v>236</v>
       </c>
       <c r="F50" s="40" t="s">
@@ -3594,12 +3566,12 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="10"/>
-      <c r="B51" s="88"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="35"/>
-      <c r="D51" s="94">
+      <c r="D51" s="52">
         <v>5</v>
       </c>
-      <c r="E51" s="95" t="s">
+      <c r="E51" s="53" t="s">
         <v>230</v>
       </c>
       <c r="F51" s="40" t="s">
@@ -3608,12 +3580,12 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="10"/>
-      <c r="B52" s="88"/>
+      <c r="B52" s="46"/>
       <c r="C52" s="35"/>
-      <c r="D52" s="94">
+      <c r="D52" s="52">
         <v>6</v>
       </c>
-      <c r="E52" s="95" t="s">
+      <c r="E52" s="53" t="s">
         <v>239</v>
       </c>
       <c r="F52" s="40" t="s">
@@ -3622,50 +3594,50 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="10"/>
-      <c r="B53" s="88"/>
+      <c r="B53" s="46"/>
       <c r="C53" s="35"/>
-      <c r="D53" s="94" t="s">
+      <c r="D53" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="E53" s="95" t="s">
+      <c r="E53" s="53" t="s">
         <v>241</v>
       </c>
       <c r="F53" s="40"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="10"/>
-      <c r="B54" s="88"/>
+      <c r="B54" s="46"/>
       <c r="C54" s="35"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="95"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="53"/>
       <c r="F54" s="40"/>
     </row>
     <row r="55" spans="1:6" s="38" customFormat="1" ht="43" customHeight="1">
       <c r="A55" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B55" s="88" t="s">
+      <c r="B55" s="46" t="s">
         <v>210</v>
       </c>
       <c r="C55" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="D55" s="94" t="s">
+      <c r="D55" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="E55" s="95" t="s">
+      <c r="E55" s="53" t="s">
         <v>243</v>
       </c>
       <c r="F55" s="40"/>
     </row>
     <row r="56" spans="1:6" s="38" customFormat="1">
       <c r="A56" s="10"/>
-      <c r="B56" s="88"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="35"/>
-      <c r="D56" s="94">
+      <c r="D56" s="52">
         <v>1</v>
       </c>
-      <c r="E56" s="95" t="s">
+      <c r="E56" s="53" t="s">
         <v>244</v>
       </c>
       <c r="F56" s="40" t="s">
@@ -3674,12 +3646,12 @@
     </row>
     <row r="57" spans="1:6" s="38" customFormat="1">
       <c r="A57" s="10"/>
-      <c r="B57" s="88"/>
+      <c r="B57" s="46"/>
       <c r="C57" s="35"/>
-      <c r="D57" s="94">
+      <c r="D57" s="52">
         <v>2</v>
       </c>
-      <c r="E57" s="95" t="s">
+      <c r="E57" s="53" t="s">
         <v>246</v>
       </c>
       <c r="F57" s="40" t="s">
@@ -3688,12 +3660,12 @@
     </row>
     <row r="58" spans="1:6" s="38" customFormat="1">
       <c r="A58" s="10"/>
-      <c r="B58" s="88"/>
+      <c r="B58" s="46"/>
       <c r="C58" s="35"/>
-      <c r="D58" s="94">
+      <c r="D58" s="52">
         <v>3</v>
       </c>
-      <c r="E58" s="95" t="s">
+      <c r="E58" s="53" t="s">
         <v>248</v>
       </c>
       <c r="F58" s="40" t="s">
@@ -3702,12 +3674,12 @@
     </row>
     <row r="59" spans="1:6" s="38" customFormat="1">
       <c r="A59" s="10"/>
-      <c r="B59" s="88"/>
+      <c r="B59" s="46"/>
       <c r="C59" s="35"/>
-      <c r="D59" s="94">
+      <c r="D59" s="52">
         <v>4</v>
       </c>
-      <c r="E59" s="95" t="s">
+      <c r="E59" s="53" t="s">
         <v>250</v>
       </c>
       <c r="F59" s="40" t="s">
@@ -3716,215 +3688,215 @@
     </row>
     <row r="60" spans="1:6" s="38" customFormat="1">
       <c r="A60" s="10"/>
-      <c r="B60" s="88"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="35"/>
-      <c r="D60" s="94" t="s">
+      <c r="D60" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="E60" s="95" t="s">
+      <c r="E60" s="53" t="s">
         <v>252</v>
       </c>
       <c r="F60" s="40"/>
     </row>
     <row r="61" spans="1:6" s="38" customFormat="1">
       <c r="A61" s="10"/>
-      <c r="B61" s="88"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="35"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="95"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="53"/>
       <c r="F61" s="40"/>
     </row>
     <row r="62" spans="1:6" s="38" customFormat="1" ht="36" customHeight="1">
       <c r="A62" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B62" s="88" t="s">
+      <c r="B62" s="46" t="s">
         <v>143</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="D62" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="D62" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="E62" s="95" t="s">
-        <v>268</v>
+      <c r="E62" s="53" t="s">
+        <v>267</v>
       </c>
       <c r="F62" s="40"/>
     </row>
     <row r="63" spans="1:6" s="38" customFormat="1">
       <c r="A63" s="10"/>
-      <c r="B63" s="88"/>
+      <c r="B63" s="46"/>
       <c r="C63" s="35"/>
-      <c r="D63" s="94">
+      <c r="D63" s="52">
         <v>1</v>
       </c>
-      <c r="E63" s="95" t="s">
+      <c r="E63" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="F63" s="40" t="s">
         <v>256</v>
-      </c>
-      <c r="F63" s="40" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="38" customFormat="1">
       <c r="A64" s="10"/>
-      <c r="B64" s="88"/>
+      <c r="B64" s="46"/>
       <c r="C64" s="35"/>
-      <c r="D64" s="94">
+      <c r="D64" s="52">
         <v>2</v>
       </c>
-      <c r="E64" s="95" t="s">
+      <c r="E64" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="F64" s="40" t="s">
         <v>258</v>
-      </c>
-      <c r="F64" s="40" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="38" customFormat="1">
       <c r="A65" s="10"/>
-      <c r="B65" s="88"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="35"/>
-      <c r="D65" s="94">
+      <c r="D65" s="52">
         <v>3</v>
       </c>
-      <c r="E65" s="95" t="s">
-        <v>260</v>
+      <c r="E65" s="53" t="s">
+        <v>259</v>
       </c>
       <c r="F65" s="40" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="112" customFormat="1" ht="28" customHeight="1">
+    <row r="66" spans="1:6" s="68" customFormat="1" ht="28" customHeight="1">
       <c r="A66" s="39"/>
       <c r="B66" s="35"/>
       <c r="C66" s="35"/>
-      <c r="D66" s="94">
+      <c r="D66" s="52">
         <v>4</v>
       </c>
-      <c r="E66" s="95" t="s">
+      <c r="E66" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="F66" s="40" t="s">
         <v>261</v>
-      </c>
-      <c r="F66" s="40" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="38" customFormat="1">
       <c r="A67" s="10"/>
-      <c r="B67" s="88"/>
+      <c r="B67" s="46"/>
       <c r="C67" s="35"/>
-      <c r="D67" s="94">
+      <c r="D67" s="52">
         <v>5</v>
       </c>
-      <c r="E67" s="95" t="s">
-        <v>264</v>
+      <c r="E67" s="53" t="s">
+        <v>263</v>
       </c>
       <c r="F67" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="38" customFormat="1" ht="28">
       <c r="A68" s="10"/>
-      <c r="B68" s="88"/>
+      <c r="B68" s="46"/>
       <c r="C68" s="35"/>
-      <c r="D68" s="94">
+      <c r="D68" s="52">
         <v>6</v>
       </c>
-      <c r="E68" s="95" t="s">
-        <v>269</v>
+      <c r="E68" s="53" t="s">
+        <v>268</v>
       </c>
       <c r="F68" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="38" customFormat="1">
       <c r="A69" s="10"/>
-      <c r="B69" s="88"/>
+      <c r="B69" s="46"/>
       <c r="C69" s="35"/>
-      <c r="D69" s="94">
+      <c r="D69" s="52">
         <v>7</v>
       </c>
-      <c r="E69" s="95" t="s">
-        <v>267</v>
+      <c r="E69" s="53" t="s">
+        <v>266</v>
       </c>
       <c r="F69" s="40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="38" customFormat="1">
       <c r="A70" s="10"/>
-      <c r="B70" s="88"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="35"/>
-      <c r="D70" s="94" t="s">
+      <c r="D70" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="E70" s="95" t="s">
-        <v>270</v>
+      <c r="E70" s="53" t="s">
+        <v>269</v>
       </c>
       <c r="F70" s="40"/>
     </row>
     <row r="71" spans="1:6" s="38" customFormat="1">
       <c r="A71" s="10"/>
-      <c r="B71" s="88"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="35"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="95"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="53"/>
       <c r="F71" s="40"/>
     </row>
     <row r="72" spans="1:6" s="38" customFormat="1" ht="53" customHeight="1">
       <c r="A72" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B72" s="88" t="s">
-        <v>196</v>
+        <v>278</v>
+      </c>
+      <c r="B72" s="46" t="s">
+        <v>143</v>
       </c>
       <c r="C72" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="D72" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="E72" s="53" t="s">
         <v>271</v>
-      </c>
-      <c r="D72" s="94" t="s">
-        <v>159</v>
-      </c>
-      <c r="E72" s="95" t="s">
-        <v>272</v>
       </c>
       <c r="F72" s="40"/>
     </row>
     <row r="73" spans="1:6" s="38" customFormat="1">
       <c r="A73" s="10"/>
-      <c r="B73" s="88"/>
+      <c r="B73" s="46"/>
       <c r="C73" s="35"/>
-      <c r="D73" s="94">
+      <c r="D73" s="52">
         <v>1</v>
       </c>
-      <c r="E73" s="95" t="s">
+      <c r="E73" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="F73" s="40" t="s">
         <v>256</v>
-      </c>
-      <c r="F73" s="40" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="38" customFormat="1">
       <c r="A74" s="10"/>
-      <c r="B74" s="88"/>
+      <c r="B74" s="46"/>
       <c r="C74" s="35"/>
-      <c r="D74" s="94">
+      <c r="D74" s="52">
         <v>2</v>
       </c>
-      <c r="E74" s="95" t="s">
+      <c r="E74" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="F74" s="40" t="s">
         <v>258</v>
-      </c>
-      <c r="F74" s="40" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="38" customFormat="1">
       <c r="A75" s="10"/>
-      <c r="B75" s="88"/>
+      <c r="B75" s="46"/>
       <c r="C75" s="35"/>
-      <c r="D75" s="94">
+      <c r="D75" s="52">
         <v>3</v>
       </c>
-      <c r="E75" s="95" t="s">
-        <v>260</v>
+      <c r="E75" s="53" t="s">
+        <v>259</v>
       </c>
       <c r="F75" s="40" t="s">
         <v>237</v>
@@ -3932,1208 +3904,1208 @@
     </row>
     <row r="76" spans="1:6" s="38" customFormat="1" ht="28">
       <c r="A76" s="10"/>
-      <c r="B76" s="88"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="35"/>
-      <c r="D76" s="94">
+      <c r="D76" s="52">
         <v>4</v>
       </c>
-      <c r="E76" s="95" t="s">
+      <c r="E76" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="F76" s="40" t="s">
         <v>273</v>
-      </c>
-      <c r="F76" s="40" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="38" customFormat="1" ht="28">
       <c r="A77" s="10"/>
-      <c r="B77" s="88"/>
+      <c r="B77" s="46"/>
       <c r="C77" s="35"/>
-      <c r="D77" s="94">
+      <c r="D77" s="52">
         <v>5</v>
       </c>
-      <c r="E77" s="95" t="s">
+      <c r="E77" s="53" t="s">
+        <v>274</v>
+      </c>
+      <c r="F77" s="40" t="s">
         <v>275</v>
-      </c>
-      <c r="F77" s="40" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="38" customFormat="1" ht="28">
       <c r="A78" s="10"/>
-      <c r="B78" s="88"/>
+      <c r="B78" s="46"/>
       <c r="C78" s="35"/>
-      <c r="D78" s="94">
+      <c r="D78" s="52">
         <v>6</v>
       </c>
-      <c r="E78" s="95" t="s">
-        <v>269</v>
+      <c r="E78" s="53" t="s">
+        <v>268</v>
       </c>
       <c r="F78" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="38" customFormat="1" ht="28">
       <c r="A79" s="10"/>
-      <c r="B79" s="88"/>
+      <c r="B79" s="46"/>
       <c r="C79" s="35"/>
-      <c r="D79" s="94">
+      <c r="D79" s="52">
         <v>7</v>
       </c>
-      <c r="E79" s="95" t="s">
-        <v>277</v>
+      <c r="E79" s="53" t="s">
+        <v>276</v>
       </c>
       <c r="F79" s="40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="38" customFormat="1">
       <c r="A80" s="10"/>
-      <c r="B80" s="88"/>
+      <c r="B80" s="46"/>
       <c r="C80" s="35"/>
-      <c r="D80" s="94" t="s">
+      <c r="D80" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="E80" s="95" t="s">
-        <v>278</v>
+      <c r="E80" s="53" t="s">
+        <v>277</v>
       </c>
       <c r="F80" s="40"/>
     </row>
     <row r="81" spans="1:6" s="38" customFormat="1">
       <c r="A81" s="10"/>
-      <c r="B81" s="88"/>
+      <c r="B81" s="46"/>
       <c r="C81" s="35"/>
-      <c r="D81" s="94"/>
-      <c r="E81" s="95"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="53"/>
       <c r="F81" s="40"/>
     </row>
     <row r="82" spans="1:6" s="38" customFormat="1">
       <c r="A82" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B82" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="B82" s="88" t="s">
+      <c r="C82" s="35"/>
+      <c r="D82" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="E82" s="53" t="s">
         <v>281</v>
-      </c>
-      <c r="C82" s="35"/>
-      <c r="D82" s="94" t="s">
-        <v>159</v>
-      </c>
-      <c r="E82" s="95" t="s">
-        <v>282</v>
       </c>
       <c r="F82" s="40"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="10"/>
-      <c r="B83" s="88"/>
+      <c r="B83" s="46"/>
       <c r="C83" s="35"/>
-      <c r="D83" s="94">
+      <c r="D83" s="52">
         <v>1</v>
       </c>
-      <c r="E83" s="95" t="s">
+      <c r="E83" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="F83" s="40" t="s">
         <v>285</v>
-      </c>
-      <c r="F83" s="40" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="10"/>
-      <c r="B84" s="88"/>
+      <c r="B84" s="46"/>
       <c r="C84" s="35"/>
-      <c r="D84" s="94">
+      <c r="D84" s="52">
         <v>2</v>
       </c>
-      <c r="E84" s="95" t="s">
+      <c r="E84" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="F84" s="40" t="s">
         <v>287</v>
-      </c>
-      <c r="F84" s="40" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="10"/>
-      <c r="B85" s="88"/>
+      <c r="B85" s="46"/>
       <c r="C85" s="35"/>
-      <c r="D85" s="94">
+      <c r="D85" s="52">
         <v>3</v>
       </c>
-      <c r="E85" s="95" t="s">
+      <c r="E85" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="F85" s="40" t="s">
         <v>289</v>
-      </c>
-      <c r="F85" s="40" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="10"/>
-      <c r="B86" s="88"/>
+      <c r="B86" s="46"/>
       <c r="C86" s="35"/>
-      <c r="D86" s="94">
+      <c r="D86" s="52">
         <v>4</v>
       </c>
-      <c r="E86" s="95" t="s">
+      <c r="E86" s="53" t="s">
+        <v>290</v>
+      </c>
+      <c r="F86" s="40" t="s">
         <v>291</v>
-      </c>
-      <c r="F86" s="40" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="10"/>
-      <c r="B87" s="88"/>
+      <c r="B87" s="46"/>
       <c r="C87" s="35"/>
-      <c r="D87" s="94">
+      <c r="D87" s="52">
         <v>5</v>
       </c>
-      <c r="E87" s="95" t="s">
-        <v>287</v>
+      <c r="E87" s="53" t="s">
+        <v>286</v>
       </c>
       <c r="F87" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="38" customFormat="1">
       <c r="A88" s="10"/>
-      <c r="B88" s="88"/>
+      <c r="B88" s="46"/>
       <c r="C88" s="35"/>
-      <c r="D88" s="94">
+      <c r="D88" s="52">
         <v>6</v>
       </c>
-      <c r="E88" s="95" t="s">
-        <v>295</v>
+      <c r="E88" s="53" t="s">
+        <v>294</v>
       </c>
       <c r="F88" s="40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="38" customFormat="1" ht="28">
       <c r="A89" s="10"/>
-      <c r="B89" s="88"/>
+      <c r="B89" s="46"/>
       <c r="C89" s="35"/>
-      <c r="D89" s="94">
+      <c r="D89" s="52">
         <v>7</v>
       </c>
-      <c r="E89" s="95" t="s">
+      <c r="E89" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="F89" s="40" t="s">
         <v>296</v>
-      </c>
-      <c r="F89" s="40" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="38" customFormat="1">
       <c r="A90" s="10"/>
-      <c r="B90" s="88"/>
+      <c r="B90" s="46"/>
       <c r="C90" s="35"/>
-      <c r="D90" s="94">
+      <c r="D90" s="52">
         <v>8</v>
       </c>
-      <c r="E90" s="95" t="s">
-        <v>298</v>
+      <c r="E90" s="53" t="s">
+        <v>297</v>
       </c>
       <c r="F90" s="40"/>
     </row>
     <row r="91" spans="1:6" s="38" customFormat="1">
       <c r="A91" s="10"/>
-      <c r="B91" s="88"/>
+      <c r="B91" s="46"/>
       <c r="C91" s="35"/>
-      <c r="D91" s="94" t="s">
+      <c r="D91" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="E91" s="53" t="s">
         <v>299</v>
-      </c>
-      <c r="E91" s="95" t="s">
-        <v>300</v>
       </c>
       <c r="F91" s="40"/>
     </row>
     <row r="92" spans="1:6" s="38" customFormat="1">
       <c r="A92" s="10"/>
-      <c r="B92" s="88"/>
+      <c r="B92" s="46"/>
       <c r="C92" s="35"/>
-      <c r="D92" s="94"/>
-      <c r="E92" s="95"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="53"/>
       <c r="F92" s="40"/>
     </row>
     <row r="93" spans="1:6" s="38" customFormat="1">
       <c r="A93" s="10"/>
-      <c r="B93" s="88"/>
+      <c r="B93" s="46"/>
       <c r="C93" s="35"/>
-      <c r="D93" s="94"/>
-      <c r="E93" s="95"/>
+      <c r="D93" s="52"/>
+      <c r="E93" s="53"/>
       <c r="F93" s="40"/>
     </row>
     <row r="94" spans="1:6" s="38" customFormat="1">
       <c r="A94" s="10"/>
-      <c r="B94" s="88"/>
+      <c r="B94" s="46"/>
       <c r="C94" s="35"/>
-      <c r="D94" s="94"/>
-      <c r="E94" s="95"/>
+      <c r="D94" s="52"/>
+      <c r="E94" s="53"/>
       <c r="F94" s="40"/>
     </row>
     <row r="95" spans="1:6" s="38" customFormat="1">
       <c r="A95" s="10"/>
-      <c r="B95" s="88"/>
+      <c r="B95" s="46"/>
       <c r="C95" s="35"/>
-      <c r="D95" s="94"/>
-      <c r="E95" s="95"/>
+      <c r="D95" s="52"/>
+      <c r="E95" s="53"/>
       <c r="F95" s="40"/>
     </row>
     <row r="96" spans="1:6" s="38" customFormat="1">
       <c r="A96" s="10"/>
-      <c r="B96" s="88"/>
+      <c r="B96" s="46"/>
       <c r="C96" s="35"/>
-      <c r="D96" s="94"/>
-      <c r="E96" s="95"/>
+      <c r="D96" s="52"/>
+      <c r="E96" s="53"/>
       <c r="F96" s="40"/>
     </row>
     <row r="97" spans="1:6" s="38" customFormat="1">
       <c r="A97" s="10"/>
-      <c r="B97" s="88"/>
+      <c r="B97" s="46"/>
       <c r="C97" s="35"/>
-      <c r="D97" s="94"/>
-      <c r="E97" s="95"/>
+      <c r="D97" s="52"/>
+      <c r="E97" s="53"/>
       <c r="F97" s="40"/>
     </row>
     <row r="98" spans="1:6" s="38" customFormat="1">
       <c r="A98" s="10"/>
-      <c r="B98" s="88"/>
+      <c r="B98" s="46"/>
       <c r="C98" s="35"/>
-      <c r="D98" s="94"/>
-      <c r="E98" s="95"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="53"/>
       <c r="F98" s="40"/>
     </row>
     <row r="99" spans="1:6" s="38" customFormat="1">
       <c r="A99" s="10"/>
-      <c r="B99" s="88"/>
+      <c r="B99" s="46"/>
       <c r="C99" s="35"/>
-      <c r="D99" s="94"/>
-      <c r="E99" s="95"/>
+      <c r="D99" s="52"/>
+      <c r="E99" s="53"/>
       <c r="F99" s="40"/>
     </row>
     <row r="100" spans="1:6" s="38" customFormat="1">
       <c r="A100" s="10"/>
-      <c r="B100" s="88"/>
+      <c r="B100" s="46"/>
       <c r="C100" s="35"/>
-      <c r="D100" s="94"/>
-      <c r="E100" s="95"/>
+      <c r="D100" s="52"/>
+      <c r="E100" s="53"/>
       <c r="F100" s="40"/>
     </row>
     <row r="101" spans="1:6" s="38" customFormat="1">
       <c r="A101" s="10"/>
-      <c r="B101" s="88"/>
+      <c r="B101" s="46"/>
       <c r="C101" s="35"/>
-      <c r="D101" s="94"/>
-      <c r="E101" s="95"/>
+      <c r="D101" s="52"/>
+      <c r="E101" s="53"/>
       <c r="F101" s="40"/>
     </row>
     <row r="102" spans="1:6" s="38" customFormat="1">
       <c r="A102" s="10"/>
-      <c r="B102" s="88"/>
+      <c r="B102" s="46"/>
       <c r="C102" s="35"/>
-      <c r="D102" s="94"/>
-      <c r="E102" s="95"/>
+      <c r="D102" s="52"/>
+      <c r="E102" s="53"/>
       <c r="F102" s="40"/>
     </row>
     <row r="103" spans="1:6" s="38" customFormat="1">
       <c r="A103" s="10"/>
-      <c r="B103" s="88"/>
+      <c r="B103" s="46"/>
       <c r="C103" s="35"/>
-      <c r="D103" s="94"/>
-      <c r="E103" s="95"/>
+      <c r="D103" s="52"/>
+      <c r="E103" s="53"/>
       <c r="F103" s="40"/>
     </row>
     <row r="104" spans="1:6" s="38" customFormat="1">
       <c r="A104" s="10"/>
-      <c r="B104" s="88"/>
+      <c r="B104" s="46"/>
       <c r="C104" s="35"/>
-      <c r="D104" s="94"/>
-      <c r="E104" s="95"/>
+      <c r="D104" s="52"/>
+      <c r="E104" s="53"/>
       <c r="F104" s="40"/>
     </row>
     <row r="105" spans="1:6" s="38" customFormat="1">
       <c r="A105" s="10"/>
-      <c r="B105" s="88"/>
+      <c r="B105" s="46"/>
       <c r="C105" s="35"/>
-      <c r="D105" s="94"/>
-      <c r="E105" s="95"/>
+      <c r="D105" s="52"/>
+      <c r="E105" s="53"/>
       <c r="F105" s="40"/>
     </row>
     <row r="106" spans="1:6" s="38" customFormat="1">
       <c r="A106" s="10"/>
-      <c r="B106" s="88"/>
+      <c r="B106" s="46"/>
       <c r="C106" s="35"/>
-      <c r="D106" s="94"/>
-      <c r="E106" s="95"/>
+      <c r="D106" s="52"/>
+      <c r="E106" s="53"/>
       <c r="F106" s="40"/>
     </row>
     <row r="107" spans="1:6" s="38" customFormat="1">
       <c r="A107" s="10"/>
-      <c r="B107" s="88"/>
+      <c r="B107" s="46"/>
       <c r="C107" s="35"/>
-      <c r="D107" s="94"/>
-      <c r="E107" s="95"/>
+      <c r="D107" s="52"/>
+      <c r="E107" s="53"/>
       <c r="F107" s="40"/>
     </row>
     <row r="108" spans="1:6" s="38" customFormat="1">
       <c r="A108" s="10"/>
-      <c r="B108" s="88"/>
+      <c r="B108" s="46"/>
       <c r="C108" s="35"/>
-      <c r="D108" s="94"/>
-      <c r="E108" s="95"/>
+      <c r="D108" s="52"/>
+      <c r="E108" s="53"/>
       <c r="F108" s="40"/>
     </row>
     <row r="109" spans="1:6" s="38" customFormat="1">
       <c r="A109" s="10"/>
-      <c r="B109" s="88"/>
+      <c r="B109" s="46"/>
       <c r="C109" s="35"/>
-      <c r="D109" s="94"/>
-      <c r="E109" s="95"/>
+      <c r="D109" s="52"/>
+      <c r="E109" s="53"/>
       <c r="F109" s="40"/>
     </row>
     <row r="110" spans="1:6" s="38" customFormat="1">
       <c r="A110" s="10"/>
-      <c r="B110" s="88"/>
+      <c r="B110" s="46"/>
       <c r="C110" s="35"/>
-      <c r="D110" s="94"/>
-      <c r="E110" s="95"/>
+      <c r="D110" s="52"/>
+      <c r="E110" s="53"/>
       <c r="F110" s="40"/>
     </row>
     <row r="111" spans="1:6" s="38" customFormat="1">
       <c r="A111" s="10"/>
-      <c r="B111" s="88"/>
+      <c r="B111" s="46"/>
       <c r="C111" s="35"/>
-      <c r="D111" s="94"/>
-      <c r="E111" s="95"/>
+      <c r="D111" s="52"/>
+      <c r="E111" s="53"/>
       <c r="F111" s="40"/>
     </row>
     <row r="112" spans="1:6" s="38" customFormat="1">
       <c r="A112" s="10"/>
-      <c r="B112" s="88"/>
+      <c r="B112" s="46"/>
       <c r="C112" s="35"/>
-      <c r="D112" s="94"/>
-      <c r="E112" s="95"/>
+      <c r="D112" s="52"/>
+      <c r="E112" s="53"/>
       <c r="F112" s="40"/>
     </row>
     <row r="113" spans="1:6" s="38" customFormat="1">
       <c r="A113" s="10"/>
-      <c r="B113" s="88"/>
+      <c r="B113" s="46"/>
       <c r="C113" s="35"/>
-      <c r="D113" s="94"/>
-      <c r="E113" s="95"/>
+      <c r="D113" s="52"/>
+      <c r="E113" s="53"/>
       <c r="F113" s="40"/>
     </row>
     <row r="114" spans="1:6" s="38" customFormat="1">
       <c r="A114" s="10"/>
-      <c r="B114" s="88"/>
+      <c r="B114" s="46"/>
       <c r="C114" s="35"/>
-      <c r="D114" s="94"/>
-      <c r="E114" s="95"/>
+      <c r="D114" s="52"/>
+      <c r="E114" s="53"/>
       <c r="F114" s="40"/>
     </row>
     <row r="115" spans="1:6" s="38" customFormat="1">
       <c r="A115" s="10"/>
-      <c r="B115" s="88"/>
+      <c r="B115" s="46"/>
       <c r="C115" s="35"/>
-      <c r="D115" s="94"/>
-      <c r="E115" s="95"/>
+      <c r="D115" s="52"/>
+      <c r="E115" s="53"/>
       <c r="F115" s="40"/>
     </row>
     <row r="116" spans="1:6" s="38" customFormat="1">
       <c r="A116" s="10"/>
-      <c r="B116" s="88"/>
+      <c r="B116" s="46"/>
       <c r="C116" s="35"/>
-      <c r="D116" s="94"/>
-      <c r="E116" s="95"/>
+      <c r="D116" s="52"/>
+      <c r="E116" s="53"/>
       <c r="F116" s="40"/>
     </row>
     <row r="117" spans="1:6" s="38" customFormat="1">
       <c r="A117" s="10"/>
-      <c r="B117" s="88"/>
+      <c r="B117" s="46"/>
       <c r="C117" s="35"/>
-      <c r="D117" s="94"/>
-      <c r="E117" s="95"/>
+      <c r="D117" s="52"/>
+      <c r="E117" s="53"/>
       <c r="F117" s="40"/>
     </row>
     <row r="118" spans="1:6" s="38" customFormat="1">
       <c r="A118" s="10"/>
-      <c r="B118" s="88"/>
+      <c r="B118" s="46"/>
       <c r="C118" s="35"/>
-      <c r="D118" s="94"/>
-      <c r="E118" s="95"/>
+      <c r="D118" s="52"/>
+      <c r="E118" s="53"/>
       <c r="F118" s="40"/>
     </row>
     <row r="119" spans="1:6" s="38" customFormat="1">
       <c r="A119" s="10"/>
-      <c r="B119" s="88"/>
+      <c r="B119" s="46"/>
       <c r="C119" s="35"/>
-      <c r="D119" s="94"/>
-      <c r="E119" s="95"/>
+      <c r="D119" s="52"/>
+      <c r="E119" s="53"/>
       <c r="F119" s="40"/>
     </row>
     <row r="120" spans="1:6" s="38" customFormat="1">
       <c r="A120" s="10"/>
-      <c r="B120" s="88"/>
+      <c r="B120" s="46"/>
       <c r="C120" s="35"/>
-      <c r="D120" s="94"/>
-      <c r="E120" s="95"/>
+      <c r="D120" s="52"/>
+      <c r="E120" s="53"/>
       <c r="F120" s="40"/>
     </row>
     <row r="121" spans="1:6" s="38" customFormat="1">
       <c r="A121" s="10"/>
-      <c r="B121" s="88"/>
+      <c r="B121" s="46"/>
       <c r="C121" s="35"/>
-      <c r="D121" s="94"/>
-      <c r="E121" s="95"/>
+      <c r="D121" s="52"/>
+      <c r="E121" s="53"/>
       <c r="F121" s="40"/>
     </row>
     <row r="122" spans="1:6" s="38" customFormat="1">
       <c r="A122" s="10"/>
-      <c r="B122" s="88"/>
+      <c r="B122" s="46"/>
       <c r="C122" s="35"/>
-      <c r="D122" s="94"/>
-      <c r="E122" s="95"/>
+      <c r="D122" s="52"/>
+      <c r="E122" s="53"/>
       <c r="F122" s="40"/>
     </row>
     <row r="123" spans="1:6" s="38" customFormat="1">
       <c r="A123" s="10"/>
-      <c r="B123" s="88"/>
+      <c r="B123" s="46"/>
       <c r="C123" s="35"/>
-      <c r="D123" s="94"/>
-      <c r="E123" s="95"/>
+      <c r="D123" s="52"/>
+      <c r="E123" s="53"/>
       <c r="F123" s="40"/>
     </row>
     <row r="124" spans="1:6" s="38" customFormat="1">
       <c r="A124" s="10"/>
-      <c r="B124" s="88"/>
+      <c r="B124" s="46"/>
       <c r="C124" s="35"/>
-      <c r="D124" s="94"/>
-      <c r="E124" s="95"/>
+      <c r="D124" s="52"/>
+      <c r="E124" s="53"/>
       <c r="F124" s="40"/>
     </row>
     <row r="125" spans="1:6" s="38" customFormat="1">
       <c r="A125" s="10"/>
-      <c r="B125" s="88"/>
+      <c r="B125" s="46"/>
       <c r="C125" s="35"/>
-      <c r="D125" s="94"/>
-      <c r="E125" s="95"/>
+      <c r="D125" s="52"/>
+      <c r="E125" s="53"/>
       <c r="F125" s="40"/>
     </row>
     <row r="126" spans="1:6" s="38" customFormat="1">
       <c r="A126" s="10"/>
-      <c r="B126" s="88"/>
+      <c r="B126" s="46"/>
       <c r="C126" s="35"/>
-      <c r="D126" s="94"/>
-      <c r="E126" s="95"/>
+      <c r="D126" s="52"/>
+      <c r="E126" s="53"/>
       <c r="F126" s="40"/>
     </row>
     <row r="127" spans="1:6" s="38" customFormat="1">
       <c r="A127" s="10"/>
-      <c r="B127" s="88"/>
+      <c r="B127" s="46"/>
       <c r="C127" s="35"/>
-      <c r="D127" s="94"/>
-      <c r="E127" s="95"/>
+      <c r="D127" s="52"/>
+      <c r="E127" s="53"/>
       <c r="F127" s="40"/>
     </row>
     <row r="128" spans="1:6" s="38" customFormat="1">
       <c r="A128" s="10"/>
-      <c r="B128" s="88"/>
+      <c r="B128" s="46"/>
       <c r="C128" s="35"/>
-      <c r="D128" s="94"/>
-      <c r="E128" s="95"/>
+      <c r="D128" s="52"/>
+      <c r="E128" s="53"/>
       <c r="F128" s="40"/>
     </row>
     <row r="129" spans="1:6" s="38" customFormat="1">
       <c r="A129" s="10"/>
-      <c r="B129" s="88"/>
+      <c r="B129" s="46"/>
       <c r="C129" s="35"/>
-      <c r="D129" s="94"/>
-      <c r="E129" s="95"/>
+      <c r="D129" s="52"/>
+      <c r="E129" s="53"/>
       <c r="F129" s="40"/>
     </row>
     <row r="130" spans="1:6" s="38" customFormat="1">
       <c r="A130" s="10"/>
-      <c r="B130" s="88"/>
+      <c r="B130" s="46"/>
       <c r="C130" s="35"/>
-      <c r="D130" s="94"/>
-      <c r="E130" s="95"/>
+      <c r="D130" s="52"/>
+      <c r="E130" s="53"/>
       <c r="F130" s="40"/>
     </row>
     <row r="131" spans="1:6" s="38" customFormat="1">
       <c r="A131" s="10"/>
-      <c r="B131" s="88"/>
+      <c r="B131" s="46"/>
       <c r="C131" s="35"/>
-      <c r="D131" s="94"/>
-      <c r="E131" s="95"/>
+      <c r="D131" s="52"/>
+      <c r="E131" s="53"/>
       <c r="F131" s="40"/>
     </row>
     <row r="132" spans="1:6" s="38" customFormat="1">
       <c r="A132" s="10"/>
-      <c r="B132" s="88"/>
+      <c r="B132" s="46"/>
       <c r="C132" s="35"/>
-      <c r="D132" s="94"/>
-      <c r="E132" s="95"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="53"/>
       <c r="F132" s="40"/>
     </row>
     <row r="133" spans="1:6" s="38" customFormat="1">
       <c r="A133" s="10"/>
-      <c r="B133" s="88"/>
+      <c r="B133" s="46"/>
       <c r="C133" s="35"/>
-      <c r="D133" s="94"/>
-      <c r="E133" s="95"/>
+      <c r="D133" s="52"/>
+      <c r="E133" s="53"/>
       <c r="F133" s="40"/>
     </row>
     <row r="134" spans="1:6" s="38" customFormat="1">
       <c r="A134" s="10"/>
-      <c r="B134" s="88"/>
+      <c r="B134" s="46"/>
       <c r="C134" s="35"/>
-      <c r="D134" s="94"/>
-      <c r="E134" s="95"/>
+      <c r="D134" s="52"/>
+      <c r="E134" s="53"/>
       <c r="F134" s="40"/>
     </row>
     <row r="135" spans="1:6" s="38" customFormat="1">
       <c r="A135" s="10"/>
-      <c r="B135" s="88"/>
+      <c r="B135" s="46"/>
       <c r="C135" s="35"/>
-      <c r="D135" s="94"/>
-      <c r="E135" s="95"/>
+      <c r="D135" s="52"/>
+      <c r="E135" s="53"/>
       <c r="F135" s="40"/>
     </row>
     <row r="136" spans="1:6" s="38" customFormat="1">
       <c r="A136" s="10"/>
-      <c r="B136" s="88"/>
+      <c r="B136" s="46"/>
       <c r="C136" s="35"/>
-      <c r="D136" s="94"/>
-      <c r="E136" s="95"/>
+      <c r="D136" s="52"/>
+      <c r="E136" s="53"/>
       <c r="F136" s="40"/>
     </row>
     <row r="137" spans="1:6" s="38" customFormat="1">
       <c r="A137" s="10"/>
-      <c r="B137" s="88"/>
+      <c r="B137" s="46"/>
       <c r="C137" s="35"/>
-      <c r="D137" s="94"/>
-      <c r="E137" s="95"/>
+      <c r="D137" s="52"/>
+      <c r="E137" s="53"/>
       <c r="F137" s="40"/>
     </row>
     <row r="138" spans="1:6" s="38" customFormat="1">
       <c r="A138" s="10"/>
-      <c r="B138" s="88"/>
+      <c r="B138" s="46"/>
       <c r="C138" s="35"/>
-      <c r="D138" s="94"/>
-      <c r="E138" s="95"/>
+      <c r="D138" s="52"/>
+      <c r="E138" s="53"/>
       <c r="F138" s="40"/>
     </row>
     <row r="139" spans="1:6" s="38" customFormat="1">
       <c r="A139" s="10"/>
-      <c r="B139" s="88"/>
+      <c r="B139" s="46"/>
       <c r="C139" s="35"/>
-      <c r="D139" s="94"/>
-      <c r="E139" s="95"/>
+      <c r="D139" s="52"/>
+      <c r="E139" s="53"/>
       <c r="F139" s="40"/>
     </row>
     <row r="140" spans="1:6" s="38" customFormat="1">
       <c r="A140" s="10"/>
-      <c r="B140" s="88"/>
+      <c r="B140" s="46"/>
       <c r="C140" s="35"/>
-      <c r="D140" s="94"/>
-      <c r="E140" s="95"/>
+      <c r="D140" s="52"/>
+      <c r="E140" s="53"/>
       <c r="F140" s="40"/>
     </row>
     <row r="141" spans="1:6" s="38" customFormat="1">
       <c r="A141" s="10"/>
-      <c r="B141" s="88"/>
+      <c r="B141" s="46"/>
       <c r="C141" s="35"/>
-      <c r="D141" s="94"/>
-      <c r="E141" s="95"/>
+      <c r="D141" s="52"/>
+      <c r="E141" s="53"/>
       <c r="F141" s="40"/>
     </row>
     <row r="142" spans="1:6" s="38" customFormat="1">
       <c r="A142" s="10"/>
-      <c r="B142" s="88"/>
+      <c r="B142" s="46"/>
       <c r="C142" s="35"/>
-      <c r="D142" s="94"/>
-      <c r="E142" s="95"/>
+      <c r="D142" s="52"/>
+      <c r="E142" s="53"/>
       <c r="F142" s="40"/>
     </row>
     <row r="143" spans="1:6" s="38" customFormat="1">
       <c r="A143" s="10"/>
-      <c r="B143" s="88"/>
+      <c r="B143" s="46"/>
       <c r="C143" s="35"/>
-      <c r="D143" s="94"/>
-      <c r="E143" s="95"/>
+      <c r="D143" s="52"/>
+      <c r="E143" s="53"/>
       <c r="F143" s="40"/>
     </row>
     <row r="144" spans="1:6" s="38" customFormat="1">
       <c r="A144" s="10"/>
-      <c r="B144" s="88"/>
+      <c r="B144" s="46"/>
       <c r="C144" s="35"/>
-      <c r="D144" s="94"/>
-      <c r="E144" s="95"/>
+      <c r="D144" s="52"/>
+      <c r="E144" s="53"/>
       <c r="F144" s="40"/>
     </row>
     <row r="145" spans="1:6" s="38" customFormat="1">
       <c r="A145" s="10"/>
-      <c r="B145" s="88"/>
+      <c r="B145" s="46"/>
       <c r="C145" s="35"/>
-      <c r="D145" s="94"/>
-      <c r="E145" s="95"/>
+      <c r="D145" s="52"/>
+      <c r="E145" s="53"/>
       <c r="F145" s="40"/>
     </row>
     <row r="146" spans="1:6" s="38" customFormat="1">
       <c r="A146" s="10"/>
-      <c r="B146" s="88"/>
+      <c r="B146" s="46"/>
       <c r="C146" s="35"/>
-      <c r="D146" s="94"/>
-      <c r="E146" s="95"/>
+      <c r="D146" s="52"/>
+      <c r="E146" s="53"/>
       <c r="F146" s="40"/>
     </row>
     <row r="147" spans="1:6" s="38" customFormat="1">
       <c r="A147" s="10"/>
-      <c r="B147" s="88"/>
+      <c r="B147" s="46"/>
       <c r="C147" s="35"/>
-      <c r="D147" s="94"/>
-      <c r="E147" s="95"/>
+      <c r="D147" s="52"/>
+      <c r="E147" s="53"/>
       <c r="F147" s="40"/>
     </row>
     <row r="148" spans="1:6" s="38" customFormat="1">
       <c r="A148" s="10"/>
-      <c r="B148" s="88"/>
+      <c r="B148" s="46"/>
       <c r="C148" s="35"/>
-      <c r="D148" s="94"/>
-      <c r="E148" s="95"/>
+      <c r="D148" s="52"/>
+      <c r="E148" s="53"/>
       <c r="F148" s="40"/>
     </row>
     <row r="149" spans="1:6" s="38" customFormat="1">
       <c r="A149" s="10"/>
-      <c r="B149" s="88"/>
+      <c r="B149" s="46"/>
       <c r="C149" s="35"/>
-      <c r="D149" s="94"/>
-      <c r="E149" s="95"/>
+      <c r="D149" s="52"/>
+      <c r="E149" s="53"/>
       <c r="F149" s="40"/>
     </row>
     <row r="150" spans="1:6" s="38" customFormat="1">
       <c r="A150" s="10"/>
-      <c r="B150" s="88"/>
+      <c r="B150" s="46"/>
       <c r="C150" s="35"/>
-      <c r="D150" s="94"/>
-      <c r="E150" s="95"/>
+      <c r="D150" s="52"/>
+      <c r="E150" s="53"/>
       <c r="F150" s="40"/>
     </row>
     <row r="151" spans="1:6" s="38" customFormat="1">
       <c r="A151" s="10"/>
-      <c r="B151" s="88"/>
+      <c r="B151" s="46"/>
       <c r="C151" s="35"/>
-      <c r="D151" s="94"/>
-      <c r="E151" s="95"/>
+      <c r="D151" s="52"/>
+      <c r="E151" s="53"/>
       <c r="F151" s="40"/>
     </row>
     <row r="152" spans="1:6" s="38" customFormat="1">
       <c r="A152" s="10"/>
-      <c r="B152" s="88"/>
+      <c r="B152" s="46"/>
       <c r="C152" s="35"/>
-      <c r="D152" s="94"/>
-      <c r="E152" s="95"/>
+      <c r="D152" s="52"/>
+      <c r="E152" s="53"/>
       <c r="F152" s="40"/>
     </row>
     <row r="153" spans="1:6" s="38" customFormat="1">
       <c r="A153" s="10"/>
-      <c r="B153" s="88"/>
+      <c r="B153" s="46"/>
       <c r="C153" s="35"/>
-      <c r="D153" s="94"/>
-      <c r="E153" s="95"/>
+      <c r="D153" s="52"/>
+      <c r="E153" s="53"/>
       <c r="F153" s="40"/>
     </row>
     <row r="154" spans="1:6" s="38" customFormat="1">
       <c r="A154" s="10"/>
-      <c r="B154" s="88"/>
+      <c r="B154" s="46"/>
       <c r="C154" s="35"/>
-      <c r="D154" s="94"/>
-      <c r="E154" s="95"/>
+      <c r="D154" s="52"/>
+      <c r="E154" s="53"/>
       <c r="F154" s="40"/>
     </row>
     <row r="155" spans="1:6" s="38" customFormat="1">
       <c r="A155" s="10"/>
-      <c r="B155" s="88"/>
+      <c r="B155" s="46"/>
       <c r="C155" s="35"/>
-      <c r="D155" s="94"/>
-      <c r="E155" s="95"/>
+      <c r="D155" s="52"/>
+      <c r="E155" s="53"/>
       <c r="F155" s="40"/>
     </row>
     <row r="156" spans="1:6" s="38" customFormat="1">
       <c r="A156" s="10"/>
-      <c r="B156" s="88"/>
+      <c r="B156" s="46"/>
       <c r="C156" s="35"/>
-      <c r="D156" s="94"/>
-      <c r="E156" s="95"/>
+      <c r="D156" s="52"/>
+      <c r="E156" s="53"/>
       <c r="F156" s="40"/>
     </row>
     <row r="157" spans="1:6" s="38" customFormat="1">
       <c r="A157" s="10"/>
-      <c r="B157" s="88"/>
+      <c r="B157" s="46"/>
       <c r="C157" s="35"/>
-      <c r="D157" s="94"/>
-      <c r="E157" s="95"/>
+      <c r="D157" s="52"/>
+      <c r="E157" s="53"/>
       <c r="F157" s="40"/>
     </row>
     <row r="158" spans="1:6" s="38" customFormat="1">
       <c r="A158" s="10"/>
-      <c r="B158" s="88"/>
+      <c r="B158" s="46"/>
       <c r="C158" s="35"/>
-      <c r="D158" s="94"/>
-      <c r="E158" s="95"/>
+      <c r="D158" s="52"/>
+      <c r="E158" s="53"/>
       <c r="F158" s="40"/>
     </row>
     <row r="159" spans="1:6" s="38" customFormat="1">
       <c r="A159" s="10"/>
-      <c r="B159" s="88"/>
+      <c r="B159" s="46"/>
       <c r="C159" s="35"/>
-      <c r="D159" s="94"/>
-      <c r="E159" s="95"/>
+      <c r="D159" s="52"/>
+      <c r="E159" s="53"/>
       <c r="F159" s="40"/>
     </row>
     <row r="160" spans="1:6" s="38" customFormat="1">
       <c r="A160" s="10"/>
-      <c r="B160" s="88"/>
+      <c r="B160" s="46"/>
       <c r="C160" s="35"/>
-      <c r="D160" s="94"/>
-      <c r="E160" s="95"/>
+      <c r="D160" s="52"/>
+      <c r="E160" s="53"/>
       <c r="F160" s="40"/>
     </row>
     <row r="161" spans="1:6" s="38" customFormat="1">
       <c r="A161" s="10"/>
-      <c r="B161" s="88"/>
+      <c r="B161" s="46"/>
       <c r="C161" s="35"/>
-      <c r="D161" s="94"/>
-      <c r="E161" s="95"/>
+      <c r="D161" s="52"/>
+      <c r="E161" s="53"/>
       <c r="F161" s="40"/>
     </row>
     <row r="162" spans="1:6" s="38" customFormat="1">
       <c r="A162" s="10"/>
-      <c r="B162" s="88"/>
+      <c r="B162" s="46"/>
       <c r="C162" s="35"/>
-      <c r="D162" s="94"/>
-      <c r="E162" s="95"/>
+      <c r="D162" s="52"/>
+      <c r="E162" s="53"/>
       <c r="F162" s="40"/>
     </row>
     <row r="163" spans="1:6" s="38" customFormat="1">
       <c r="A163" s="10"/>
-      <c r="B163" s="88"/>
+      <c r="B163" s="46"/>
       <c r="C163" s="35"/>
-      <c r="D163" s="94"/>
-      <c r="E163" s="95"/>
+      <c r="D163" s="52"/>
+      <c r="E163" s="53"/>
       <c r="F163" s="40"/>
     </row>
     <row r="164" spans="1:6" s="38" customFormat="1">
       <c r="A164" s="10"/>
-      <c r="B164" s="88"/>
+      <c r="B164" s="46"/>
       <c r="C164" s="35"/>
-      <c r="D164" s="94"/>
-      <c r="E164" s="95"/>
+      <c r="D164" s="52"/>
+      <c r="E164" s="53"/>
       <c r="F164" s="40"/>
     </row>
     <row r="165" spans="1:6" s="38" customFormat="1">
       <c r="A165" s="10"/>
-      <c r="B165" s="88"/>
+      <c r="B165" s="46"/>
       <c r="C165" s="35"/>
-      <c r="D165" s="94"/>
-      <c r="E165" s="95"/>
+      <c r="D165" s="52"/>
+      <c r="E165" s="53"/>
       <c r="F165" s="40"/>
     </row>
     <row r="166" spans="1:6" s="38" customFormat="1">
       <c r="A166" s="10"/>
-      <c r="B166" s="88"/>
+      <c r="B166" s="46"/>
       <c r="C166" s="35"/>
-      <c r="D166" s="94"/>
-      <c r="E166" s="95"/>
+      <c r="D166" s="52"/>
+      <c r="E166" s="53"/>
       <c r="F166" s="40"/>
     </row>
     <row r="167" spans="1:6" s="38" customFormat="1">
       <c r="A167" s="10"/>
-      <c r="B167" s="88"/>
+      <c r="B167" s="46"/>
       <c r="C167" s="35"/>
-      <c r="D167" s="94"/>
-      <c r="E167" s="95"/>
+      <c r="D167" s="52"/>
+      <c r="E167" s="53"/>
       <c r="F167" s="40"/>
     </row>
     <row r="168" spans="1:6" s="38" customFormat="1">
       <c r="A168" s="10"/>
-      <c r="B168" s="88"/>
+      <c r="B168" s="46"/>
       <c r="C168" s="35"/>
-      <c r="D168" s="94"/>
-      <c r="E168" s="95"/>
+      <c r="D168" s="52"/>
+      <c r="E168" s="53"/>
       <c r="F168" s="40"/>
     </row>
     <row r="169" spans="1:6" s="38" customFormat="1">
       <c r="A169" s="10"/>
-      <c r="B169" s="88"/>
+      <c r="B169" s="46"/>
       <c r="C169" s="35"/>
-      <c r="D169" s="94"/>
-      <c r="E169" s="95"/>
+      <c r="D169" s="52"/>
+      <c r="E169" s="53"/>
       <c r="F169" s="40"/>
     </row>
     <row r="170" spans="1:6" s="38" customFormat="1">
       <c r="A170" s="10"/>
-      <c r="B170" s="88"/>
+      <c r="B170" s="46"/>
       <c r="C170" s="35"/>
-      <c r="D170" s="94"/>
-      <c r="E170" s="95"/>
+      <c r="D170" s="52"/>
+      <c r="E170" s="53"/>
       <c r="F170" s="40"/>
     </row>
     <row r="171" spans="1:6" s="38" customFormat="1">
       <c r="A171" s="10"/>
-      <c r="B171" s="88"/>
+      <c r="B171" s="46"/>
       <c r="C171" s="35"/>
-      <c r="D171" s="94"/>
-      <c r="E171" s="95"/>
+      <c r="D171" s="52"/>
+      <c r="E171" s="53"/>
       <c r="F171" s="40"/>
     </row>
     <row r="172" spans="1:6" s="38" customFormat="1">
       <c r="A172" s="10"/>
-      <c r="B172" s="88"/>
+      <c r="B172" s="46"/>
       <c r="C172" s="35"/>
-      <c r="D172" s="94"/>
-      <c r="E172" s="95"/>
+      <c r="D172" s="52"/>
+      <c r="E172" s="53"/>
       <c r="F172" s="40"/>
     </row>
     <row r="173" spans="1:6" s="38" customFormat="1">
       <c r="A173" s="10"/>
-      <c r="B173" s="88"/>
+      <c r="B173" s="46"/>
       <c r="C173" s="35"/>
-      <c r="D173" s="94"/>
-      <c r="E173" s="95"/>
+      <c r="D173" s="52"/>
+      <c r="E173" s="53"/>
       <c r="F173" s="40"/>
     </row>
     <row r="174" spans="1:6" s="38" customFormat="1">
       <c r="A174" s="10"/>
-      <c r="B174" s="88"/>
+      <c r="B174" s="46"/>
       <c r="C174" s="35"/>
-      <c r="D174" s="94"/>
-      <c r="E174" s="95"/>
+      <c r="D174" s="52"/>
+      <c r="E174" s="53"/>
       <c r="F174" s="40"/>
     </row>
     <row r="175" spans="1:6" s="38" customFormat="1">
       <c r="A175" s="10"/>
-      <c r="B175" s="88"/>
+      <c r="B175" s="46"/>
       <c r="C175" s="35"/>
-      <c r="D175" s="94"/>
-      <c r="E175" s="95"/>
+      <c r="D175" s="52"/>
+      <c r="E175" s="53"/>
       <c r="F175" s="40"/>
     </row>
     <row r="176" spans="1:6" s="38" customFormat="1">
       <c r="A176" s="10"/>
-      <c r="B176" s="88"/>
+      <c r="B176" s="46"/>
       <c r="C176" s="35"/>
-      <c r="D176" s="94"/>
-      <c r="E176" s="95"/>
+      <c r="D176" s="52"/>
+      <c r="E176" s="53"/>
       <c r="F176" s="40"/>
     </row>
     <row r="177" spans="1:6" s="38" customFormat="1">
       <c r="A177" s="10"/>
-      <c r="B177" s="88"/>
+      <c r="B177" s="46"/>
       <c r="C177" s="35"/>
-      <c r="D177" s="94"/>
-      <c r="E177" s="95"/>
+      <c r="D177" s="52"/>
+      <c r="E177" s="53"/>
       <c r="F177" s="40"/>
     </row>
     <row r="178" spans="1:6" s="38" customFormat="1">
       <c r="A178" s="10"/>
-      <c r="B178" s="88"/>
+      <c r="B178" s="46"/>
       <c r="C178" s="35"/>
-      <c r="D178" s="94"/>
-      <c r="E178" s="95"/>
+      <c r="D178" s="52"/>
+      <c r="E178" s="53"/>
       <c r="F178" s="40"/>
     </row>
     <row r="179" spans="1:6" s="38" customFormat="1">
       <c r="A179" s="10"/>
-      <c r="B179" s="88"/>
+      <c r="B179" s="46"/>
       <c r="C179" s="35"/>
-      <c r="D179" s="94"/>
-      <c r="E179" s="95"/>
+      <c r="D179" s="52"/>
+      <c r="E179" s="53"/>
       <c r="F179" s="40"/>
     </row>
     <row r="180" spans="1:6" s="38" customFormat="1">
       <c r="A180" s="10"/>
-      <c r="B180" s="88"/>
+      <c r="B180" s="46"/>
       <c r="C180" s="35"/>
-      <c r="D180" s="94"/>
-      <c r="E180" s="95"/>
+      <c r="D180" s="52"/>
+      <c r="E180" s="53"/>
       <c r="F180" s="40"/>
     </row>
     <row r="181" spans="1:6" s="38" customFormat="1">
       <c r="A181" s="10"/>
-      <c r="B181" s="88"/>
+      <c r="B181" s="46"/>
       <c r="C181" s="35"/>
-      <c r="D181" s="94"/>
-      <c r="E181" s="95"/>
+      <c r="D181" s="52"/>
+      <c r="E181" s="53"/>
       <c r="F181" s="40"/>
     </row>
     <row r="182" spans="1:6" s="38" customFormat="1">
       <c r="A182" s="10"/>
-      <c r="B182" s="88"/>
+      <c r="B182" s="46"/>
       <c r="C182" s="35"/>
-      <c r="D182" s="94"/>
-      <c r="E182" s="95"/>
+      <c r="D182" s="52"/>
+      <c r="E182" s="53"/>
       <c r="F182" s="40"/>
     </row>
     <row r="183" spans="1:6" s="38" customFormat="1">
       <c r="A183" s="10"/>
-      <c r="B183" s="88"/>
+      <c r="B183" s="46"/>
       <c r="C183" s="35"/>
-      <c r="D183" s="94"/>
-      <c r="E183" s="95"/>
+      <c r="D183" s="52"/>
+      <c r="E183" s="53"/>
       <c r="F183" s="40"/>
     </row>
     <row r="184" spans="1:6" s="38" customFormat="1">
       <c r="A184" s="10"/>
-      <c r="B184" s="88"/>
+      <c r="B184" s="46"/>
       <c r="C184" s="35"/>
-      <c r="D184" s="94"/>
-      <c r="E184" s="95"/>
+      <c r="D184" s="52"/>
+      <c r="E184" s="53"/>
       <c r="F184" s="40"/>
     </row>
     <row r="185" spans="1:6" s="38" customFormat="1">
       <c r="A185" s="10"/>
-      <c r="B185" s="88"/>
+      <c r="B185" s="46"/>
       <c r="C185" s="35"/>
-      <c r="D185" s="94"/>
-      <c r="E185" s="95"/>
+      <c r="D185" s="52"/>
+      <c r="E185" s="53"/>
       <c r="F185" s="40"/>
     </row>
     <row r="186" spans="1:6" s="38" customFormat="1">
       <c r="A186" s="10"/>
-      <c r="B186" s="88"/>
+      <c r="B186" s="46"/>
       <c r="C186" s="35"/>
-      <c r="D186" s="94"/>
-      <c r="E186" s="95"/>
+      <c r="D186" s="52"/>
+      <c r="E186" s="53"/>
       <c r="F186" s="40"/>
     </row>
     <row r="187" spans="1:6" s="38" customFormat="1">
       <c r="A187" s="10"/>
-      <c r="B187" s="88"/>
+      <c r="B187" s="46"/>
       <c r="C187" s="35"/>
-      <c r="D187" s="94"/>
-      <c r="E187" s="95"/>
+      <c r="D187" s="52"/>
+      <c r="E187" s="53"/>
       <c r="F187" s="40"/>
     </row>
     <row r="188" spans="1:6" s="38" customFormat="1">
       <c r="A188" s="10"/>
-      <c r="B188" s="88"/>
+      <c r="B188" s="46"/>
       <c r="C188" s="35"/>
-      <c r="D188" s="94"/>
-      <c r="E188" s="95"/>
+      <c r="D188" s="52"/>
+      <c r="E188" s="53"/>
       <c r="F188" s="40"/>
     </row>
     <row r="189" spans="1:6" s="38" customFormat="1">
       <c r="A189" s="10"/>
-      <c r="B189" s="88"/>
+      <c r="B189" s="46"/>
       <c r="C189" s="35"/>
-      <c r="D189" s="94"/>
-      <c r="E189" s="95"/>
+      <c r="D189" s="52"/>
+      <c r="E189" s="53"/>
       <c r="F189" s="40"/>
     </row>
     <row r="190" spans="1:6" s="38" customFormat="1">
       <c r="A190" s="10"/>
-      <c r="B190" s="88"/>
+      <c r="B190" s="46"/>
       <c r="C190" s="35"/>
-      <c r="D190" s="94"/>
-      <c r="E190" s="95"/>
+      <c r="D190" s="52"/>
+      <c r="E190" s="53"/>
       <c r="F190" s="40"/>
     </row>
     <row r="191" spans="1:6" s="38" customFormat="1">
       <c r="A191" s="10"/>
-      <c r="B191" s="88"/>
+      <c r="B191" s="46"/>
       <c r="C191" s="35"/>
-      <c r="D191" s="94"/>
-      <c r="E191" s="95"/>
+      <c r="D191" s="52"/>
+      <c r="E191" s="53"/>
       <c r="F191" s="40"/>
     </row>
     <row r="192" spans="1:6" s="38" customFormat="1">
       <c r="A192" s="10"/>
-      <c r="B192" s="88"/>
+      <c r="B192" s="46"/>
       <c r="C192" s="35"/>
-      <c r="D192" s="94"/>
-      <c r="E192" s="95"/>
+      <c r="D192" s="52"/>
+      <c r="E192" s="53"/>
       <c r="F192" s="40"/>
     </row>
     <row r="193" spans="1:6" s="38" customFormat="1">
       <c r="A193" s="10"/>
-      <c r="B193" s="88"/>
+      <c r="B193" s="46"/>
       <c r="C193" s="35"/>
-      <c r="D193" s="94"/>
-      <c r="E193" s="95"/>
+      <c r="D193" s="52"/>
+      <c r="E193" s="53"/>
       <c r="F193" s="40"/>
     </row>
     <row r="194" spans="1:6" s="38" customFormat="1">
       <c r="A194" s="10"/>
-      <c r="B194" s="88"/>
+      <c r="B194" s="46"/>
       <c r="C194" s="35"/>
-      <c r="D194" s="94"/>
-      <c r="E194" s="95"/>
+      <c r="D194" s="52"/>
+      <c r="E194" s="53"/>
       <c r="F194" s="40"/>
     </row>
     <row r="195" spans="1:6" s="38" customFormat="1">
       <c r="A195" s="10"/>
-      <c r="B195" s="88"/>
+      <c r="B195" s="46"/>
       <c r="C195" s="35"/>
-      <c r="D195" s="94"/>
-      <c r="E195" s="95"/>
+      <c r="D195" s="52"/>
+      <c r="E195" s="53"/>
       <c r="F195" s="40"/>
     </row>
     <row r="196" spans="1:6" s="38" customFormat="1">
       <c r="A196" s="10"/>
-      <c r="B196" s="88"/>
+      <c r="B196" s="46"/>
       <c r="C196" s="35"/>
-      <c r="D196" s="94"/>
-      <c r="E196" s="95"/>
+      <c r="D196" s="52"/>
+      <c r="E196" s="53"/>
       <c r="F196" s="40"/>
     </row>
     <row r="197" spans="1:6" s="38" customFormat="1">
       <c r="A197" s="10"/>
-      <c r="B197" s="88"/>
+      <c r="B197" s="46"/>
       <c r="C197" s="35"/>
-      <c r="D197" s="94"/>
-      <c r="E197" s="95"/>
+      <c r="D197" s="52"/>
+      <c r="E197" s="53"/>
       <c r="F197" s="40"/>
     </row>
     <row r="198" spans="1:6" s="38" customFormat="1">
       <c r="A198" s="10"/>
-      <c r="B198" s="88"/>
+      <c r="B198" s="46"/>
       <c r="C198" s="35"/>
-      <c r="D198" s="94"/>
-      <c r="E198" s="95"/>
+      <c r="D198" s="52"/>
+      <c r="E198" s="53"/>
       <c r="F198" s="40"/>
     </row>
     <row r="199" spans="1:6" s="38" customFormat="1">
       <c r="A199" s="10"/>
-      <c r="B199" s="88"/>
+      <c r="B199" s="46"/>
       <c r="C199" s="35"/>
-      <c r="D199" s="94"/>
-      <c r="E199" s="95"/>
+      <c r="D199" s="52"/>
+      <c r="E199" s="53"/>
       <c r="F199" s="40"/>
     </row>
     <row r="200" spans="1:6" s="38" customFormat="1">
       <c r="A200" s="10"/>
-      <c r="B200" s="88"/>
+      <c r="B200" s="46"/>
       <c r="C200" s="35"/>
-      <c r="D200" s="94"/>
-      <c r="E200" s="95"/>
+      <c r="D200" s="52"/>
+      <c r="E200" s="53"/>
       <c r="F200" s="40"/>
     </row>
     <row r="201" spans="1:6" s="38" customFormat="1">
       <c r="A201" s="10"/>
-      <c r="B201" s="88"/>
+      <c r="B201" s="46"/>
       <c r="C201" s="35"/>
-      <c r="D201" s="94"/>
-      <c r="E201" s="95"/>
+      <c r="D201" s="52"/>
+      <c r="E201" s="53"/>
       <c r="F201" s="40"/>
     </row>
     <row r="202" spans="1:6" s="38" customFormat="1">
       <c r="A202" s="10"/>
-      <c r="B202" s="88"/>
+      <c r="B202" s="46"/>
       <c r="C202" s="35"/>
-      <c r="D202" s="94"/>
-      <c r="E202" s="95"/>
+      <c r="D202" s="52"/>
+      <c r="E202" s="53"/>
       <c r="F202" s="40"/>
     </row>
     <row r="203" spans="1:6" s="38" customFormat="1">
       <c r="A203" s="10"/>
-      <c r="B203" s="88"/>
+      <c r="B203" s="46"/>
       <c r="C203" s="35"/>
-      <c r="D203" s="94"/>
-      <c r="E203" s="95"/>
+      <c r="D203" s="52"/>
+      <c r="E203" s="53"/>
       <c r="F203" s="40"/>
     </row>
     <row r="204" spans="1:6" s="38" customFormat="1">
       <c r="A204" s="10"/>
-      <c r="B204" s="88"/>
+      <c r="B204" s="46"/>
       <c r="C204" s="35"/>
-      <c r="D204" s="94"/>
-      <c r="E204" s="95"/>
+      <c r="D204" s="52"/>
+      <c r="E204" s="53"/>
       <c r="F204" s="40"/>
     </row>
     <row r="205" spans="1:6" s="38" customFormat="1">
       <c r="A205" s="10"/>
-      <c r="B205" s="88"/>
+      <c r="B205" s="46"/>
       <c r="C205" s="35"/>
-      <c r="D205" s="94"/>
-      <c r="E205" s="95"/>
+      <c r="D205" s="52"/>
+      <c r="E205" s="53"/>
       <c r="F205" s="40"/>
     </row>
     <row r="206" spans="1:6" s="38" customFormat="1">
       <c r="A206" s="10"/>
-      <c r="B206" s="88"/>
+      <c r="B206" s="46"/>
       <c r="C206" s="35"/>
-      <c r="D206" s="94"/>
-      <c r="E206" s="95"/>
+      <c r="D206" s="52"/>
+      <c r="E206" s="53"/>
       <c r="F206" s="40"/>
     </row>
     <row r="207" spans="1:6" s="38" customFormat="1">
       <c r="A207" s="10"/>
-      <c r="B207" s="88"/>
+      <c r="B207" s="46"/>
       <c r="C207" s="35"/>
-      <c r="D207" s="94"/>
-      <c r="E207" s="95"/>
+      <c r="D207" s="52"/>
+      <c r="E207" s="53"/>
       <c r="F207" s="40"/>
     </row>
     <row r="208" spans="1:6" s="38" customFormat="1">
       <c r="A208" s="10"/>
-      <c r="B208" s="88"/>
+      <c r="B208" s="46"/>
       <c r="C208" s="35"/>
-      <c r="D208" s="94"/>
-      <c r="E208" s="95"/>
+      <c r="D208" s="52"/>
+      <c r="E208" s="53"/>
       <c r="F208" s="40"/>
     </row>
     <row r="209" spans="1:6" s="38" customFormat="1">
       <c r="A209" s="10"/>
-      <c r="B209" s="88"/>
+      <c r="B209" s="46"/>
       <c r="C209" s="35"/>
-      <c r="D209" s="94"/>
-      <c r="E209" s="95"/>
+      <c r="D209" s="52"/>
+      <c r="E209" s="53"/>
       <c r="F209" s="40"/>
     </row>
     <row r="210" spans="1:6" s="38" customFormat="1">
       <c r="A210" s="10"/>
-      <c r="B210" s="88"/>
+      <c r="B210" s="46"/>
       <c r="C210" s="35"/>
-      <c r="D210" s="94"/>
-      <c r="E210" s="95"/>
+      <c r="D210" s="52"/>
+      <c r="E210" s="53"/>
       <c r="F210" s="40"/>
     </row>
     <row r="211" spans="1:6" s="38" customFormat="1">
       <c r="A211" s="10"/>
-      <c r="B211" s="88"/>
+      <c r="B211" s="46"/>
       <c r="C211" s="35"/>
-      <c r="D211" s="94"/>
-      <c r="E211" s="95"/>
+      <c r="D211" s="52"/>
+      <c r="E211" s="53"/>
       <c r="F211" s="40"/>
     </row>
     <row r="212" spans="1:6" s="38" customFormat="1">
       <c r="A212" s="10"/>
-      <c r="B212" s="88"/>
+      <c r="B212" s="46"/>
       <c r="C212" s="35"/>
-      <c r="D212" s="94"/>
-      <c r="E212" s="95"/>
+      <c r="D212" s="52"/>
+      <c r="E212" s="53"/>
       <c r="F212" s="40"/>
     </row>
     <row r="213" spans="1:6" s="38" customFormat="1">
       <c r="A213" s="10"/>
-      <c r="B213" s="88"/>
+      <c r="B213" s="46"/>
       <c r="C213" s="35"/>
-      <c r="D213" s="94"/>
-      <c r="E213" s="95"/>
+      <c r="D213" s="52"/>
+      <c r="E213" s="53"/>
       <c r="F213" s="40"/>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="10"/>
-      <c r="B214" s="88"/>
+      <c r="B214" s="46"/>
       <c r="C214" s="35"/>
-      <c r="D214" s="94"/>
-      <c r="E214" s="95"/>
+      <c r="D214" s="52"/>
+      <c r="E214" s="53"/>
       <c r="F214" s="40"/>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="10"/>
-      <c r="B215" s="88"/>
+      <c r="B215" s="46"/>
       <c r="C215" s="35"/>
-      <c r="D215" s="94"/>
-      <c r="E215" s="95"/>
+      <c r="D215" s="52"/>
+      <c r="E215" s="53"/>
       <c r="F215" s="40"/>
     </row>
     <row r="221" spans="1:6">
@@ -5233,10 +5205,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI1009"/>
+  <dimension ref="A1:AI1010"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -5394,139 +5366,139 @@
         <v>113</v>
       </c>
       <c r="B3" s="27">
-        <f>SUM(B4:B30)</f>
-        <v>38</v>
+        <f>SUM(B4:B31)</f>
+        <v>42</v>
       </c>
       <c r="C3" s="27">
-        <f>COUNTIF(C5:C30,"x")</f>
+        <f>COUNTIF(C5:C31,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="27">
+        <f>COUNTIF(D5:D31,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="E3" s="27">
+        <f>COUNTIF(E5:E31,"x")</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="27">
+        <f>COUNTIF(F5:F31,"x")</f>
         <v>2</v>
       </c>
-      <c r="D3" s="27">
-        <f>COUNTIF(D5:D30,"x")</f>
+      <c r="G3" s="27">
+        <f>COUNTIF(G5:G31,"x")</f>
         <v>2</v>
       </c>
-      <c r="E3" s="27">
-        <f>COUNTIF(E5:E30,"x")</f>
-        <v>3</v>
-      </c>
-      <c r="F3" s="27">
-        <f>COUNTIF(F5:F30,"x")</f>
+      <c r="H3" s="27">
+        <f>COUNTIF(H5:H31,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="27">
+        <f>COUNTIF(I5:I31,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="27">
+        <f>COUNTIF(J5:J31,"x")</f>
+        <v>4</v>
+      </c>
+      <c r="K3" s="27">
+        <f>COUNTIF(K5:K31,"x")</f>
+        <v>4</v>
+      </c>
+      <c r="L3" s="27">
+        <f>COUNTIF(L5:L31,"x")</f>
+        <v>4</v>
+      </c>
+      <c r="M3" s="27">
+        <f>COUNTIF(M5:M31,"x")</f>
+        <v>4</v>
+      </c>
+      <c r="N3" s="27">
+        <f>COUNTIF(N5:N31,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="27">
+        <f>COUNTIF(O5:O31,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="P3" s="27">
+        <f>COUNTIF(P5:P31,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="27">
+        <f>COUNTIF(Q5:Q31,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="R3" s="27">
+        <f>COUNTIF(R5:R31,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="27">
+        <f>COUNTIF(S5:S31,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="T3" s="27">
+        <f>COUNTIF(T5:T31,"x")</f>
         <v>2</v>
       </c>
-      <c r="G3" s="27">
-        <f>COUNTIF(G5:G30,"x")</f>
-        <v>2</v>
-      </c>
-      <c r="H3" s="27">
-        <f>COUNTIF(H5:H30,"x")</f>
+      <c r="U3" s="27">
+        <f>COUNTIF(U5:U31,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="27">
+        <f>COUNTIF(V5:V31,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="27">
+        <f>COUNTIF(W5:W31,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="27">
+        <f>COUNTIF(X5:X31,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="27">
+        <f>COUNTIF(Y5:Y31,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="27">
+        <f>COUNTIF(Z5:Z31,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="27">
+        <f>COUNTIF(AA5:AA31,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="27">
+        <f>COUNTIF(AB5:AB31,"x")</f>
         <v>1</v>
       </c>
-      <c r="I3" s="27">
-        <f>COUNTIF(I5:I30,"x")</f>
-        <v>2</v>
-      </c>
-      <c r="J3" s="27">
-        <f>COUNTIF(J5:J30,"x")</f>
-        <v>3</v>
-      </c>
-      <c r="K3" s="27">
-        <f>COUNTIF(K5:K30,"x")</f>
-        <v>3</v>
-      </c>
-      <c r="L3" s="27">
-        <f>COUNTIF(L5:L30,"x")</f>
-        <v>3</v>
-      </c>
-      <c r="M3" s="27">
-        <f>COUNTIF(M5:M30,"x")</f>
-        <v>3</v>
-      </c>
-      <c r="N3" s="27">
-        <f>COUNTIF(N5:N30,"x")</f>
-        <v>2</v>
-      </c>
-      <c r="O3" s="27">
-        <f>COUNTIF(O5:O30,"x")</f>
-        <v>2</v>
-      </c>
-      <c r="P3" s="27">
-        <f>COUNTIF(P5:P30,"x")</f>
+      <c r="AC3" s="27">
+        <f>COUNTIF(AC5:AC31,"x")</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="27">
-        <f>COUNTIF(Q5:Q30,"x")</f>
+      <c r="AD3" s="27">
+        <f>COUNTIF(AD5:AD31,"x")</f>
         <v>1</v>
       </c>
-      <c r="R3" s="27">
-        <f>COUNTIF(R5:R30,"x")</f>
+      <c r="AE3" s="27">
+        <f>COUNTIF(AE5:AE31,"x")</f>
         <v>0</v>
       </c>
-      <c r="S3" s="27">
-        <f>COUNTIF(S5:S30,"x")</f>
-        <v>3</v>
-      </c>
-      <c r="T3" s="27">
-        <f>COUNTIF(T5:T30,"x")</f>
+      <c r="AF3" s="27">
+        <f>COUNTIF(AF5:AF31,"x")</f>
         <v>0</v>
       </c>
-      <c r="U3" s="27">
-        <f>COUNTIF(U5:U30,"x")</f>
+      <c r="AG3" s="27">
+        <f>COUNTIF(AG5:AG31,"x")</f>
         <v>0</v>
       </c>
-      <c r="V3" s="27">
-        <f>COUNTIF(V5:V30,"x")</f>
+      <c r="AH3" s="27">
+        <f>COUNTIF(AH5:AH31,"x")</f>
         <v>0</v>
       </c>
-      <c r="W3" s="27">
-        <f>COUNTIF(W5:W30,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="27">
-        <f>COUNTIF(X5:X30,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="27">
-        <f>COUNTIF(Y5:Y30,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="27">
-        <f>COUNTIF(Z5:Z30,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="27">
-        <f>COUNTIF(AA5:AA30,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="27">
-        <f>COUNTIF(AB5:AB30,"x")</f>
-        <v>1</v>
-      </c>
-      <c r="AC3" s="27">
-        <f>COUNTIF(AC5:AC30,"x")</f>
-        <v>1</v>
-      </c>
-      <c r="AD3" s="27">
-        <f>COUNTIF(AD5:AD30,"x")</f>
-        <v>1</v>
-      </c>
-      <c r="AE3" s="27">
-        <f>COUNTIF(AE5:AE30,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="27">
-        <f>COUNTIF(AF5:AF30,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="27">
-        <f>COUNTIF(AG5:AG30,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="AH3" s="27">
-        <f>COUNTIF(AH5:AH30,"x")</f>
-        <v>0</v>
-      </c>
       <c r="AI3" s="27">
-        <f>COUNTIF(AI5:AI30,"x")</f>
+        <f>COUNTIF(AI5:AI31,"x")</f>
         <v>0</v>
       </c>
     </row>
@@ -5570,1172 +5542,1190 @@
       <c r="AI4" s="29"/>
     </row>
     <row r="5" spans="1:35" ht="14">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="99">
+      <c r="B5" s="57">
         <f>COUNTIF(C5:AI5,"x")</f>
         <v>2</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="100"/>
-      <c r="Y5" s="100"/>
-      <c r="Z5" s="100"/>
-      <c r="AA5" s="100"/>
-      <c r="AB5" s="100" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="58"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="AC5" s="100" t="s">
+      <c r="AC5" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="AD5" s="100"/>
-      <c r="AE5" s="100"/>
-      <c r="AF5" s="100"/>
-      <c r="AG5" s="100"/>
-      <c r="AH5" s="100"/>
-      <c r="AI5" s="100"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
     </row>
     <row r="6" spans="1:35" ht="14">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="99">
-        <f t="shared" ref="B6:B30" si="0">COUNTIF(C6:AI6,"x")</f>
-        <v>3</v>
-      </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100" t="s">
+      <c r="B6" s="57">
+        <f t="shared" ref="B6:B31" si="0">COUNTIF(C6:AI6,"x")</f>
+        <v>8</v>
+      </c>
+      <c r="C6" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100" t="s">
+      <c r="D6" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="O6" s="100" t="s">
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
-      <c r="Y6" s="100"/>
-      <c r="Z6" s="100"/>
-      <c r="AA6" s="100"/>
-      <c r="AB6" s="100"/>
-      <c r="AC6" s="100"/>
-      <c r="AD6" s="100"/>
-      <c r="AE6" s="100"/>
-      <c r="AF6" s="100"/>
-      <c r="AG6" s="100"/>
-      <c r="AH6" s="100"/>
-      <c r="AI6" s="100"/>
+      <c r="J6" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="L6" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="M6" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="N6" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="58"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="58"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="58"/>
+      <c r="AI6" s="58"/>
     </row>
     <row r="7" spans="1:35" ht="14">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="99">
+      <c r="B7" s="57">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100" t="s">
-        <v>115</v>
-      </c>
-      <c r="O7" s="100" t="s">
-        <v>115</v>
-      </c>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="100"/>
-      <c r="AB7" s="100"/>
-      <c r="AC7" s="100"/>
-      <c r="AD7" s="100"/>
-      <c r="AE7" s="100"/>
-      <c r="AF7" s="100"/>
-      <c r="AG7" s="100"/>
-      <c r="AH7" s="100"/>
-      <c r="AI7" s="100"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="58"/>
+      <c r="AF7" s="58"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="58"/>
+      <c r="AI7" s="58"/>
     </row>
     <row r="8" spans="1:35" ht="14">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="57">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="102" t="s">
+      <c r="H8" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="102"/>
-      <c r="W8" s="102"/>
-      <c r="X8" s="102"/>
-      <c r="Y8" s="102"/>
-      <c r="Z8" s="102"/>
-      <c r="AA8" s="102"/>
-      <c r="AB8" s="102"/>
-      <c r="AC8" s="102"/>
-      <c r="AD8" s="102"/>
-      <c r="AE8" s="102"/>
-      <c r="AF8" s="102"/>
-      <c r="AG8" s="102"/>
-      <c r="AH8" s="102"/>
-      <c r="AI8" s="102"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="60"/>
+      <c r="V8" s="60"/>
+      <c r="W8" s="60"/>
+      <c r="X8" s="60"/>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="60"/>
+      <c r="AE8" s="60"/>
+      <c r="AF8" s="60"/>
+      <c r="AG8" s="60"/>
+      <c r="AH8" s="60"/>
+      <c r="AI8" s="60"/>
     </row>
     <row r="9" spans="1:35" ht="14">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="99">
+      <c r="B9" s="57">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="102"/>
-      <c r="W9" s="102"/>
-      <c r="X9" s="102"/>
-      <c r="Y9" s="102"/>
-      <c r="Z9" s="102"/>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="102"/>
-      <c r="AD9" s="102" t="s">
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="AE9" s="102"/>
-      <c r="AF9" s="102"/>
-      <c r="AG9" s="102"/>
-      <c r="AH9" s="102"/>
-      <c r="AI9" s="102"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="60"/>
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="60"/>
     </row>
     <row r="10" spans="1:35" ht="14">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="99">
+      <c r="B10" s="57">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102" t="s">
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102" t="s">
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="102"/>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="102"/>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="102"/>
-      <c r="AC10" s="102"/>
-      <c r="AD10" s="102"/>
-      <c r="AE10" s="102"/>
-      <c r="AF10" s="102"/>
-      <c r="AG10" s="102"/>
-      <c r="AH10" s="102"/>
-      <c r="AI10" s="102"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="60"/>
+      <c r="AI10" s="60"/>
     </row>
     <row r="11" spans="1:35" ht="14">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="99">
+      <c r="B11" s="57">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102" t="s">
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="102" t="s">
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
-      <c r="V11" s="102"/>
-      <c r="W11" s="102"/>
-      <c r="X11" s="102"/>
-      <c r="Y11" s="102"/>
-      <c r="Z11" s="102"/>
-      <c r="AA11" s="102"/>
-      <c r="AB11" s="102"/>
-      <c r="AC11" s="102"/>
-      <c r="AD11" s="102"/>
-      <c r="AE11" s="102"/>
-      <c r="AF11" s="102"/>
-      <c r="AG11" s="102"/>
-      <c r="AH11" s="102"/>
-      <c r="AI11" s="102"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="60"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="60"/>
+      <c r="AH11" s="60"/>
+      <c r="AI11" s="60"/>
     </row>
     <row r="12" spans="1:35" ht="14">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="99">
+      <c r="B12" s="57">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102" t="s">
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="102"/>
-      <c r="R12" s="102"/>
-      <c r="S12" s="102" t="s">
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="T12" s="102"/>
-      <c r="U12" s="102"/>
-      <c r="V12" s="102"/>
-      <c r="W12" s="102"/>
-      <c r="X12" s="102"/>
-      <c r="Y12" s="102"/>
-      <c r="Z12" s="102"/>
-      <c r="AA12" s="102"/>
-      <c r="AB12" s="102"/>
-      <c r="AC12" s="102"/>
-      <c r="AD12" s="102"/>
-      <c r="AE12" s="102"/>
-      <c r="AF12" s="102"/>
-      <c r="AG12" s="102"/>
-      <c r="AH12" s="102"/>
-      <c r="AI12" s="102"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="60"/>
+      <c r="AH12" s="60"/>
+      <c r="AI12" s="60"/>
     </row>
     <row r="13" spans="1:35" ht="14">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="99">
+      <c r="B13" s="57">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104" t="s">
+      <c r="E13" s="62"/>
+      <c r="F13" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104" t="s">
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="K13" s="104" t="s">
+      <c r="K13" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="L13" s="104" t="s">
+      <c r="L13" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="M13" s="104" t="s">
+      <c r="M13" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="N13" s="104"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="104"/>
-      <c r="U13" s="104"/>
-      <c r="V13" s="104"/>
-      <c r="W13" s="104"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="104"/>
-      <c r="Z13" s="104"/>
-      <c r="AA13" s="104"/>
-      <c r="AB13" s="104"/>
-      <c r="AC13" s="104"/>
-      <c r="AD13" s="104"/>
-      <c r="AE13" s="104"/>
-      <c r="AF13" s="104"/>
-      <c r="AG13" s="104"/>
-      <c r="AH13" s="104"/>
-      <c r="AI13" s="104"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="62"/>
+      <c r="AE13" s="62"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="62"/>
+      <c r="AH13" s="62"/>
+      <c r="AI13" s="62"/>
     </row>
     <row r="14" spans="1:35" ht="14">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="B14" s="99">
+      <c r="B14" s="57">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104" t="s">
+      <c r="E14" s="62"/>
+      <c r="F14" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104" t="s">
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="K14" s="104" t="s">
+      <c r="K14" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="L14" s="104" t="s">
+      <c r="L14" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="M14" s="104" t="s">
+      <c r="M14" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="104"/>
-      <c r="T14" s="104"/>
-      <c r="U14" s="104"/>
-      <c r="V14" s="104"/>
-      <c r="W14" s="104"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="104"/>
-      <c r="Z14" s="104"/>
-      <c r="AA14" s="104"/>
-      <c r="AB14" s="104"/>
-      <c r="AC14" s="104"/>
-      <c r="AD14" s="104"/>
-      <c r="AE14" s="104"/>
-      <c r="AF14" s="104"/>
-      <c r="AG14" s="104"/>
-      <c r="AH14" s="104"/>
-      <c r="AI14" s="104"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="62"/>
     </row>
     <row r="15" spans="1:35" ht="14">
-      <c r="A15" s="103" t="s">
+      <c r="A15" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="B15" s="99">
+      <c r="B15" s="57">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="K15" s="104" t="s">
+      <c r="K15" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="L15" s="104" t="s">
+      <c r="L15" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="M15" s="104" t="s">
+      <c r="M15" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="N15" s="104"/>
-      <c r="O15" s="104"/>
-      <c r="P15" s="104" t="s">
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="Q15" s="104" t="s">
+      <c r="Q15" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="R15" s="104"/>
-      <c r="S15" s="104"/>
-      <c r="T15" s="104"/>
-      <c r="U15" s="104"/>
-      <c r="V15" s="104"/>
-      <c r="W15" s="104"/>
-      <c r="X15" s="104"/>
-      <c r="Y15" s="104"/>
-      <c r="Z15" s="104"/>
-      <c r="AA15" s="104"/>
-      <c r="AB15" s="104"/>
-      <c r="AC15" s="104"/>
-      <c r="AD15" s="104"/>
-      <c r="AE15" s="104"/>
-      <c r="AF15" s="104"/>
-      <c r="AG15" s="104"/>
-      <c r="AH15" s="104"/>
-      <c r="AI15" s="104"/>
+      <c r="R15" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="62"/>
     </row>
     <row r="16" spans="1:35" ht="14">
-      <c r="A16" s="103"/>
-      <c r="B16" s="99">
+      <c r="A16" s="61"/>
+      <c r="B16" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="104"/>
-      <c r="T16" s="104"/>
-      <c r="U16" s="104"/>
-      <c r="V16" s="104"/>
-      <c r="W16" s="104"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="104"/>
-      <c r="Z16" s="104"/>
-      <c r="AA16" s="104"/>
-      <c r="AB16" s="104"/>
-      <c r="AC16" s="104"/>
-      <c r="AD16" s="104"/>
-      <c r="AE16" s="104"/>
-      <c r="AF16" s="104"/>
-      <c r="AG16" s="104"/>
-      <c r="AH16" s="104"/>
-      <c r="AI16" s="104"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="62"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="62"/>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="62"/>
     </row>
     <row r="17" spans="1:35" ht="14">
-      <c r="A17" s="103"/>
-      <c r="B17" s="99">
+      <c r="A17" s="61"/>
+      <c r="B17" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="104"/>
-      <c r="S17" s="104"/>
-      <c r="T17" s="104"/>
-      <c r="U17" s="104"/>
-      <c r="V17" s="104"/>
-      <c r="W17" s="104"/>
-      <c r="X17" s="104"/>
-      <c r="Y17" s="104"/>
-      <c r="Z17" s="104"/>
-      <c r="AA17" s="104"/>
-      <c r="AB17" s="104"/>
-      <c r="AC17" s="104"/>
-      <c r="AD17" s="104"/>
-      <c r="AE17" s="104"/>
-      <c r="AF17" s="104"/>
-      <c r="AG17" s="104"/>
-      <c r="AH17" s="104"/>
-      <c r="AI17" s="104"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="62"/>
+      <c r="AE17" s="62"/>
+      <c r="AF17" s="62"/>
+      <c r="AG17" s="62"/>
+      <c r="AH17" s="62"/>
+      <c r="AI17" s="62"/>
     </row>
     <row r="18" spans="1:35" ht="14">
-      <c r="A18" s="103"/>
-      <c r="B18" s="99">
+      <c r="A18" s="61"/>
+      <c r="B18" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="104"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="104"/>
-      <c r="U18" s="104"/>
-      <c r="V18" s="104"/>
-      <c r="W18" s="104"/>
-      <c r="X18" s="104"/>
-      <c r="Y18" s="104"/>
-      <c r="Z18" s="104"/>
-      <c r="AA18" s="104"/>
-      <c r="AB18" s="104"/>
-      <c r="AC18" s="104"/>
-      <c r="AD18" s="104"/>
-      <c r="AE18" s="104"/>
-      <c r="AF18" s="104"/>
-      <c r="AG18" s="104"/>
-      <c r="AH18" s="104"/>
-      <c r="AI18" s="104"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="62"/>
     </row>
     <row r="19" spans="1:35" ht="14">
-      <c r="A19" s="103"/>
-      <c r="B19" s="99">
+      <c r="A19" s="61"/>
+      <c r="B19" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="104"/>
-      <c r="U19" s="104"/>
-      <c r="V19" s="104"/>
-      <c r="W19" s="104"/>
-      <c r="X19" s="104"/>
-      <c r="Y19" s="104"/>
-      <c r="Z19" s="104"/>
-      <c r="AA19" s="104"/>
-      <c r="AB19" s="104"/>
-      <c r="AC19" s="104"/>
-      <c r="AD19" s="104"/>
-      <c r="AE19" s="104"/>
-      <c r="AF19" s="104"/>
-      <c r="AG19" s="104"/>
-      <c r="AH19" s="104"/>
-      <c r="AI19" s="104"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="62"/>
     </row>
     <row r="20" spans="1:35" ht="14">
-      <c r="A20" s="103"/>
-      <c r="B20" s="99">
+      <c r="A20" s="61"/>
+      <c r="B20" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="104"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="104"/>
-      <c r="P20" s="104"/>
-      <c r="Q20" s="104"/>
-      <c r="R20" s="104"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="104"/>
-      <c r="U20" s="104"/>
-      <c r="V20" s="104"/>
-      <c r="W20" s="104"/>
-      <c r="X20" s="104"/>
-      <c r="Y20" s="104"/>
-      <c r="Z20" s="104"/>
-      <c r="AA20" s="104"/>
-      <c r="AB20" s="104"/>
-      <c r="AC20" s="104"/>
-      <c r="AD20" s="104"/>
-      <c r="AE20" s="104"/>
-      <c r="AF20" s="104"/>
-      <c r="AG20" s="104"/>
-      <c r="AH20" s="104"/>
-      <c r="AI20" s="104"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="62"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="62"/>
     </row>
     <row r="21" spans="1:35" ht="14">
-      <c r="A21" s="103"/>
-      <c r="B21" s="99">
+      <c r="A21" s="61"/>
+      <c r="B21" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="104"/>
-      <c r="N21" s="104"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="104"/>
-      <c r="U21" s="104"/>
-      <c r="V21" s="104"/>
-      <c r="W21" s="104"/>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="104"/>
-      <c r="Z21" s="104"/>
-      <c r="AA21" s="104"/>
-      <c r="AB21" s="104"/>
-      <c r="AC21" s="104"/>
-      <c r="AD21" s="104"/>
-      <c r="AE21" s="104"/>
-      <c r="AF21" s="104"/>
-      <c r="AG21" s="104"/>
-      <c r="AH21" s="104"/>
-      <c r="AI21" s="104"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="62"/>
+      <c r="AI21" s="62"/>
     </row>
     <row r="22" spans="1:35" ht="14">
-      <c r="A22" s="103"/>
-      <c r="B22" s="99">
+      <c r="A22" s="61"/>
+      <c r="B22" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="104"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="104"/>
-      <c r="N22" s="104"/>
-      <c r="O22" s="104"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="104"/>
-      <c r="S22" s="104"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="104"/>
-      <c r="V22" s="104"/>
-      <c r="W22" s="104"/>
-      <c r="X22" s="104"/>
-      <c r="Y22" s="104"/>
-      <c r="Z22" s="104"/>
-      <c r="AA22" s="104"/>
-      <c r="AB22" s="104"/>
-      <c r="AC22" s="104"/>
-      <c r="AD22" s="104"/>
-      <c r="AE22" s="104"/>
-      <c r="AF22" s="104"/>
-      <c r="AG22" s="104"/>
-      <c r="AH22" s="104"/>
-      <c r="AI22" s="104"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="62"/>
+      <c r="AE22" s="62"/>
+      <c r="AF22" s="62"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="62"/>
     </row>
     <row r="23" spans="1:35" ht="14">
-      <c r="A23" s="103"/>
-      <c r="B23" s="99">
+      <c r="A23" s="61"/>
+      <c r="B23" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="104"/>
-      <c r="N23" s="104"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="104"/>
-      <c r="R23" s="104"/>
-      <c r="S23" s="104"/>
-      <c r="T23" s="104"/>
-      <c r="U23" s="104"/>
-      <c r="V23" s="104"/>
-      <c r="W23" s="104"/>
-      <c r="X23" s="104"/>
-      <c r="Y23" s="104"/>
-      <c r="Z23" s="104"/>
-      <c r="AA23" s="104"/>
-      <c r="AB23" s="104"/>
-      <c r="AC23" s="104"/>
-      <c r="AD23" s="104"/>
-      <c r="AE23" s="104"/>
-      <c r="AF23" s="104"/>
-      <c r="AG23" s="104"/>
-      <c r="AH23" s="104"/>
-      <c r="AI23" s="104"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="62"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="62"/>
     </row>
     <row r="24" spans="1:35" ht="14">
-      <c r="A24" s="105"/>
-      <c r="B24" s="99">
+      <c r="A24" s="63"/>
+      <c r="B24" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="106"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="106"/>
-      <c r="R24" s="106"/>
-      <c r="S24" s="106"/>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="106"/>
-      <c r="W24" s="106"/>
-      <c r="X24" s="106"/>
-      <c r="Y24" s="106"/>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="107"/>
-      <c r="AC24" s="107"/>
-      <c r="AD24" s="107"/>
-      <c r="AE24" s="107"/>
-      <c r="AF24" s="107"/>
-      <c r="AG24" s="107"/>
-      <c r="AH24" s="107"/>
-      <c r="AI24" s="107"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="64"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="65"/>
+      <c r="AH24" s="65"/>
+      <c r="AI24" s="65"/>
     </row>
     <row r="25" spans="1:35" ht="14">
-      <c r="A25" s="105"/>
-      <c r="B25" s="99">
+      <c r="A25" s="63"/>
+      <c r="B25" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="106"/>
-      <c r="S25" s="106"/>
-      <c r="T25" s="106"/>
-      <c r="U25" s="106"/>
-      <c r="V25" s="106"/>
-      <c r="W25" s="106"/>
-      <c r="X25" s="106"/>
-      <c r="Y25" s="106"/>
-      <c r="Z25" s="106"/>
-      <c r="AA25" s="106"/>
-      <c r="AB25" s="106"/>
-      <c r="AC25" s="106"/>
-      <c r="AD25" s="106"/>
-      <c r="AE25" s="106"/>
-      <c r="AF25" s="106"/>
-      <c r="AG25" s="106"/>
-      <c r="AH25" s="106"/>
-      <c r="AI25" s="106"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="64"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="65"/>
+      <c r="AF25" s="65"/>
+      <c r="AG25" s="65"/>
+      <c r="AH25" s="65"/>
+      <c r="AI25" s="65"/>
     </row>
     <row r="26" spans="1:35" ht="14">
-      <c r="A26" s="105"/>
-      <c r="B26" s="99">
+      <c r="A26" s="63"/>
+      <c r="B26" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
-      <c r="N26" s="106"/>
-      <c r="O26" s="106"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="106"/>
-      <c r="S26" s="106"/>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="106"/>
-      <c r="W26" s="106"/>
-      <c r="X26" s="106"/>
-      <c r="Y26" s="106"/>
-      <c r="Z26" s="106"/>
-      <c r="AA26" s="106"/>
-      <c r="AB26" s="106"/>
-      <c r="AC26" s="106"/>
-      <c r="AD26" s="106"/>
-      <c r="AE26" s="106"/>
-      <c r="AF26" s="106"/>
-      <c r="AG26" s="106"/>
-      <c r="AH26" s="106"/>
-      <c r="AI26" s="106"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="64"/>
+      <c r="AD26" s="64"/>
+      <c r="AE26" s="64"/>
+      <c r="AF26" s="64"/>
+      <c r="AG26" s="64"/>
+      <c r="AH26" s="64"/>
+      <c r="AI26" s="64"/>
     </row>
     <row r="27" spans="1:35" ht="14">
-      <c r="A27" s="108"/>
-      <c r="B27" s="99">
+      <c r="A27" s="63"/>
+      <c r="B27" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="109"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="109"/>
-      <c r="T27" s="109"/>
-      <c r="U27" s="109"/>
-      <c r="V27" s="109"/>
-      <c r="W27" s="109"/>
-      <c r="X27" s="109"/>
-      <c r="Y27" s="109"/>
-      <c r="Z27" s="109"/>
-      <c r="AA27" s="109"/>
-      <c r="AB27" s="109"/>
-      <c r="AC27" s="109"/>
-      <c r="AD27" s="109"/>
-      <c r="AE27" s="109"/>
-      <c r="AF27" s="109"/>
-      <c r="AG27" s="109"/>
-      <c r="AH27" s="109"/>
-      <c r="AI27" s="109"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="64"/>
+      <c r="AE27" s="64"/>
+      <c r="AF27" s="64"/>
+      <c r="AG27" s="64"/>
+      <c r="AH27" s="64"/>
+      <c r="AI27" s="64"/>
     </row>
     <row r="28" spans="1:35" ht="14">
-      <c r="A28" s="108"/>
-      <c r="B28" s="99">
-        <f>COUNTIF(C28:AI28,"x")</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="109"/>
-      <c r="N28" s="109"/>
-      <c r="O28" s="109"/>
-      <c r="P28" s="109"/>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="109"/>
-      <c r="S28" s="109"/>
-      <c r="T28" s="109"/>
-      <c r="U28" s="109"/>
-      <c r="V28" s="109"/>
-      <c r="W28" s="109"/>
-      <c r="X28" s="109"/>
-      <c r="Y28" s="109"/>
-      <c r="Z28" s="109"/>
-      <c r="AA28" s="109"/>
-      <c r="AB28" s="109"/>
-      <c r="AC28" s="109"/>
-      <c r="AD28" s="109"/>
-      <c r="AE28" s="109"/>
-      <c r="AF28" s="109"/>
-      <c r="AG28" s="109"/>
-      <c r="AH28" s="109"/>
-      <c r="AI28" s="109"/>
-    </row>
-    <row r="29" spans="1:35" ht="14">
-      <c r="A29" s="108"/>
-      <c r="B29" s="99">
+      <c r="A28" s="66"/>
+      <c r="B28" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="109"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="109"/>
-      <c r="U29" s="109"/>
-      <c r="V29" s="109"/>
-      <c r="W29" s="109"/>
-      <c r="X29" s="109"/>
-      <c r="Y29" s="109"/>
-      <c r="Z29" s="109"/>
-      <c r="AA29" s="109"/>
-      <c r="AB29" s="109"/>
-      <c r="AC29" s="109"/>
-      <c r="AD29" s="109"/>
-      <c r="AE29" s="109"/>
-      <c r="AF29" s="109"/>
-      <c r="AG29" s="109"/>
-      <c r="AH29" s="109"/>
-      <c r="AI29" s="109"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="67"/>
+      <c r="V28" s="67"/>
+      <c r="W28" s="67"/>
+      <c r="X28" s="67"/>
+      <c r="Y28" s="67"/>
+      <c r="Z28" s="67"/>
+      <c r="AA28" s="67"/>
+      <c r="AB28" s="67"/>
+      <c r="AC28" s="67"/>
+      <c r="AD28" s="67"/>
+      <c r="AE28" s="67"/>
+      <c r="AF28" s="67"/>
+      <c r="AG28" s="67"/>
+      <c r="AH28" s="67"/>
+      <c r="AI28" s="67"/>
+    </row>
+    <row r="29" spans="1:35" ht="14">
+      <c r="A29" s="66"/>
+      <c r="B29" s="57">
+        <f>COUNTIF(C29:AI29,"x")</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="67"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="67"/>
+      <c r="Y29" s="67"/>
+      <c r="Z29" s="67"/>
+      <c r="AA29" s="67"/>
+      <c r="AB29" s="67"/>
+      <c r="AC29" s="67"/>
+      <c r="AD29" s="67"/>
+      <c r="AE29" s="67"/>
+      <c r="AF29" s="67"/>
+      <c r="AG29" s="67"/>
+      <c r="AH29" s="67"/>
+      <c r="AI29" s="67"/>
     </row>
     <row r="30" spans="1:35" ht="14">
-      <c r="A30" s="108"/>
-      <c r="B30" s="99">
+      <c r="A30" s="66"/>
+      <c r="B30" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="109"/>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="109"/>
-      <c r="R30" s="109"/>
-      <c r="S30" s="109"/>
-      <c r="T30" s="109"/>
-      <c r="U30" s="109"/>
-      <c r="V30" s="109"/>
-      <c r="W30" s="109"/>
-      <c r="X30" s="109"/>
-      <c r="Y30" s="109"/>
-      <c r="Z30" s="109"/>
-      <c r="AA30" s="109"/>
-      <c r="AB30" s="109"/>
-      <c r="AC30" s="109"/>
-      <c r="AD30" s="109"/>
-      <c r="AE30" s="109"/>
-      <c r="AF30" s="109"/>
-      <c r="AG30" s="109"/>
-      <c r="AH30" s="109"/>
-      <c r="AI30" s="109"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="67"/>
+      <c r="V30" s="67"/>
+      <c r="W30" s="67"/>
+      <c r="X30" s="67"/>
+      <c r="Y30" s="67"/>
+      <c r="Z30" s="67"/>
+      <c r="AA30" s="67"/>
+      <c r="AB30" s="67"/>
+      <c r="AC30" s="67"/>
+      <c r="AD30" s="67"/>
+      <c r="AE30" s="67"/>
+      <c r="AF30" s="67"/>
+      <c r="AG30" s="67"/>
+      <c r="AH30" s="67"/>
+      <c r="AI30" s="67"/>
     </row>
     <row r="31" spans="1:35" ht="14">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="30"/>
-      <c r="AA31" s="30"/>
-      <c r="AB31" s="30"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="67"/>
+      <c r="T31" s="67"/>
+      <c r="U31" s="67"/>
+      <c r="V31" s="67"/>
+      <c r="W31" s="67"/>
+      <c r="X31" s="67"/>
+      <c r="Y31" s="67"/>
+      <c r="Z31" s="67"/>
+      <c r="AA31" s="67"/>
+      <c r="AB31" s="67"/>
+      <c r="AC31" s="67"/>
+      <c r="AD31" s="67"/>
+      <c r="AE31" s="67"/>
+      <c r="AF31" s="67"/>
+      <c r="AG31" s="67"/>
+      <c r="AH31" s="67"/>
+      <c r="AI31" s="67"/>
     </row>
     <row r="32" spans="1:35" ht="14">
       <c r="A32" s="30"/>
@@ -6768,8 +6758,8 @@
       <c r="AB32" s="30"/>
     </row>
     <row r="33" spans="1:28" ht="14">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
       <c r="E33" s="30"/>
@@ -6798,10 +6788,8 @@
       <c r="AB33" s="30"/>
     </row>
     <row r="34" spans="1:28" ht="14">
-      <c r="A34" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="57"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
@@ -6830,12 +6818,10 @@
       <c r="AB34" s="30"/>
     </row>
     <row r="35" spans="1:28" ht="14">
-      <c r="A35" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>89</v>
-      </c>
+      <c r="A35" s="102" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="103"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
@@ -6865,10 +6851,10 @@
     </row>
     <row r="36" spans="1:28" ht="14">
       <c r="A36" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
@@ -6899,10 +6885,10 @@
     </row>
     <row r="37" spans="1:28" ht="14">
       <c r="A37" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
@@ -6933,10 +6919,10 @@
     </row>
     <row r="38" spans="1:28" ht="14">
       <c r="A38" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
@@ -6967,10 +6953,10 @@
     </row>
     <row r="39" spans="1:28" ht="14">
       <c r="A39" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
@@ -7001,10 +6987,10 @@
     </row>
     <row r="40" spans="1:28" ht="14">
       <c r="A40" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
@@ -7035,10 +7021,10 @@
     </row>
     <row r="41" spans="1:28" ht="14">
       <c r="A41" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
@@ -7068,8 +7054,12 @@
       <c r="AB41" s="30"/>
     </row>
     <row r="42" spans="1:28" ht="14">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
+      <c r="A42" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>94</v>
+      </c>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
@@ -36107,9 +36097,39 @@
       <c r="AA1009" s="30"/>
       <c r="AB1009" s="30"/>
     </row>
+    <row r="1010" spans="1:28" ht="15" customHeight="1">
+      <c r="A1010" s="30"/>
+      <c r="B1010" s="30"/>
+      <c r="C1010" s="30"/>
+      <c r="D1010" s="30"/>
+      <c r="E1010" s="30"/>
+      <c r="F1010" s="30"/>
+      <c r="G1010" s="30"/>
+      <c r="H1010" s="30"/>
+      <c r="I1010" s="30"/>
+      <c r="J1010" s="30"/>
+      <c r="K1010" s="30"/>
+      <c r="L1010" s="30"/>
+      <c r="M1010" s="30"/>
+      <c r="N1010" s="30"/>
+      <c r="O1010" s="30"/>
+      <c r="P1010" s="30"/>
+      <c r="Q1010" s="30"/>
+      <c r="R1010" s="30"/>
+      <c r="S1010" s="30"/>
+      <c r="T1010" s="30"/>
+      <c r="U1010" s="30"/>
+      <c r="V1010" s="30"/>
+      <c r="W1010" s="30"/>
+      <c r="X1010" s="30"/>
+      <c r="Y1010" s="30"/>
+      <c r="Z1010" s="30"/>
+      <c r="AA1010" s="30"/>
+      <c r="AB1010" s="30"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -36124,8 +36144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -36433,17 +36453,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
       <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
@@ -36452,144 +36472,144 @@
       <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
       <c r="G2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
       <c r="K2" s="11"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
       <c r="G4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
       <c r="G5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="62"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
       <c r="K8" s="11"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58" t="s">
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
       <c r="I11" s="3" t="s">
         <v>26</v>
       </c>
@@ -36600,160 +36620,168 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="15"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
       <c r="I12" s="12"/>
       <c r="J12" s="14"/>
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="15"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
       <c r="I13" s="12"/>
       <c r="J13" s="14"/>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="15"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
       <c r="I14" s="12"/>
       <c r="J14" s="14"/>
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="15"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
       <c r="I15" s="12"/>
       <c r="J15" s="14"/>
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="15"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
       <c r="I16" s="12"/>
       <c r="J16" s="14"/>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="15"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
       <c r="I17" s="12"/>
       <c r="J17" s="14"/>
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="15"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
       <c r="I18" s="12"/>
       <c r="J18" s="14"/>
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="15"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
       <c r="I19" s="12"/>
       <c r="J19" s="14"/>
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="15"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
       <c r="I20" s="12"/>
       <c r="J20" s="14"/>
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
       <c r="K21" s="11"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="65"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
       <c r="K23" s="11"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ssMck9pFw9V9ldaRh95JdUDD8wnLuOhg1UYMLEQiEEfnWR0/8Jw9q1OIkPMKZMdwoXtYmetBhN0HFkcJg6QjIw==" saltValue="1N/vuZnn8YFXm0mmZjxkEA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="35">
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:J23"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="C6:J7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:J10"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="C12:E12"/>
@@ -36767,21 +36795,13 @@
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="C6:J7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:J10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:J23"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
